--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581250EA-E1B2-41C4-B7E3-FBC1037133E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC962188-736D-4A57-AB2E-552B30E0E865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,19 +1340,16 @@
       <c r="B3">
         <v>1000</v>
       </c>
-      <c r="C3">
-        <v>34</v>
-      </c>
       <c r="D3">
         <f>C3*B3</f>
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>183795</v>
+        <v>41440</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -1380,11 +1377,11 @@
         <v>500</v>
       </c>
       <c r="C4">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
-        <v>51500</v>
+        <v>1500</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>3</v>
@@ -1392,7 +1389,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="2">
         <f>H3-D13</f>
-        <v>49525</v>
+        <v>36670</v>
       </c>
       <c r="J4">
         <v>500</v>
@@ -1420,11 +1417,11 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>14800</v>
+        <v>600</v>
       </c>
       <c r="J5">
         <v>200</v>
@@ -1452,11 +1449,11 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>251</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>25100</v>
+        <v>800</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -1484,11 +1481,11 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>5450</v>
+        <v>650</v>
       </c>
       <c r="J7">
         <v>50</v>
@@ -1516,11 +1513,11 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2560</v>
+        <v>320</v>
       </c>
       <c r="J8">
         <v>20</v>
@@ -1548,11 +1545,11 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>860</v>
+        <v>900</v>
       </c>
       <c r="J9">
         <v>10</v>
@@ -1651,7 +1648,7 @@
       <c r="C13" s="25"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
-        <v>134270</v>
+        <v>4770</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>1</v>
@@ -1737,11 +1734,11 @@
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="L18">
         <v>1000</v>
@@ -1781,11 +1778,11 @@
         <v>500</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>1500</v>
+        <v>9500</v>
       </c>
       <c r="L19">
         <v>500</v>
@@ -1825,11 +1822,11 @@
         <v>200</v>
       </c>
       <c r="H20">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>14800</v>
+        <v>3400</v>
       </c>
       <c r="L20">
         <v>200</v>
@@ -1869,11 +1866,11 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>25100</v>
+        <v>2700</v>
       </c>
       <c r="L21">
         <v>100</v>
@@ -1913,11 +1910,11 @@
         <v>50</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="L22">
         <v>50</v>
@@ -1957,11 +1954,11 @@
         <v>20</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>40</v>
       </c>
       <c r="L23">
         <v>20</v>
@@ -2000,9 +1997,12 @@
       <c r="G24">
         <v>10</v>
       </c>
+      <c r="H24">
+        <v>96</v>
+      </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -2143,7 +2143,7 @@
       <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>82400</v>
+        <v>25300</v>
       </c>
       <c r="L28" s="25" t="s">
         <v>1</v>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC962188-736D-4A57-AB2E-552B30E0E865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CBDAC7-E3FB-4421-BA3D-222616B2CE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,6 +843,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,63 +867,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,6 +878,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,13 +900,67 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -966,13 +972,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,7 +982,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -990,17 +990,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1008,8 +1005,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>41440</v>
+        <v>34185</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -1383,13 +1383,13 @@
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
         <v>1500</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="2">
         <f>H3-D13</f>
-        <v>36670</v>
+        <v>30845</v>
       </c>
       <c r="J4">
         <v>500</v>
@@ -1481,11 +1481,11 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="J7">
         <v>50</v>
@@ -1513,11 +1513,11 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>20</v>
@@ -1544,12 +1544,9 @@
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>90</v>
-      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>10</v>
@@ -1642,42 +1639,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="27"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
-        <v>4770</v>
-      </c>
-      <c r="J13" s="25" t="s">
+        <v>3340</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="27"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
         <v>57350</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="27"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
         <v>32000</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1700,10 +1697,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1718,7 +1715,7 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18">
         <v>1000</v>
       </c>
@@ -1762,7 +1759,7 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19">
         <v>500</v>
       </c>
@@ -1806,7 +1803,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20">
         <v>200</v>
       </c>
@@ -1850,7 +1847,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21">
         <v>100</v>
       </c>
@@ -1894,7 +1891,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22">
         <v>50</v>
       </c>
@@ -1938,7 +1935,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23">
         <v>20</v>
       </c>
@@ -1982,7 +1979,7 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24">
         <v>10</v>
       </c>
@@ -2023,7 +2020,7 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="31"/>
       <c r="C25">
         <v>5</v>
       </c>
@@ -2058,7 +2055,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2093,7 +2090,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2128,35 +2125,35 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
         <v>178040</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="27"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
         <v>25300</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="25"/>
+      <c r="M28" s="27"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
         <v>42600</v>
       </c>
-      <c r="Q28" s="25" t="s">
+      <c r="Q28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="25"/>
+      <c r="R28" s="27"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
         <v>46090</v>
@@ -2214,12 +2211,12 @@
         <f>M33*L33</f>
         <v>0</v>
       </c>
-      <c r="P33" s="30" t="s">
+      <c r="P33" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31">
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="25">
         <v>192500</v>
       </c>
     </row>
@@ -2241,10 +2238,10 @@
         <f t="shared" ref="N34:N42" si="12">M34*L34</f>
         <v>0</v>
       </c>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="25"/>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G35">
@@ -2387,30 +2384,30 @@
       </c>
     </row>
     <row r="43" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="24"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
         <v>255500</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="24"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
         <v>0</v>
       </c>
-      <c r="P43" s="24" t="s">
+      <c r="P43" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24">
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26">
         <v>1144410</v>
       </c>
-      <c r="S43" s="24"/>
+      <c r="S43" s="26"/>
     </row>
     <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2591,17 +2588,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2618,6 +2604,17 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2641,45 +2638,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="51"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="H4" s="36" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="H4" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2691,15 +2688,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="34"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2712,7 +2709,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2725,7 +2722,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2738,7 +2735,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2751,7 +2748,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="5" t="s">
         <v>131</v>
       </c>
@@ -2764,7 +2761,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="34"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5" t="s">
         <v>129</v>
       </c>
@@ -2777,7 +2774,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2790,7 +2787,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2803,7 +2800,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2816,7 +2813,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2827,7 +2824,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="34"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2840,7 +2837,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="34"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2851,202 +2848,210 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="34"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="47">
         <v>4</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="36">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="43"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="47">
         <v>6</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="47">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39">
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="51">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3063,20 +3068,12 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3106,111 +3103,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="U1" s="64" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="U1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="K2" s="67" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="K2" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="U2" s="63" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="U2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="K3" s="66" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="K3" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="U3" s="62" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="U3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3303,12 +3300,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="61"/>
+      <c r="N5" s="60"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="60"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3324,12 +3321,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="61"/>
+      <c r="X5" s="60"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="60"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3347,12 +3344,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4080,10 +4077,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="60"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4192,26 +4189,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="64" t="s">
+      <c r="U17" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4245,17 +4242,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="63" t="s">
+      <c r="U18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4270,10 +4267,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4282,17 +4279,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="62" t="s">
+      <c r="U19" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4324,28 +4321,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="K21" s="65" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="K21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4355,12 +4352,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="61"/>
+      <c r="X21" s="60"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="60"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4369,28 +4366,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="K22" s="67" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="K22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4418,28 +4415,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="K23" s="66" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="K23" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4557,12 +4554,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4578,12 +4575,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="61"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5261,10 +5258,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="60"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5376,24 +5373,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="60"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5428,17 +5425,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="67" t="s">
+      <c r="K37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5466,37 +5463,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="U38" s="65" t="s">
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="U38" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5531,17 +5528,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="67" t="s">
+      <c r="U39" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5553,42 +5550,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="61"/>
+      <c r="N40" s="60"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="60"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="66" t="s">
+      <c r="U40" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5643,17 +5640,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5688,12 +5685,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="61"/>
+      <c r="X42" s="60"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="60"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5702,17 +5699,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5853,12 +5850,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="61"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6022,10 +6019,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="60"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6134,17 +6131,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="65" t="s">
+      <c r="K49" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6197,17 +6194,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="67" t="s">
+      <c r="K50" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6260,17 +6257,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="66" t="s">
+      <c r="K51" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6380,10 +6377,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6400,12 +6397,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="61"/>
+      <c r="N53" s="60"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="60"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6415,10 +6412,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="60"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6452,17 +6449,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6488,30 +6485,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="65" t="s">
+      <c r="U55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="65"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6537,30 +6534,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="67" t="s">
+      <c r="U56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="67"/>
-      <c r="AC56" s="67"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="62"/>
+      <c r="AC56" s="62"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6586,17 +6583,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="66" t="s">
+      <c r="U57" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="66"/>
-      <c r="W57" s="66"/>
-      <c r="X57" s="66"/>
-      <c r="Y57" s="66"/>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="66"/>
-      <c r="AB57" s="66"/>
-      <c r="AC57" s="66"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6689,12 +6686,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="61"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="60"/>
-      <c r="G59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="60"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6735,12 +6732,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="61"/>
+      <c r="X59" s="60"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="60"/>
-      <c r="AA59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="60"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6854,10 +6851,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="60"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6969,17 +6966,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7032,17 +7029,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="67" t="s">
+      <c r="K64" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7095,17 +7092,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="66" t="s">
+      <c r="K65" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="66"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7136,10 +7133,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="60"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7210,12 +7207,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="61"/>
+      <c r="N67" s="60"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="60"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7249,17 +7246,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7312,17 +7309,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7351,10 +7348,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="61"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="61"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="60"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7364,17 +7361,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7454,17 +7451,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="64" t="s">
+      <c r="U71" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="64"/>
-      <c r="W71" s="64"/>
-      <c r="X71" s="64"/>
-      <c r="Y71" s="64"/>
-      <c r="Z71" s="64"/>
-      <c r="AA71" s="64"/>
-      <c r="AB71" s="64"/>
-      <c r="AC71" s="64"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="66"/>
+      <c r="Z71" s="66"/>
+      <c r="AA71" s="66"/>
+      <c r="AB71" s="66"/>
+      <c r="AC71" s="66"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7476,12 +7473,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="61"/>
+      <c r="D72" s="60"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="60"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7513,17 +7510,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="63" t="s">
+      <c r="U72" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="63"/>
-      <c r="W72" s="63"/>
-      <c r="X72" s="63"/>
-      <c r="Y72" s="63"/>
-      <c r="Z72" s="63"/>
-      <c r="AA72" s="63"/>
-      <c r="AB72" s="63"/>
-      <c r="AC72" s="63"/>
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="65"/>
+      <c r="AB72" s="65"/>
+      <c r="AC72" s="65"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7576,17 +7573,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="62" t="s">
+      <c r="U73" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="62"/>
-      <c r="W73" s="62"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="62"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="62"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+      <c r="Z73" s="64"/>
+      <c r="AA73" s="64"/>
+      <c r="AB73" s="64"/>
+      <c r="AC73" s="64"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7727,12 +7724,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="61"/>
+      <c r="X75" s="60"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="60"/>
-      <c r="AA75" s="61"/>
+      <c r="Z75" s="61"/>
+      <c r="AA75" s="60"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7769,10 +7766,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="60"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="60"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8122,10 +8119,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8190,10 +8187,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="60"/>
-      <c r="W85" s="60"/>
-      <c r="X85" s="60"/>
-      <c r="Y85" s="61"/>
+      <c r="V85" s="61"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61"/>
+      <c r="Y85" s="60"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8202,77 +8199,11 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8289,11 +8220,77 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8314,14 +8311,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8331,8 +8328,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8342,8 +8339,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8353,8 +8350,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8364,8 +8361,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8375,8 +8372,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8386,8 +8383,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8397,8 +8394,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8408,8 +8405,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8419,10 +8416,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="70">
+      <c r="E11" s="75">
         <v>24100</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8432,10 +8429,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="70">
+      <c r="E12" s="75">
         <v>31812</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8445,10 +8442,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="70">
+      <c r="E13" s="75">
         <v>15183</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="75"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8458,10 +8455,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="70">
+      <c r="E14" s="75">
         <v>42416</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="75"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8471,10 +8468,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="70">
+      <c r="E15" s="75">
         <v>37114</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8484,8 +8481,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8495,30 +8492,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="78">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="70">
+      <c r="D18" s="79"/>
+      <c r="E18" s="75">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8583,163 +8580,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="46"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="75"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="75"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8747,11 +8744,38 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B44:C44"/>
@@ -8768,38 +8792,11 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CBDAC7-E3FB-4421-BA3D-222616B2CE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E609557-C248-4337-9BD8-5D70DDF954EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2115" yWindow="2115" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -843,12 +843,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,6 +861,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,9 +929,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -900,67 +948,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -972,7 +966,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,7 +982,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -990,14 +990,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,11 +1008,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1294,7 +1294,7 @@
   <dimension ref="B1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,16 +1340,19 @@
       <c r="B3">
         <v>1000</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3">
         <f>C3*B3</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>34185</v>
+        <v>33794</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -1377,19 +1380,19 @@
         <v>500</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
-        <v>1500</v>
-      </c>
-      <c r="F4" s="28" t="s">
+        <v>2500</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="2">
         <f>H3-D13</f>
-        <v>30845</v>
+        <v>27994</v>
       </c>
       <c r="J4">
         <v>500</v>
@@ -1417,11 +1420,11 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J5">
         <v>200</v>
@@ -1449,11 +1452,11 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -1481,11 +1484,11 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J7">
         <v>50</v>
@@ -1513,11 +1516,11 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J8">
         <v>20</v>
@@ -1544,9 +1547,12 @@
       <c r="B9">
         <v>10</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J9">
         <v>10</v>
@@ -1639,42 +1645,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="25"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
-        <v>3340</v>
-      </c>
-      <c r="J13" s="27" t="s">
+        <v>5800</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="25"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
         <v>57350</v>
       </c>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="27"/>
+      <c r="P13" s="25"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
         <v>32000</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1697,10 +1703,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1715,7 +1721,7 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18">
         <v>1000</v>
       </c>
@@ -1759,7 +1765,7 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
+      <c r="B19" s="29"/>
       <c r="C19">
         <v>500</v>
       </c>
@@ -1803,7 +1809,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
+      <c r="B20" s="29"/>
       <c r="C20">
         <v>200</v>
       </c>
@@ -1847,7 +1853,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
+      <c r="B21" s="29"/>
       <c r="C21">
         <v>100</v>
       </c>
@@ -1891,7 +1897,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
+      <c r="B22" s="29"/>
       <c r="C22">
         <v>50</v>
       </c>
@@ -1935,7 +1941,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
+      <c r="B23" s="29"/>
       <c r="C23">
         <v>20</v>
       </c>
@@ -1979,7 +1985,7 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
+      <c r="B24" s="29"/>
       <c r="C24">
         <v>10</v>
       </c>
@@ -2020,7 +2026,7 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="29"/>
       <c r="C25">
         <v>5</v>
       </c>
@@ -2055,7 +2061,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
+      <c r="B26" s="29"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2090,7 +2096,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
+      <c r="B27" s="29"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2125,35 +2131,35 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
         <v>178040</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
         <v>25300</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="L28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="27"/>
+      <c r="M28" s="25"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
         <v>42600</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="Q28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="27"/>
+      <c r="R28" s="25"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
         <v>46090</v>
@@ -2211,12 +2217,12 @@
         <f>M33*L33</f>
         <v>0</v>
       </c>
-      <c r="P33" s="24" t="s">
+      <c r="P33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="25">
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31">
         <v>192500</v>
       </c>
     </row>
@@ -2238,10 +2244,10 @@
         <f t="shared" ref="N34:N42" si="12">M34*L34</f>
         <v>0</v>
       </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="25"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="31"/>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G35">
@@ -2384,30 +2390,30 @@
       </c>
     </row>
     <row r="43" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="26"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
         <v>255500</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="26"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
         <v>0</v>
       </c>
-      <c r="P43" s="26" t="s">
+      <c r="P43" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26">
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24">
         <v>1144410</v>
       </c>
-      <c r="S43" s="26"/>
+      <c r="S43" s="24"/>
     </row>
     <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2588,6 +2594,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2604,17 +2621,6 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2638,45 +2644,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="H4" s="43" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="H4" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2688,15 +2694,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="52"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2709,7 +2715,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="52"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2722,7 +2728,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="52"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2735,7 +2741,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="52"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2748,7 +2754,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="52"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="5" t="s">
         <v>131</v>
       </c>
@@ -2761,7 +2767,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="52"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="5" t="s">
         <v>129</v>
       </c>
@@ -2774,7 +2780,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="52"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2787,7 +2793,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="52"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2800,7 +2806,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="52"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2813,7 +2819,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="52"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2824,7 +2830,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2837,7 +2843,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="52"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2848,210 +2854,202 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="52"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="52"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="52"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47">
+      <c r="E21" s="44"/>
+      <c r="F21" s="44">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="53"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="44">
         <v>4</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="46">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="50"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="44">
         <v>6</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="44">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="50"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56">
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44">
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="51">
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="51"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3068,12 +3066,20 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3103,111 +3109,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="U1" s="66" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="U1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="K2" s="62" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="K2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="U2" s="65" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="U2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="K3" s="67" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="K3" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="U3" s="64" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="U3" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3300,12 +3306,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="60"/>
+      <c r="N5" s="61"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3321,12 +3327,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="60"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="61"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3344,12 +3350,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4077,10 +4083,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="61"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4189,26 +4195,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="66" t="s">
+      <c r="U17" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4242,17 +4248,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="65" t="s">
+      <c r="U18" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4267,10 +4273,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4279,17 +4285,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4321,28 +4327,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="K21" s="63" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="K21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4352,12 +4358,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="60"/>
+      <c r="X21" s="61"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4366,28 +4372,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="K22" s="62" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="K22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4415,28 +4421,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="K23" s="67" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="K23" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4554,12 +4560,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4575,12 +4581,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="60"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5258,10 +5264,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5373,24 +5379,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="63" t="s">
+      <c r="K36" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="61"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5425,17 +5431,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5463,37 +5469,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="U38" s="63" t="s">
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="U38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5528,17 +5534,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="62" t="s">
+      <c r="U39" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5550,42 +5556,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="60"/>
+      <c r="N40" s="61"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="61"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="67" t="s">
+      <c r="U40" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5640,17 +5646,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5685,12 +5691,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="60"/>
+      <c r="X42" s="61"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="61"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5699,17 +5705,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5850,12 +5856,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="60"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6019,10 +6025,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="61"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6131,17 +6137,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="63" t="s">
+      <c r="K49" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="63"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6194,17 +6200,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="62" t="s">
+      <c r="K50" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6257,17 +6263,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="67" t="s">
+      <c r="K51" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6377,10 +6383,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6397,12 +6403,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="60"/>
+      <c r="N53" s="61"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="61"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6412,10 +6418,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="61"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6449,17 +6455,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6485,30 +6491,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="63" t="s">
+      <c r="U55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
+      <c r="AB55" s="65"/>
+      <c r="AC55" s="65"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6534,30 +6540,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="62" t="s">
+      <c r="U56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="62"/>
-      <c r="AB56" s="62"/>
-      <c r="AC56" s="62"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6583,17 +6589,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="67" t="s">
+      <c r="U57" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
+      <c r="V57" s="66"/>
+      <c r="W57" s="66"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="66"/>
+      <c r="Z57" s="66"/>
+      <c r="AA57" s="66"/>
+      <c r="AB57" s="66"/>
+      <c r="AC57" s="66"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6686,12 +6692,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="60"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="61"/>
-      <c r="G59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6732,12 +6738,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="60"/>
+      <c r="X59" s="61"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="60"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="61"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6851,10 +6857,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="61"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6966,17 +6972,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="63" t="s">
+      <c r="K63" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7029,17 +7035,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="62" t="s">
+      <c r="K64" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7092,17 +7098,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="67" t="s">
+      <c r="K65" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7133,10 +7139,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7207,12 +7213,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="60"/>
+      <c r="N67" s="61"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="60"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="61"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7246,17 +7252,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7309,17 +7315,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7348,10 +7354,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="60"/>
+      <c r="Y69" s="61"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7361,17 +7367,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7451,17 +7457,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="66" t="s">
+      <c r="U71" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="66"/>
-      <c r="AB71" s="66"/>
-      <c r="AC71" s="66"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+      <c r="Z71" s="64"/>
+      <c r="AA71" s="64"/>
+      <c r="AB71" s="64"/>
+      <c r="AC71" s="64"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7473,12 +7479,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="60"/>
+      <c r="D72" s="61"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="61"/>
-      <c r="G72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7510,17 +7516,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="65" t="s">
+      <c r="U72" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="65"/>
-      <c r="W72" s="65"/>
-      <c r="X72" s="65"/>
-      <c r="Y72" s="65"/>
-      <c r="Z72" s="65"/>
-      <c r="AA72" s="65"/>
-      <c r="AB72" s="65"/>
-      <c r="AC72" s="65"/>
+      <c r="V72" s="63"/>
+      <c r="W72" s="63"/>
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="63"/>
+      <c r="AA72" s="63"/>
+      <c r="AB72" s="63"/>
+      <c r="AC72" s="63"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7573,17 +7579,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="64" t="s">
+      <c r="U73" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="64"/>
-      <c r="W73" s="64"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="64"/>
-      <c r="Z73" s="64"/>
-      <c r="AA73" s="64"/>
-      <c r="AB73" s="64"/>
-      <c r="AC73" s="64"/>
+      <c r="V73" s="62"/>
+      <c r="W73" s="62"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="62"/>
+      <c r="Z73" s="62"/>
+      <c r="AA73" s="62"/>
+      <c r="AB73" s="62"/>
+      <c r="AC73" s="62"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7724,12 +7730,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="60"/>
+      <c r="X75" s="61"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="61"/>
-      <c r="AA75" s="60"/>
+      <c r="Z75" s="60"/>
+      <c r="AA75" s="61"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7766,10 +7772,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="61"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8119,10 +8125,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="61"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8187,10 +8193,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="61"/>
-      <c r="Y85" s="60"/>
+      <c r="V85" s="60"/>
+      <c r="W85" s="60"/>
+      <c r="X85" s="60"/>
+      <c r="Y85" s="61"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8199,11 +8205,77 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8220,77 +8292,11 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8311,14 +8317,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8328,8 +8334,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8339,8 +8345,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8350,8 +8356,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8361,8 +8367,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8372,8 +8378,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8383,8 +8389,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8394,8 +8400,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8405,8 +8411,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8416,10 +8422,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="75">
+      <c r="E11" s="70">
         <v>24100</v>
       </c>
-      <c r="F11" s="75"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8429,10 +8435,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="75">
+      <c r="E12" s="70">
         <v>31812</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8442,10 +8448,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="75">
+      <c r="E13" s="70">
         <v>15183</v>
       </c>
-      <c r="F13" s="75"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8455,10 +8461,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="75">
+      <c r="E14" s="70">
         <v>42416</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8468,10 +8474,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="75">
+      <c r="E15" s="70">
         <v>37114</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8481,8 +8487,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8492,30 +8498,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="73">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="75">
+      <c r="D18" s="74"/>
+      <c r="E18" s="70">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8580,163 +8586,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="36"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="77"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="36"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="73"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="73"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8744,6 +8750,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C5:D5"/>
@@ -8760,43 +8803,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E609557-C248-4337-9BD8-5D70DDF954EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CF75BE-FCA2-4ADD-8B4F-7CF35B483832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2115" yWindow="2115" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,28 +1341,28 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <f>C3*B3</f>
-        <v>1000</v>
+        <v>19000</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>33794</v>
+        <v>98317</v>
       </c>
       <c r="J3">
         <v>1000</v>
       </c>
       <c r="K3">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="O3">
         <v>1000</v>
@@ -1380,11 +1380,11 @@
         <v>500</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
-        <v>2500</v>
+        <v>23000</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>3</v>
@@ -1392,27 +1392,27 @@
       <c r="G4" s="26"/>
       <c r="H4" s="2">
         <f>H3-D13</f>
-        <v>27994</v>
+        <v>-10413</v>
       </c>
       <c r="J4">
         <v>500</v>
       </c>
       <c r="K4">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>22500</v>
+        <v>10000</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
       <c r="P4">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>9500</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1420,31 +1420,31 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>10600</v>
       </c>
       <c r="J5">
         <v>200</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1452,31 +1452,31 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>22200</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1484,31 +1484,31 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>32500</v>
       </c>
       <c r="J7">
         <v>50</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1516,31 +1516,31 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>1040</v>
       </c>
       <c r="J8">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
       <c r="P8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -1548,31 +1548,28 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -1651,7 +1648,7 @@
       <c r="C13" s="25"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
-        <v>5800</v>
+        <v>108730</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>1</v>
@@ -1659,7 +1656,7 @@
       <c r="K13" s="25"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>57350</v>
+        <v>27090</v>
       </c>
       <c r="O13" s="25" t="s">
         <v>1</v>
@@ -1667,7 +1664,7 @@
       <c r="P13" s="25"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>32000</v>
+        <v>28200</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -1726,42 +1723,39 @@
         <v>1000</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:D24" si="3">K3+P3+M18+R18</f>
-        <v>69</v>
+        <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
+        <v>44</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>69000</v>
+        <v>44000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
-      <c r="H18">
-        <v>8</v>
-      </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>17000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
@@ -1771,41 +1765,38 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>60500</v>
+        <v>59000</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
-      <c r="H19">
-        <v>19</v>
-      </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>12500</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
@@ -1815,21 +1806,18 @@
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>14800</v>
+        <v>6000</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
-      <c r="H20">
-        <v>17</v>
-      </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>200</v>
@@ -1845,11 +1833,11 @@
         <v>200</v>
       </c>
       <c r="R20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
@@ -1859,41 +1847,38 @@
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>25000</v>
+        <v>26800</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
-      <c r="H21">
-        <v>27</v>
-      </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>12200</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
@@ -1903,41 +1888,38 @@
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>5500</v>
+        <v>2350</v>
       </c>
       <c r="G22">
         <v>50</v>
-      </c>
-      <c r="H22">
-        <v>14</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>1250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
@@ -1947,41 +1929,38 @@
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>2400</v>
+        <v>840</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
       <c r="R23">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>1360</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
@@ -1991,38 +1970,38 @@
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>840</v>
+        <v>190</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
-      <c r="H24">
-        <v>96</v>
-      </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
+      <c r="M24">
+        <v>16</v>
+      </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
       <c r="R24">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>780</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
@@ -2031,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D27" si="8">K10+P10+M25+R25</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E25">
@@ -2049,14 +2028,14 @@
         <v>5</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25:N27" si="9">M25*L25</f>
+        <f t="shared" ref="N25:N27" si="8">M25*L25</f>
         <v>0</v>
       </c>
       <c r="Q25">
         <v>5</v>
       </c>
       <c r="S25">
-        <f t="shared" ref="S25:S27" si="10">R25*Q25</f>
+        <f t="shared" ref="S25:S27" si="9">R25*Q25</f>
         <v>0</v>
       </c>
     </row>
@@ -2066,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E26">
@@ -2084,14 +2063,14 @@
         <v>2</v>
       </c>
       <c r="N26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q26">
         <v>2</v>
       </c>
       <c r="S26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2101,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E27">
@@ -2119,14 +2098,14 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="S27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2138,7 +2117,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>178040</v>
+        <v>139180</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>1</v>
@@ -2146,7 +2125,7 @@
       <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>25300</v>
+        <v>0</v>
       </c>
       <c r="L28" s="25" t="s">
         <v>1</v>
@@ -2154,7 +2133,7 @@
       <c r="M28" s="25"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>42600</v>
+        <v>45140</v>
       </c>
       <c r="Q28" s="25" t="s">
         <v>1</v>
@@ -2162,7 +2141,7 @@
       <c r="R28" s="25"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>46090</v>
+        <v>38750</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2234,14 +2213,14 @@
         <v>306</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34:I42" si="11">H34*G34</f>
+        <f t="shared" ref="I34:I42" si="10">H34*G34</f>
         <v>153000</v>
       </c>
       <c r="L34">
         <v>500</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N42" si="12">M34*L34</f>
+        <f t="shared" ref="N34:N42" si="11">M34*L34</f>
         <v>0</v>
       </c>
       <c r="P34" s="30"/>
@@ -2257,14 +2236,14 @@
         <v>16</v>
       </c>
       <c r="I35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3200</v>
       </c>
       <c r="L35">
         <v>200</v>
       </c>
       <c r="N35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2282,14 +2261,14 @@
         <v>33</v>
       </c>
       <c r="I36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3300</v>
       </c>
       <c r="L36">
         <v>100</v>
       </c>
       <c r="N36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2298,14 +2277,14 @@
         <v>50</v>
       </c>
       <c r="I37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>50</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>50</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2314,14 +2293,14 @@
         <v>20</v>
       </c>
       <c r="I38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L38">
         <v>20</v>
       </c>
       <c r="N38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2330,14 +2309,14 @@
         <v>10</v>
       </c>
       <c r="I39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L39">
         <v>10</v>
       </c>
       <c r="N39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2346,14 +2325,14 @@
         <v>5</v>
       </c>
       <c r="I40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L40">
         <v>5</v>
       </c>
       <c r="N40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2362,14 +2341,14 @@
         <v>2</v>
       </c>
       <c r="I41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L41">
         <v>2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2378,14 +2357,14 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="N42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2504,7 +2483,7 @@
         <v>90</v>
       </c>
       <c r="X47">
-        <f t="shared" ref="X47:X48" si="13">SUM(E47:W47)</f>
+        <f t="shared" ref="X47:X48" si="12">SUM(E47:W47)</f>
         <v>1710</v>
       </c>
     </row>
@@ -2546,7 +2525,7 @@
         <v>250</v>
       </c>
       <c r="X48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1720</v>
       </c>
     </row>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CF75BE-FCA2-4ADD-8B4F-7CF35B483832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752DC972-A4B5-4F59-BB3C-79AF90B27E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4530" yWindow="3195" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -843,6 +843,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,63 +867,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,6 +878,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,13 +900,67 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -966,13 +972,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,7 +982,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -990,17 +990,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1008,8 +1005,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,19 +1340,16 @@
       <c r="B3">
         <v>1000</v>
       </c>
-      <c r="C3">
-        <v>19</v>
-      </c>
       <c r="D3">
         <f>C3*B3</f>
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>98317</v>
+        <v>29236</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -1380,19 +1377,19 @@
         <v>500</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
-        <v>23000</v>
-      </c>
-      <c r="F4" s="26" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="2">
         <f>H3-D13</f>
-        <v>-10413</v>
+        <v>6676</v>
       </c>
       <c r="J4">
         <v>500</v>
@@ -1420,11 +1417,11 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>10600</v>
+        <v>20000</v>
       </c>
       <c r="J5">
         <v>200</v>
@@ -1452,11 +1449,11 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>222</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>22200</v>
+        <v>700</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -1483,12 +1480,9 @@
       <c r="B7">
         <v>50</v>
       </c>
-      <c r="C7">
-        <v>650</v>
-      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>32500</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>50</v>
@@ -1516,11 +1510,11 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>20</v>
       </c>
       <c r="J8">
         <v>20</v>
@@ -1548,11 +1542,11 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="J9">
         <v>10</v>
@@ -1642,42 +1636,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="27"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
-        <v>108730</v>
-      </c>
-      <c r="J13" s="25" t="s">
+        <v>22560</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="27"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
         <v>27090</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="27"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
         <v>28200</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1700,10 +1694,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1718,7 +1712,7 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18">
         <v>1000</v>
       </c>
@@ -1733,9 +1727,12 @@
       <c r="G18">
         <v>1000</v>
       </c>
+      <c r="H18">
+        <v>63</v>
+      </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>0</v>
+        <v>63000</v>
       </c>
       <c r="L18">
         <v>1000</v>
@@ -1759,7 +1756,7 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19">
         <v>500</v>
       </c>
@@ -1774,9 +1771,12 @@
       <c r="G19">
         <v>500</v>
       </c>
+      <c r="H19">
+        <v>120</v>
+      </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L19">
         <v>500</v>
@@ -1800,7 +1800,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20">
         <v>200</v>
       </c>
@@ -1815,9 +1815,12 @@
       <c r="G20">
         <v>200</v>
       </c>
+      <c r="H20">
+        <v>83</v>
+      </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16600</v>
       </c>
       <c r="L20">
         <v>200</v>
@@ -1841,7 +1844,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21">
         <v>100</v>
       </c>
@@ -1856,9 +1859,12 @@
       <c r="G21">
         <v>100</v>
       </c>
+      <c r="H21">
+        <v>490</v>
+      </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="L21">
         <v>100</v>
@@ -1882,7 +1888,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22">
         <v>50</v>
       </c>
@@ -1897,9 +1903,12 @@
       <c r="G22">
         <v>50</v>
       </c>
+      <c r="H22">
+        <v>685</v>
+      </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>34250</v>
       </c>
       <c r="L22">
         <v>50</v>
@@ -1923,7 +1932,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23">
         <v>20</v>
       </c>
@@ -1938,9 +1947,12 @@
       <c r="G23">
         <v>20</v>
       </c>
+      <c r="H23">
+        <v>94</v>
+      </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1880</v>
       </c>
       <c r="L23">
         <v>20</v>
@@ -1964,7 +1976,7 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24">
         <v>10</v>
       </c>
@@ -2005,7 +2017,7 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="31"/>
       <c r="C25">
         <v>5</v>
       </c>
@@ -2040,7 +2052,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2075,7 +2087,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2110,35 +2122,35 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
         <v>139180</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="27"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="25" t="s">
+        <v>224730</v>
+      </c>
+      <c r="L28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="25"/>
+      <c r="M28" s="27"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
         <v>45140</v>
       </c>
-      <c r="Q28" s="25" t="s">
+      <c r="Q28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="25"/>
+      <c r="R28" s="27"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
         <v>38750</v>
@@ -2192,16 +2204,19 @@
       <c r="L33">
         <v>1000</v>
       </c>
+      <c r="M33">
+        <v>71</v>
+      </c>
       <c r="N33">
         <f>M33*L33</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="30" t="s">
+        <v>71000</v>
+      </c>
+      <c r="P33" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31">
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="25">
         <v>192500</v>
       </c>
     </row>
@@ -2219,14 +2234,17 @@
       <c r="L34">
         <v>500</v>
       </c>
+      <c r="M34">
+        <v>239</v>
+      </c>
       <c r="N34">
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
+        <v>119500</v>
+      </c>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="25"/>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G35">
@@ -2242,9 +2260,12 @@
       <c r="L35">
         <v>200</v>
       </c>
+      <c r="M35">
+        <v>34</v>
+      </c>
       <c r="N35">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="36" spans="3:24" x14ac:dyDescent="0.25">
@@ -2267,9 +2288,12 @@
       <c r="L36">
         <v>100</v>
       </c>
+      <c r="M36">
+        <v>600</v>
+      </c>
       <c r="N36">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="37" spans="3:24" x14ac:dyDescent="0.25">
@@ -2283,9 +2307,12 @@
       <c r="L37">
         <v>50</v>
       </c>
+      <c r="M37">
+        <v>685</v>
+      </c>
       <c r="N37">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>34250</v>
       </c>
     </row>
     <row r="38" spans="3:24" x14ac:dyDescent="0.25">
@@ -2299,9 +2326,12 @@
       <c r="L38">
         <v>20</v>
       </c>
+      <c r="M38">
+        <v>95</v>
+      </c>
       <c r="N38">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="39" spans="3:24" x14ac:dyDescent="0.25">
@@ -2369,30 +2399,30 @@
       </c>
     </row>
     <row r="43" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="24"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
         <v>255500</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="24"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
-        <v>0</v>
-      </c>
-      <c r="P43" s="24" t="s">
+        <v>293450</v>
+      </c>
+      <c r="P43" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24">
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26">
         <v>1144410</v>
       </c>
-      <c r="S43" s="24"/>
+      <c r="S43" s="26"/>
     </row>
     <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2573,17 +2603,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2600,6 +2619,17 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2623,45 +2653,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="51"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="H4" s="36" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="H4" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2673,15 +2703,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="34"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2694,7 +2724,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2707,7 +2737,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2720,7 +2750,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2733,7 +2763,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="5" t="s">
         <v>131</v>
       </c>
@@ -2746,7 +2776,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="34"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5" t="s">
         <v>129</v>
       </c>
@@ -2759,7 +2789,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2772,7 +2802,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2785,7 +2815,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2798,7 +2828,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2809,7 +2839,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="34"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2822,7 +2852,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="34"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2833,202 +2863,210 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="34"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="47">
         <v>4</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="36">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="43"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="47">
         <v>6</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="47">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39">
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="51">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3045,20 +3083,12 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3088,111 +3118,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="U1" s="64" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="U1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="K2" s="67" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="K2" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="U2" s="63" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="U2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="K3" s="66" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="K3" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="U3" s="62" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="U3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3285,12 +3315,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="61"/>
+      <c r="N5" s="60"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="60"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3306,12 +3336,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="61"/>
+      <c r="X5" s="60"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="60"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3329,12 +3359,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4062,10 +4092,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="60"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4174,26 +4204,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="64" t="s">
+      <c r="U17" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4227,17 +4257,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="63" t="s">
+      <c r="U18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4252,10 +4282,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4264,17 +4294,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="62" t="s">
+      <c r="U19" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4306,28 +4336,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="K21" s="65" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="K21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4337,12 +4367,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="61"/>
+      <c r="X21" s="60"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="60"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4351,28 +4381,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="K22" s="67" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="K22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4400,28 +4430,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="K23" s="66" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="K23" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4539,12 +4569,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4560,12 +4590,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="61"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5243,10 +5273,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="60"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5358,24 +5388,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="60"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5410,17 +5440,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="67" t="s">
+      <c r="K37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5448,37 +5478,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="U38" s="65" t="s">
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="U38" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5513,17 +5543,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="67" t="s">
+      <c r="U39" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5535,42 +5565,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="61"/>
+      <c r="N40" s="60"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="60"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="66" t="s">
+      <c r="U40" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5625,17 +5655,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5670,12 +5700,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="61"/>
+      <c r="X42" s="60"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="60"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5684,17 +5714,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5835,12 +5865,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="61"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6004,10 +6034,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="60"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6116,17 +6146,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="65" t="s">
+      <c r="K49" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6179,17 +6209,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="67" t="s">
+      <c r="K50" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6242,17 +6272,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="66" t="s">
+      <c r="K51" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6362,10 +6392,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6382,12 +6412,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="61"/>
+      <c r="N53" s="60"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="60"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6397,10 +6427,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="60"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6434,17 +6464,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6470,30 +6500,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="65" t="s">
+      <c r="U55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="65"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6519,30 +6549,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="67" t="s">
+      <c r="U56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="67"/>
-      <c r="AC56" s="67"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="62"/>
+      <c r="AC56" s="62"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6568,17 +6598,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="66" t="s">
+      <c r="U57" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="66"/>
-      <c r="W57" s="66"/>
-      <c r="X57" s="66"/>
-      <c r="Y57" s="66"/>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="66"/>
-      <c r="AB57" s="66"/>
-      <c r="AC57" s="66"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6671,12 +6701,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="61"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="60"/>
-      <c r="G59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="60"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6717,12 +6747,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="61"/>
+      <c r="X59" s="60"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="60"/>
-      <c r="AA59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="60"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6836,10 +6866,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="60"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6951,17 +6981,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7014,17 +7044,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="67" t="s">
+      <c r="K64" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7077,17 +7107,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="66" t="s">
+      <c r="K65" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="66"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7118,10 +7148,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="60"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7192,12 +7222,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="61"/>
+      <c r="N67" s="60"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="60"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7231,17 +7261,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7294,17 +7324,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7333,10 +7363,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="61"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="61"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="60"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7346,17 +7376,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7436,17 +7466,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="64" t="s">
+      <c r="U71" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="64"/>
-      <c r="W71" s="64"/>
-      <c r="X71" s="64"/>
-      <c r="Y71" s="64"/>
-      <c r="Z71" s="64"/>
-      <c r="AA71" s="64"/>
-      <c r="AB71" s="64"/>
-      <c r="AC71" s="64"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="66"/>
+      <c r="Z71" s="66"/>
+      <c r="AA71" s="66"/>
+      <c r="AB71" s="66"/>
+      <c r="AC71" s="66"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7458,12 +7488,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="61"/>
+      <c r="D72" s="60"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="60"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7495,17 +7525,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="63" t="s">
+      <c r="U72" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="63"/>
-      <c r="W72" s="63"/>
-      <c r="X72" s="63"/>
-      <c r="Y72" s="63"/>
-      <c r="Z72" s="63"/>
-      <c r="AA72" s="63"/>
-      <c r="AB72" s="63"/>
-      <c r="AC72" s="63"/>
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="65"/>
+      <c r="AB72" s="65"/>
+      <c r="AC72" s="65"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7558,17 +7588,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="62" t="s">
+      <c r="U73" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="62"/>
-      <c r="W73" s="62"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="62"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="62"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+      <c r="Z73" s="64"/>
+      <c r="AA73" s="64"/>
+      <c r="AB73" s="64"/>
+      <c r="AC73" s="64"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7709,12 +7739,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="61"/>
+      <c r="X75" s="60"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="60"/>
-      <c r="AA75" s="61"/>
+      <c r="Z75" s="61"/>
+      <c r="AA75" s="60"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7751,10 +7781,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="60"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="60"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8104,10 +8134,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8172,10 +8202,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="60"/>
-      <c r="W85" s="60"/>
-      <c r="X85" s="60"/>
-      <c r="Y85" s="61"/>
+      <c r="V85" s="61"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61"/>
+      <c r="Y85" s="60"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8184,77 +8214,11 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8271,11 +8235,77 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8296,14 +8326,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8313,8 +8343,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8324,8 +8354,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8335,8 +8365,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8346,8 +8376,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8357,8 +8387,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8368,8 +8398,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8379,8 +8409,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8390,8 +8420,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8401,10 +8431,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="70">
+      <c r="E11" s="75">
         <v>24100</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8414,10 +8444,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="70">
+      <c r="E12" s="75">
         <v>31812</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8427,10 +8457,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="70">
+      <c r="E13" s="75">
         <v>15183</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="75"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8440,10 +8470,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="70">
+      <c r="E14" s="75">
         <v>42416</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="75"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8453,10 +8483,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="70">
+      <c r="E15" s="75">
         <v>37114</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8466,8 +8496,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8477,30 +8507,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="78">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="70">
+      <c r="D18" s="79"/>
+      <c r="E18" s="75">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8565,163 +8595,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="46"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="75"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="75"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8729,11 +8759,38 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B44:C44"/>
@@ -8750,38 +8807,11 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752DC972-A4B5-4F59-BB3C-79AF90B27E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13FA8A5-2BBE-453E-A4BE-668B1C4CEEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4530" yWindow="3195" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -843,12 +843,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,6 +861,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,9 +929,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -900,67 +948,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -972,7 +966,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,7 +982,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -990,14 +990,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,11 +1008,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,36 +1340,39 @@
       <c r="B3">
         <v>1000</v>
       </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
       <c r="D3">
         <f>C3*B3</f>
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>29236</v>
+        <v>21973</v>
       </c>
       <c r="J3">
         <v>1000</v>
       </c>
       <c r="K3">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>11000</v>
+        <v>46000</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>8000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1377,39 +1380,39 @@
         <v>500</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
-        <v>1500</v>
-      </c>
-      <c r="F4" s="28" t="s">
+        <v>4000</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="2">
         <f>H3-D13</f>
-        <v>6676</v>
+        <v>-6527</v>
       </c>
       <c r="J4">
         <v>500</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>10000</v>
+        <v>19500</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
       <c r="P4">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>17000</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1417,31 +1420,31 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>600</v>
       </c>
       <c r="J5">
         <v>200</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1449,111 +1452,111 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>3700</v>
+        <v>5200</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>1700</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>50</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7">
         <v>50</v>
       </c>
       <c r="K7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>240</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>34</v>
-      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1636,42 +1639,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="25"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
-        <v>22560</v>
-      </c>
-      <c r="J13" s="27" t="s">
+        <v>28500</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="25"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>27090</v>
-      </c>
-      <c r="O13" s="27" t="s">
+        <v>71630</v>
+      </c>
+      <c r="O13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="27"/>
+      <c r="P13" s="25"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>28200</v>
+        <v>49260</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1694,10 +1697,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1712,27 +1715,27 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>44000</v>
+        <v>100000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>63000</v>
+        <v>117000</v>
       </c>
       <c r="L18">
         <v>1000</v>
@@ -1748,276 +1751,279 @@
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>12000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
+      <c r="B19" s="29"/>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>59000</v>
+        <v>83000</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>60000</v>
+        <v>87000</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>21000</v>
+        <v>30500</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>11000</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
+      <c r="B20" s="29"/>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>28000</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
       <c r="H20">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>16600</v>
+        <v>28600</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>400</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
+      <c r="B21" s="29"/>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>26800</v>
+        <v>27400</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>490</v>
+        <v>282</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>49000</v>
+        <v>28200</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>14900</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
+      <c r="B22" s="29"/>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>2350</v>
+        <v>5650</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>685</v>
+        <v>115</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>34250</v>
+        <v>5750</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>400</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
+      <c r="B23" s="29"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>840</v>
+        <v>2620</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>1880</v>
+        <v>2620</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>1100</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
+      <c r="B24" s="29"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>190</v>
+        <v>640</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
+      <c r="H24">
+        <v>63</v>
+      </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="29"/>
       <c r="C25">
         <v>5</v>
       </c>
@@ -2052,7 +2058,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
+      <c r="B26" s="29"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2087,7 +2093,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
+      <c r="B27" s="29"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2122,38 +2128,38 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>139180</v>
-      </c>
-      <c r="G28" s="27" t="s">
+        <v>247310</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>224730</v>
-      </c>
-      <c r="L28" s="27" t="s">
+        <v>269800</v>
+      </c>
+      <c r="L28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="27"/>
+      <c r="M28" s="25"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>45140</v>
-      </c>
-      <c r="Q28" s="27" t="s">
+        <v>53100</v>
+      </c>
+      <c r="Q28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="27"/>
+      <c r="R28" s="25"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>38750</v>
+        <v>73320</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2195,28 +2201,25 @@
         <v>1000</v>
       </c>
       <c r="H33">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="I33">
         <f>H33*G33</f>
-        <v>96000</v>
+        <v>135000</v>
       </c>
       <c r="L33">
         <v>1000</v>
       </c>
-      <c r="M33">
-        <v>71</v>
-      </c>
       <c r="N33">
         <f>M33*L33</f>
-        <v>71000</v>
-      </c>
-      <c r="P33" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="25">
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31">
         <v>192500</v>
       </c>
     </row>
@@ -2225,47 +2228,44 @@
         <v>500</v>
       </c>
       <c r="H34">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:I42" si="10">H34*G34</f>
-        <v>153000</v>
+        <v>133500</v>
       </c>
       <c r="L34">
         <v>500</v>
       </c>
-      <c r="M34">
-        <v>239</v>
-      </c>
       <c r="N34">
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
-        <v>119500</v>
-      </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="31"/>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>200</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I35">
         <f t="shared" si="10"/>
-        <v>3200</v>
+        <v>4800</v>
       </c>
       <c r="L35">
         <v>200</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <f t="shared" si="11"/>
-        <v>6800</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="36" spans="3:24" x14ac:dyDescent="0.25">
@@ -2279,75 +2279,84 @@
         <v>100</v>
       </c>
       <c r="H36">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>3300</v>
+        <v>30000</v>
       </c>
       <c r="L36">
         <v>100</v>
       </c>
       <c r="M36">
-        <v>600</v>
+        <v>101</v>
       </c>
       <c r="N36">
         <f t="shared" si="11"/>
-        <v>60000</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="37" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>50</v>
       </c>
+      <c r="H37">
+        <v>319</v>
+      </c>
       <c r="I37">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15950</v>
       </c>
       <c r="L37">
         <v>50</v>
-      </c>
-      <c r="M37">
-        <v>685</v>
       </c>
       <c r="N37">
         <f t="shared" si="11"/>
-        <v>34250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>20</v>
       </c>
+      <c r="H38">
+        <v>82</v>
+      </c>
       <c r="I38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1640</v>
       </c>
       <c r="L38">
         <v>20</v>
       </c>
       <c r="M38">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="N38">
         <f t="shared" si="11"/>
-        <v>1900</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>10</v>
       </c>
+      <c r="H39">
+        <v>61</v>
+      </c>
       <c r="I39">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="L39">
         <v>10</v>
       </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
       <c r="N39">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="3:24" x14ac:dyDescent="0.25">
@@ -2399,30 +2408,30 @@
       </c>
     </row>
     <row r="43" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="26"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
-        <v>255500</v>
-      </c>
-      <c r="L43" s="26" t="s">
+        <v>321500</v>
+      </c>
+      <c r="L43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="26"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
-        <v>293450</v>
-      </c>
-      <c r="P43" s="26" t="s">
+        <v>14350</v>
+      </c>
+      <c r="P43" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26">
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24">
         <v>1144410</v>
       </c>
-      <c r="S43" s="26"/>
+      <c r="S43" s="24"/>
     </row>
     <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2603,6 +2612,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2619,17 +2639,6 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2653,45 +2662,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="H4" s="43" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="H4" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2703,15 +2712,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="52"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2724,7 +2733,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="52"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2737,7 +2746,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="52"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2750,7 +2759,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="52"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2763,7 +2772,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="52"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="5" t="s">
         <v>131</v>
       </c>
@@ -2776,7 +2785,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="52"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="5" t="s">
         <v>129</v>
       </c>
@@ -2789,7 +2798,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="52"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2802,7 +2811,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="52"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2815,7 +2824,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="52"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2828,7 +2837,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="52"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2839,7 +2848,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2852,7 +2861,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="52"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2863,210 +2872,202 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="52"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="52"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="52"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47">
+      <c r="E21" s="44"/>
+      <c r="F21" s="44">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="53"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="44">
         <v>4</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="46">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="50"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="44">
         <v>6</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="44">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="50"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56">
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44">
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="51">
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="51"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3083,12 +3084,20 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3118,111 +3127,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="U1" s="66" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="U1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="K2" s="62" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="K2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="U2" s="65" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="U2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="K3" s="67" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="K3" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="U3" s="64" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="U3" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3315,12 +3324,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="60"/>
+      <c r="N5" s="61"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3336,12 +3345,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="60"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="61"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3359,12 +3368,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4092,10 +4101,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="61"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4204,26 +4213,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="66" t="s">
+      <c r="U17" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4257,17 +4266,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="65" t="s">
+      <c r="U18" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4282,10 +4291,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4294,17 +4303,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4336,28 +4345,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="K21" s="63" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="K21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4367,12 +4376,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="60"/>
+      <c r="X21" s="61"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4381,28 +4390,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="K22" s="62" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="K22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4430,28 +4439,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="K23" s="67" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="K23" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4569,12 +4578,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4590,12 +4599,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="60"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5273,10 +5282,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5388,24 +5397,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="63" t="s">
+      <c r="K36" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="61"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5440,17 +5449,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5478,37 +5487,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="U38" s="63" t="s">
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="U38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5543,17 +5552,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="62" t="s">
+      <c r="U39" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5565,42 +5574,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="60"/>
+      <c r="N40" s="61"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="61"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="67" t="s">
+      <c r="U40" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5655,17 +5664,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5700,12 +5709,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="60"/>
+      <c r="X42" s="61"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="61"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5714,17 +5723,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5865,12 +5874,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="60"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6034,10 +6043,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="61"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6146,17 +6155,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="63" t="s">
+      <c r="K49" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="63"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6209,17 +6218,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="62" t="s">
+      <c r="K50" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6272,17 +6281,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="67" t="s">
+      <c r="K51" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6392,10 +6401,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6412,12 +6421,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="60"/>
+      <c r="N53" s="61"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="61"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6427,10 +6436,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="61"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6464,17 +6473,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6500,30 +6509,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="63" t="s">
+      <c r="U55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
+      <c r="AB55" s="65"/>
+      <c r="AC55" s="65"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6549,30 +6558,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="62" t="s">
+      <c r="U56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="62"/>
-      <c r="AB56" s="62"/>
-      <c r="AC56" s="62"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6598,17 +6607,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="67" t="s">
+      <c r="U57" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
+      <c r="V57" s="66"/>
+      <c r="W57" s="66"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="66"/>
+      <c r="Z57" s="66"/>
+      <c r="AA57" s="66"/>
+      <c r="AB57" s="66"/>
+      <c r="AC57" s="66"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6701,12 +6710,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="60"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="61"/>
-      <c r="G59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6747,12 +6756,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="60"/>
+      <c r="X59" s="61"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="60"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="61"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6866,10 +6875,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="61"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6981,17 +6990,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="63" t="s">
+      <c r="K63" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7044,17 +7053,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="62" t="s">
+      <c r="K64" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7107,17 +7116,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="67" t="s">
+      <c r="K65" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7148,10 +7157,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7222,12 +7231,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="60"/>
+      <c r="N67" s="61"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="60"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="61"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7261,17 +7270,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7324,17 +7333,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7363,10 +7372,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="60"/>
+      <c r="Y69" s="61"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7376,17 +7385,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7466,17 +7475,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="66" t="s">
+      <c r="U71" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="66"/>
-      <c r="AB71" s="66"/>
-      <c r="AC71" s="66"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+      <c r="Z71" s="64"/>
+      <c r="AA71" s="64"/>
+      <c r="AB71" s="64"/>
+      <c r="AC71" s="64"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7488,12 +7497,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="60"/>
+      <c r="D72" s="61"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="61"/>
-      <c r="G72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7525,17 +7534,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="65" t="s">
+      <c r="U72" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="65"/>
-      <c r="W72" s="65"/>
-      <c r="X72" s="65"/>
-      <c r="Y72" s="65"/>
-      <c r="Z72" s="65"/>
-      <c r="AA72" s="65"/>
-      <c r="AB72" s="65"/>
-      <c r="AC72" s="65"/>
+      <c r="V72" s="63"/>
+      <c r="W72" s="63"/>
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="63"/>
+      <c r="AA72" s="63"/>
+      <c r="AB72" s="63"/>
+      <c r="AC72" s="63"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7588,17 +7597,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="64" t="s">
+      <c r="U73" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="64"/>
-      <c r="W73" s="64"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="64"/>
-      <c r="Z73" s="64"/>
-      <c r="AA73" s="64"/>
-      <c r="AB73" s="64"/>
-      <c r="AC73" s="64"/>
+      <c r="V73" s="62"/>
+      <c r="W73" s="62"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="62"/>
+      <c r="Z73" s="62"/>
+      <c r="AA73" s="62"/>
+      <c r="AB73" s="62"/>
+      <c r="AC73" s="62"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7739,12 +7748,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="60"/>
+      <c r="X75" s="61"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="61"/>
-      <c r="AA75" s="60"/>
+      <c r="Z75" s="60"/>
+      <c r="AA75" s="61"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7781,10 +7790,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="61"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8134,10 +8143,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="61"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8202,10 +8211,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="61"/>
-      <c r="Y85" s="60"/>
+      <c r="V85" s="60"/>
+      <c r="W85" s="60"/>
+      <c r="X85" s="60"/>
+      <c r="Y85" s="61"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8214,11 +8223,77 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8235,77 +8310,11 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8326,14 +8335,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8343,8 +8352,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8354,8 +8363,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8365,8 +8374,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8376,8 +8385,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8387,8 +8396,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8398,8 +8407,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8409,8 +8418,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8420,8 +8429,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8431,10 +8440,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="75">
+      <c r="E11" s="70">
         <v>24100</v>
       </c>
-      <c r="F11" s="75"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8444,10 +8453,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="75">
+      <c r="E12" s="70">
         <v>31812</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8457,10 +8466,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="75">
+      <c r="E13" s="70">
         <v>15183</v>
       </c>
-      <c r="F13" s="75"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8470,10 +8479,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="75">
+      <c r="E14" s="70">
         <v>42416</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8483,10 +8492,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="75">
+      <c r="E15" s="70">
         <v>37114</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8496,8 +8505,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8507,30 +8516,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="73">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="75">
+      <c r="D18" s="74"/>
+      <c r="E18" s="70">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8595,163 +8604,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="36"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="77"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="36"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="73"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="73"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8759,6 +8768,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C5:D5"/>
@@ -8775,43 +8821,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13FA8A5-2BBE-453E-A4BE-668B1C4CEEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C386D7F-749C-4960-9C78-1D650FF34FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,6 +843,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,63 +867,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,6 +878,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,13 +900,67 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -966,13 +972,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,7 +982,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -990,17 +990,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1008,8 +1005,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,69 +1340,63 @@
       <c r="B3">
         <v>1000</v>
       </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
       <c r="D3">
         <f>C3*B3</f>
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>21973</v>
+        <v>44394</v>
       </c>
       <c r="J3">
         <v>1000</v>
       </c>
       <c r="K3">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>46000</v>
+        <v>14000</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>20000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>500</v>
       </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
       <c r="D4">
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
-        <v>4000</v>
-      </c>
-      <c r="F4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="2">
         <f>H3-D13</f>
-        <v>-6527</v>
+        <v>43554</v>
       </c>
       <c r="J4">
         <v>500</v>
       </c>
       <c r="K4">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>19500</v>
+        <v>14000</v>
       </c>
       <c r="O4">
         <v>500</v>
@@ -1420,31 +1414,31 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="J5">
         <v>200</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>2200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1452,31 +1446,31 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>5200</v>
+        <v>6400</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>13000</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1484,89 +1478,92 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J7">
         <v>50</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
       <c r="P7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>20</v>
       </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J8">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
-      <c r="P8">
-        <v>7</v>
-      </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>10</v>
       </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -1639,42 +1636,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="27"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
-        <v>28500</v>
-      </c>
-      <c r="J13" s="25" t="s">
+        <v>840</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="27"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>71630</v>
-      </c>
-      <c r="O13" s="25" t="s">
+        <v>36610</v>
+      </c>
+      <c r="O13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="27"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>49260</v>
+        <v>26610</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1697,10 +1694,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1715,115 +1712,115 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>100000</v>
+        <v>52000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>117000</v>
+        <v>74000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>21000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>83000</v>
+        <v>78500</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>87000</v>
+        <v>92500</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>30500</v>
+        <v>23500</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>19500</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>28000</v>
+        <v>6600</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
       <c r="H20">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>28600</v>
+        <v>8400</v>
       </c>
       <c r="L20">
         <v>200</v>
@@ -1839,191 +1836,191 @@
         <v>200</v>
       </c>
       <c r="R20">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>22600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>27400</v>
+        <v>19600</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>28200</v>
+        <v>23200</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>4800</v>
+        <v>7200</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>4400</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>5650</v>
+        <v>3750</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>5750</v>
+        <v>9250</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>700</v>
+        <v>1150</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>4300</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>2620</v>
+        <v>1380</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>2620</v>
+        <v>1400</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
       <c r="M23">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>1100</v>
+        <v>760</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
       <c r="R23">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>1140</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>640</v>
+        <v>900</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
       <c r="H24">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
       <c r="R24">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>380</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="31"/>
       <c r="C25">
         <v>5</v>
       </c>
@@ -2058,7 +2055,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2093,7 +2090,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2128,38 +2125,38 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>247310</v>
-      </c>
-      <c r="G28" s="25" t="s">
+        <v>162730</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="27"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>269800</v>
-      </c>
-      <c r="L28" s="25" t="s">
+        <v>209650</v>
+      </c>
+      <c r="L28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="25"/>
+      <c r="M28" s="27"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>53100</v>
-      </c>
-      <c r="Q28" s="25" t="s">
+        <v>45710</v>
+      </c>
+      <c r="Q28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="25"/>
+      <c r="R28" s="27"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>73320</v>
+        <v>53800</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2210,16 +2207,19 @@
       <c r="L33">
         <v>1000</v>
       </c>
+      <c r="M33">
+        <v>22</v>
+      </c>
       <c r="N33">
         <f>M33*L33</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="30" t="s">
+        <v>22000</v>
+      </c>
+      <c r="P33" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31">
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="25">
         <v>192500</v>
       </c>
     </row>
@@ -2237,14 +2237,17 @@
       <c r="L34">
         <v>500</v>
       </c>
+      <c r="M34">
+        <v>25</v>
+      </c>
       <c r="N34">
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
+        <v>12500</v>
+      </c>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="25"/>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G35">
@@ -2261,11 +2264,11 @@
         <v>200</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N35">
         <f t="shared" si="11"/>
-        <v>4200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="36" spans="3:24" x14ac:dyDescent="0.25">
@@ -2289,11 +2292,11 @@
         <v>100</v>
       </c>
       <c r="M36">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <f t="shared" si="11"/>
-        <v>10100</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="37" spans="3:24" x14ac:dyDescent="0.25">
@@ -2310,9 +2313,12 @@
       <c r="L37">
         <v>50</v>
       </c>
+      <c r="M37">
+        <v>110</v>
+      </c>
       <c r="N37">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="38" spans="3:24" x14ac:dyDescent="0.25">
@@ -2330,11 +2336,11 @@
         <v>20</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N38">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="3:24" x14ac:dyDescent="0.25">
@@ -2351,12 +2357,9 @@
       <c r="L39">
         <v>10</v>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
       <c r="N39">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:24" x14ac:dyDescent="0.25">
@@ -2408,30 +2411,30 @@
       </c>
     </row>
     <row r="43" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="24"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
         <v>321500</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="24"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
-        <v>14350</v>
-      </c>
-      <c r="P43" s="24" t="s">
+        <v>45520</v>
+      </c>
+      <c r="P43" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24">
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26">
         <v>1144410</v>
       </c>
-      <c r="S43" s="24"/>
+      <c r="S43" s="26"/>
     </row>
     <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2612,17 +2615,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2639,6 +2631,17 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2649,7 +2652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEBD9BD-ED05-4AC7-BCB0-DD9460887CC0}">
   <dimension ref="C2:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E25" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
@@ -2662,45 +2665,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="51"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="H4" s="36" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="H4" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2712,15 +2715,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="34"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2733,7 +2736,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2746,7 +2749,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2759,7 +2762,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2772,7 +2775,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="5" t="s">
         <v>131</v>
       </c>
@@ -2785,7 +2788,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="34"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5" t="s">
         <v>129</v>
       </c>
@@ -2798,7 +2801,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2811,7 +2814,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2824,7 +2827,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2837,7 +2840,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2848,7 +2851,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="34"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2861,7 +2864,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="34"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2872,202 +2875,210 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="34"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="47">
         <v>4</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="36">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="43"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="47">
         <v>6</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="47">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39">
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="51">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3084,20 +3095,12 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3108,7 +3111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBB8454-1984-4FD6-A560-30EF2FD7ABE0}">
   <dimension ref="A1:AC85"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J82" workbookViewId="0">
       <selection activeCell="Z85" sqref="Z85"/>
     </sheetView>
   </sheetViews>
@@ -3127,111 +3130,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="U1" s="64" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="U1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="K2" s="67" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="K2" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="U2" s="63" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="U2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="K3" s="66" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="K3" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="U3" s="62" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="U3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3324,12 +3327,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="61"/>
+      <c r="N5" s="60"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="60"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3345,12 +3348,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="61"/>
+      <c r="X5" s="60"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="60"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3368,12 +3371,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4101,10 +4104,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="60"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4213,26 +4216,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="64" t="s">
+      <c r="U17" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4266,17 +4269,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="63" t="s">
+      <c r="U18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4291,10 +4294,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4303,17 +4306,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="62" t="s">
+      <c r="U19" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4345,28 +4348,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="K21" s="65" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="K21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4376,12 +4379,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="61"/>
+      <c r="X21" s="60"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="60"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4390,28 +4393,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="K22" s="67" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="K22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4439,28 +4442,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="K23" s="66" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="K23" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4578,12 +4581,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4599,12 +4602,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="61"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5282,10 +5285,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="60"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5397,24 +5400,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="60"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5449,17 +5452,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="67" t="s">
+      <c r="K37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5487,37 +5490,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="U38" s="65" t="s">
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="U38" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5552,17 +5555,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="67" t="s">
+      <c r="U39" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5574,42 +5577,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="61"/>
+      <c r="N40" s="60"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="60"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="66" t="s">
+      <c r="U40" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5664,17 +5667,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5709,12 +5712,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="61"/>
+      <c r="X42" s="60"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="60"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5723,17 +5726,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5874,12 +5877,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="61"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6043,10 +6046,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="60"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6155,17 +6158,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="65" t="s">
+      <c r="K49" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6218,17 +6221,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="67" t="s">
+      <c r="K50" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6281,17 +6284,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="66" t="s">
+      <c r="K51" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6401,10 +6404,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6421,12 +6424,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="61"/>
+      <c r="N53" s="60"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="60"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6436,10 +6439,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="60"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6473,17 +6476,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6509,30 +6512,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="65" t="s">
+      <c r="U55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="65"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6558,30 +6561,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="67" t="s">
+      <c r="U56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="67"/>
-      <c r="AC56" s="67"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="62"/>
+      <c r="AC56" s="62"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6607,17 +6610,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="66" t="s">
+      <c r="U57" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="66"/>
-      <c r="W57" s="66"/>
-      <c r="X57" s="66"/>
-      <c r="Y57" s="66"/>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="66"/>
-      <c r="AB57" s="66"/>
-      <c r="AC57" s="66"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6710,12 +6713,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="61"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="60"/>
-      <c r="G59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="60"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6756,12 +6759,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="61"/>
+      <c r="X59" s="60"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="60"/>
-      <c r="AA59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="60"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6875,10 +6878,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="60"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6990,17 +6993,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7053,17 +7056,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="67" t="s">
+      <c r="K64" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7116,17 +7119,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="66" t="s">
+      <c r="K65" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="66"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7157,10 +7160,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="60"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7231,12 +7234,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="61"/>
+      <c r="N67" s="60"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="60"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7270,17 +7273,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7333,17 +7336,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7372,10 +7375,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="61"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="61"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="60"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7385,17 +7388,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7475,17 +7478,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="64" t="s">
+      <c r="U71" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="64"/>
-      <c r="W71" s="64"/>
-      <c r="X71" s="64"/>
-      <c r="Y71" s="64"/>
-      <c r="Z71" s="64"/>
-      <c r="AA71" s="64"/>
-      <c r="AB71" s="64"/>
-      <c r="AC71" s="64"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="66"/>
+      <c r="Z71" s="66"/>
+      <c r="AA71" s="66"/>
+      <c r="AB71" s="66"/>
+      <c r="AC71" s="66"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7497,12 +7500,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="61"/>
+      <c r="D72" s="60"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="60"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7534,17 +7537,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="63" t="s">
+      <c r="U72" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="63"/>
-      <c r="W72" s="63"/>
-      <c r="X72" s="63"/>
-      <c r="Y72" s="63"/>
-      <c r="Z72" s="63"/>
-      <c r="AA72" s="63"/>
-      <c r="AB72" s="63"/>
-      <c r="AC72" s="63"/>
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="65"/>
+      <c r="AB72" s="65"/>
+      <c r="AC72" s="65"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7597,17 +7600,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="62" t="s">
+      <c r="U73" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="62"/>
-      <c r="W73" s="62"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="62"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="62"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+      <c r="Z73" s="64"/>
+      <c r="AA73" s="64"/>
+      <c r="AB73" s="64"/>
+      <c r="AC73" s="64"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7748,12 +7751,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="61"/>
+      <c r="X75" s="60"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="60"/>
-      <c r="AA75" s="61"/>
+      <c r="Z75" s="61"/>
+      <c r="AA75" s="60"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7790,10 +7793,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="60"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="60"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8143,10 +8146,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8211,10 +8214,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="60"/>
-      <c r="W85" s="60"/>
-      <c r="X85" s="60"/>
-      <c r="Y85" s="61"/>
+      <c r="V85" s="61"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61"/>
+      <c r="Y85" s="60"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8223,77 +8226,11 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8310,11 +8247,77 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8335,14 +8338,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8352,8 +8355,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8363,8 +8366,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8374,8 +8377,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8385,8 +8388,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8396,8 +8399,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8407,8 +8410,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8418,8 +8421,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8429,8 +8432,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8440,10 +8443,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="70">
+      <c r="E11" s="75">
         <v>24100</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8453,10 +8456,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="70">
+      <c r="E12" s="75">
         <v>31812</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8466,10 +8469,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="70">
+      <c r="E13" s="75">
         <v>15183</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="75"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8479,10 +8482,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="70">
+      <c r="E14" s="75">
         <v>42416</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="75"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8492,10 +8495,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="70">
+      <c r="E15" s="75">
         <v>37114</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8505,8 +8508,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8516,30 +8519,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="78">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="70">
+      <c r="D18" s="79"/>
+      <c r="E18" s="75">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8604,163 +8607,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="46"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="75"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="75"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8768,11 +8771,38 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B44:C44"/>
@@ -8789,38 +8819,11 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C386D7F-749C-4960-9C78-1D650FF34FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D47C71-AA6C-42D3-942B-AAD24A748F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,12 +843,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,6 +861,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,9 +929,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -900,67 +948,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -972,7 +966,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,7 +982,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -990,14 +990,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,11 +1008,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,64 +1349,61 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>44394</v>
+        <v>35189</v>
       </c>
       <c r="J3">
         <v>1000</v>
       </c>
-      <c r="K3">
-        <v>14</v>
-      </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>9000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>500</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4">
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="2">
         <f>H3-D13</f>
-        <v>43554</v>
+        <v>33799</v>
       </c>
       <c r="J4">
         <v>500</v>
       </c>
-      <c r="K4">
-        <v>28</v>
-      </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
       <c r="P4">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>13500</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1423,22 +1420,19 @@
       <c r="J5">
         <v>200</v>
       </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1455,54 +1449,45 @@
       <c r="J6">
         <v>100</v>
       </c>
-      <c r="K6">
-        <v>64</v>
-      </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>2800</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>50</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>50</v>
-      </c>
-      <c r="K7">
-        <v>22</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
       <c r="P7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1510,28 +1495,28 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J8">
         <v>20</v>
       </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
+      <c r="P8">
+        <v>114</v>
+      </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -1539,31 +1524,28 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9">
-        <v>15</v>
-      </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -1636,42 +1618,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="25"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
-        <v>840</v>
-      </c>
-      <c r="J13" s="27" t="s">
+        <v>1390</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="25"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>36610</v>
-      </c>
-      <c r="O13" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="27"/>
+      <c r="P13" s="25"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>26610</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1694,10 +1676,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1712,315 +1694,294 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>74000</v>
+        <v>26000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
-      <c r="R18">
-        <v>19</v>
-      </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>19000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
+      <c r="B19" s="29"/>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>78500</v>
+        <v>37000</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>92500</v>
+        <v>22500</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>23500</v>
+        <v>19000</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
-      <c r="R19">
-        <v>55</v>
-      </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>27500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
+      <c r="B20" s="29"/>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>6600</v>
+        <v>3200</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
       <c r="H20">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>8400</v>
+        <v>3200</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
-      <c r="R20">
-        <v>10</v>
-      </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
+      <c r="B21" s="29"/>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>19600</v>
+        <v>10000</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>23200</v>
+        <v>10000</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>7200</v>
+        <v>4700</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
-      <c r="R21">
-        <v>32</v>
-      </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>3200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
+      <c r="B22" s="29"/>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>3750</v>
+        <v>2100</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>9250</v>
+        <v>1950</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>1150</v>
+        <v>1550</v>
       </c>
       <c r="Q22">
         <v>50</v>
-      </c>
-      <c r="R22">
-        <v>24</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
+      <c r="B23" s="29"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>1380</v>
+        <v>2880</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>1400</v>
+        <v>2880</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
-      <c r="R23">
-        <v>23</v>
-      </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
+      <c r="B24" s="29"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>900</v>
+        <v>420</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
       <c r="H24">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>900</v>
+        <v>420</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
-      <c r="R24">
-        <v>44</v>
-      </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="29"/>
       <c r="C25">
         <v>5</v>
       </c>
@@ -2055,7 +2016,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
+      <c r="B26" s="29"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2090,7 +2051,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
+      <c r="B27" s="29"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2125,38 +2086,38 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>162730</v>
-      </c>
-      <c r="G28" s="27" t="s">
+        <v>81600</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>209650</v>
-      </c>
-      <c r="L28" s="27" t="s">
+        <v>66950</v>
+      </c>
+      <c r="L28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="27"/>
+      <c r="M28" s="25"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>45710</v>
-      </c>
-      <c r="Q28" s="27" t="s">
+        <v>37000</v>
+      </c>
+      <c r="Q28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="27"/>
+      <c r="R28" s="25"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>53800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2214,12 +2175,12 @@
         <f>M33*L33</f>
         <v>22000</v>
       </c>
-      <c r="P33" s="24" t="s">
+      <c r="P33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="25">
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31">
         <v>192500</v>
       </c>
     </row>
@@ -2244,10 +2205,10 @@
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
         <v>12500</v>
       </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="25"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="31"/>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G35">
@@ -2411,30 +2372,30 @@
       </c>
     </row>
     <row r="43" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="26"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
         <v>321500</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="26"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
         <v>45520</v>
       </c>
-      <c r="P43" s="26" t="s">
+      <c r="P43" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26">
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24">
         <v>1144410</v>
       </c>
-      <c r="S43" s="26"/>
+      <c r="S43" s="24"/>
     </row>
     <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2615,6 +2576,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2631,17 +2603,6 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2665,45 +2626,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="H4" s="43" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="H4" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2715,15 +2676,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="52"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2736,7 +2697,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="52"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2749,7 +2710,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="52"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2762,7 +2723,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="52"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2775,7 +2736,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="52"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="5" t="s">
         <v>131</v>
       </c>
@@ -2788,7 +2749,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="52"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="5" t="s">
         <v>129</v>
       </c>
@@ -2801,7 +2762,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="52"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2814,7 +2775,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="52"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2827,7 +2788,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="52"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2840,7 +2801,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="52"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2851,7 +2812,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2864,7 +2825,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="52"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2875,210 +2836,202 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="52"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="52"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="52"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47">
+      <c r="E21" s="44"/>
+      <c r="F21" s="44">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="53"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="44">
         <v>4</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="46">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="50"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="44">
         <v>6</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="44">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="50"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56">
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44">
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="51">
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="51"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3095,12 +3048,20 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3130,111 +3091,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="U1" s="66" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="U1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="K2" s="62" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="K2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="U2" s="65" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="U2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="K3" s="67" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="K3" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="U3" s="64" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="U3" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3327,12 +3288,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="60"/>
+      <c r="N5" s="61"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3348,12 +3309,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="60"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="61"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3371,12 +3332,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4104,10 +4065,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="61"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4216,26 +4177,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="66" t="s">
+      <c r="U17" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4269,17 +4230,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="65" t="s">
+      <c r="U18" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4294,10 +4255,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4306,17 +4267,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4348,28 +4309,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="K21" s="63" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="K21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4379,12 +4340,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="60"/>
+      <c r="X21" s="61"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4393,28 +4354,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="K22" s="62" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="K22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4442,28 +4403,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="K23" s="67" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="K23" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4581,12 +4542,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4602,12 +4563,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="60"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5285,10 +5246,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5400,24 +5361,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="63" t="s">
+      <c r="K36" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="61"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5452,17 +5413,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5490,37 +5451,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="U38" s="63" t="s">
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="U38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5555,17 +5516,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="62" t="s">
+      <c r="U39" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5577,42 +5538,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="60"/>
+      <c r="N40" s="61"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="61"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="67" t="s">
+      <c r="U40" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5667,17 +5628,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5712,12 +5673,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="60"/>
+      <c r="X42" s="61"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="61"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5726,17 +5687,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5877,12 +5838,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="60"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6046,10 +6007,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="61"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6158,17 +6119,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="63" t="s">
+      <c r="K49" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="63"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6221,17 +6182,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="62" t="s">
+      <c r="K50" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6284,17 +6245,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="67" t="s">
+      <c r="K51" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6404,10 +6365,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6424,12 +6385,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="60"/>
+      <c r="N53" s="61"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="61"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6439,10 +6400,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="61"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6476,17 +6437,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6512,30 +6473,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="63" t="s">
+      <c r="U55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
+      <c r="AB55" s="65"/>
+      <c r="AC55" s="65"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6561,30 +6522,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="62" t="s">
+      <c r="U56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="62"/>
-      <c r="AB56" s="62"/>
-      <c r="AC56" s="62"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6610,17 +6571,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="67" t="s">
+      <c r="U57" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
+      <c r="V57" s="66"/>
+      <c r="W57" s="66"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="66"/>
+      <c r="Z57" s="66"/>
+      <c r="AA57" s="66"/>
+      <c r="AB57" s="66"/>
+      <c r="AC57" s="66"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6713,12 +6674,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="60"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="61"/>
-      <c r="G59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6759,12 +6720,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="60"/>
+      <c r="X59" s="61"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="60"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="61"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6878,10 +6839,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="61"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6993,17 +6954,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="63" t="s">
+      <c r="K63" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7056,17 +7017,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="62" t="s">
+      <c r="K64" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7119,17 +7080,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="67" t="s">
+      <c r="K65" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7160,10 +7121,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7234,12 +7195,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="60"/>
+      <c r="N67" s="61"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="60"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="61"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7273,17 +7234,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7336,17 +7297,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7375,10 +7336,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="60"/>
+      <c r="Y69" s="61"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7388,17 +7349,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7478,17 +7439,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="66" t="s">
+      <c r="U71" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="66"/>
-      <c r="AB71" s="66"/>
-      <c r="AC71" s="66"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+      <c r="Z71" s="64"/>
+      <c r="AA71" s="64"/>
+      <c r="AB71" s="64"/>
+      <c r="AC71" s="64"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7500,12 +7461,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="60"/>
+      <c r="D72" s="61"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="61"/>
-      <c r="G72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7537,17 +7498,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="65" t="s">
+      <c r="U72" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="65"/>
-      <c r="W72" s="65"/>
-      <c r="X72" s="65"/>
-      <c r="Y72" s="65"/>
-      <c r="Z72" s="65"/>
-      <c r="AA72" s="65"/>
-      <c r="AB72" s="65"/>
-      <c r="AC72" s="65"/>
+      <c r="V72" s="63"/>
+      <c r="W72" s="63"/>
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="63"/>
+      <c r="AA72" s="63"/>
+      <c r="AB72" s="63"/>
+      <c r="AC72" s="63"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7600,17 +7561,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="64" t="s">
+      <c r="U73" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="64"/>
-      <c r="W73" s="64"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="64"/>
-      <c r="Z73" s="64"/>
-      <c r="AA73" s="64"/>
-      <c r="AB73" s="64"/>
-      <c r="AC73" s="64"/>
+      <c r="V73" s="62"/>
+      <c r="W73" s="62"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="62"/>
+      <c r="Z73" s="62"/>
+      <c r="AA73" s="62"/>
+      <c r="AB73" s="62"/>
+      <c r="AC73" s="62"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7751,12 +7712,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="60"/>
+      <c r="X75" s="61"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="61"/>
-      <c r="AA75" s="60"/>
+      <c r="Z75" s="60"/>
+      <c r="AA75" s="61"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7793,10 +7754,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="61"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8146,10 +8107,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="61"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8214,10 +8175,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="61"/>
-      <c r="Y85" s="60"/>
+      <c r="V85" s="60"/>
+      <c r="W85" s="60"/>
+      <c r="X85" s="60"/>
+      <c r="Y85" s="61"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8226,11 +8187,77 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8247,77 +8274,11 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8338,14 +8299,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8355,8 +8316,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8366,8 +8327,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8377,8 +8338,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8388,8 +8349,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8399,8 +8360,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8410,8 +8371,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8421,8 +8382,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8432,8 +8393,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8443,10 +8404,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="75">
+      <c r="E11" s="70">
         <v>24100</v>
       </c>
-      <c r="F11" s="75"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8456,10 +8417,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="75">
+      <c r="E12" s="70">
         <v>31812</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8469,10 +8430,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="75">
+      <c r="E13" s="70">
         <v>15183</v>
       </c>
-      <c r="F13" s="75"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8482,10 +8443,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="75">
+      <c r="E14" s="70">
         <v>42416</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8495,10 +8456,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="75">
+      <c r="E15" s="70">
         <v>37114</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8508,8 +8469,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8519,30 +8480,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="73">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="75">
+      <c r="D18" s="74"/>
+      <c r="E18" s="70">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8607,163 +8568,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="36"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="77"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="36"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="73"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="73"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8771,6 +8732,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C5:D5"/>
@@ -8787,43 +8785,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D47C71-AA6C-42D3-942B-AAD24A748F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD502B9-259B-40EF-9B8C-42A5889329E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="132">
   <si>
     <t>CASH DENO</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>MMST SIM OLD</t>
-  </si>
-  <si>
-    <t>commi</t>
   </si>
   <si>
     <t>49TK SCD</t>
@@ -843,6 +840,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,63 +864,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,6 +875,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,13 +897,67 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -966,13 +969,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,7 +979,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -990,17 +987,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1008,8 +1002,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,19 +1351,22 @@
       <c r="J3">
         <v>1000</v>
       </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>17000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1380,10 +1380,10 @@
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
         <v>500</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="2">
         <f>H3-D13</f>
         <v>33799</v>
@@ -1391,19 +1391,22 @@
       <c r="J4">
         <v>500</v>
       </c>
+      <c r="K4">
+        <v>24</v>
+      </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
       <c r="P4">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>18000</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1420,19 +1423,22 @@
       <c r="J5">
         <v>200</v>
       </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1449,9 +1455,12 @@
       <c r="J6">
         <v>100</v>
       </c>
+      <c r="K6">
+        <v>45</v>
+      </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -1475,19 +1484,22 @@
       <c r="J7">
         <v>50</v>
       </c>
+      <c r="K7">
+        <v>208</v>
+      </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
       <c r="P7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>550</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1504,19 +1516,22 @@
       <c r="J8">
         <v>20</v>
       </c>
+      <c r="K8">
+        <v>43</v>
+      </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
       <c r="P8">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>2280</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -1533,19 +1548,22 @@
       <c r="J9">
         <v>10</v>
       </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -1618,42 +1636,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="27"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
         <v>1390</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="27"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="25" t="s">
+        <v>56580</v>
+      </c>
+      <c r="O13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="27"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>44600</v>
+        <v>48920</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1676,10 +1694,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1694,17 +1712,17 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>26000</v>
+        <v>66000</v>
       </c>
       <c r="G18">
         <v>1000</v>
@@ -1720,32 +1738,35 @@
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
+      <c r="R18">
+        <v>15</v>
+      </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>37000</v>
+        <v>83500</v>
       </c>
       <c r="G19">
         <v>500</v>
@@ -1761,32 +1782,35 @@
         <v>500</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
+      <c r="R19">
+        <v>41</v>
+      </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>3200</v>
+        <v>7600</v>
       </c>
       <c r="G20">
         <v>200</v>
@@ -1802,32 +1826,35 @@
         <v>200</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
+      <c r="R20">
+        <v>8</v>
+      </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>23600</v>
       </c>
       <c r="G21">
         <v>100</v>
@@ -1843,32 +1870,35 @@
         <v>100</v>
       </c>
       <c r="M21">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>4700</v>
+        <v>7000</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
+      <c r="R21">
+        <v>68</v>
+      </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>2100</v>
+        <v>14350</v>
       </c>
       <c r="G22">
         <v>50</v>
@@ -1884,32 +1914,35 @@
         <v>50</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>1550</v>
+        <v>2000</v>
       </c>
       <c r="Q22">
         <v>50</v>
+      </c>
+      <c r="R22">
+        <v>32</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>2880</v>
+        <v>2520</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -1925,32 +1958,35 @@
         <v>20</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
+      <c r="R23">
+        <v>26</v>
+      </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>420</v>
+        <v>970</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -1966,22 +2002,25 @@
         <v>10</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>350</v>
+        <v>510</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
+      <c r="R24">
+        <v>39</v>
+      </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="31"/>
       <c r="C25">
         <v>5</v>
       </c>
@@ -2016,7 +2055,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2051,7 +2090,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2086,38 +2125,38 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>81600</v>
-      </c>
-      <c r="G28" s="25" t="s">
+        <v>198540</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="27"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
         <v>66950</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="25"/>
+      <c r="M28" s="27"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>37000</v>
-      </c>
-      <c r="Q28" s="25" t="s">
+        <v>46630</v>
+      </c>
+      <c r="Q28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="25"/>
+      <c r="R28" s="27"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>0</v>
+        <v>46410</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2154,7 +2193,7 @@
       <c r="R32" s="23"/>
       <c r="S32" s="23"/>
     </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>1000</v>
       </c>
@@ -2175,16 +2214,16 @@
         <f>M33*L33</f>
         <v>22000</v>
       </c>
-      <c r="P33" s="30" t="s">
+      <c r="P33" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31">
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="25">
         <v>192500</v>
       </c>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>500</v>
       </c>
@@ -2205,12 +2244,12 @@
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
         <v>12500</v>
       </c>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
-    </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="25"/>
+    </row>
+    <row r="35" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>200</v>
       </c>
@@ -2232,13 +2271,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36">
-        <v>15129</v>
-      </c>
+    <row r="36" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>100</v>
       </c>
@@ -2260,7 +2293,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>50</v>
       </c>
@@ -2282,7 +2315,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>20</v>
       </c>
@@ -2304,7 +2337,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>10</v>
       </c>
@@ -2323,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>5</v>
       </c>
@@ -2339,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>2</v>
       </c>
@@ -2355,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>1</v>
       </c>
@@ -2371,33 +2404,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="24" t="s">
+    <row r="43" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="G43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="24"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
         <v>321500</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="24"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
         <v>45520</v>
       </c>
-      <c r="P43" s="24" t="s">
+      <c r="P43" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24">
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26">
         <v>1144410</v>
       </c>
-      <c r="S43" s="24"/>
-    </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="S43" s="26"/>
+    </row>
+    <row r="46" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>38</v>
       </c>
@@ -2454,7 +2487,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>39</v>
       </c>
@@ -2490,7 +2523,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>41</v>
       </c>
@@ -2576,17 +2609,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2603,6 +2625,17 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2626,45 +2659,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="51"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="H4" s="36" t="s">
+      <c r="C4" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="H4" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2676,15 +2709,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="34"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2697,7 +2730,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2710,7 +2743,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2723,7 +2756,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2736,9 +2769,9 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -2749,9 +2782,9 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="34"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="6">
         <v>20</v>
@@ -2762,7 +2795,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2775,7 +2808,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2788,7 +2821,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2801,7 +2834,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2812,7 +2845,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="34"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2825,7 +2858,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="34"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2836,202 +2869,210 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="34"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="47">
         <v>4</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="36">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="43"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="47">
         <v>6</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="47">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39">
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="51">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3048,20 +3089,12 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3091,111 +3124,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="U1" s="64" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="U1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="K2" s="67" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="K2" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="U2" s="63" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="U2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="K3" s="66" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="K3" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="U3" s="62" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="U3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3288,12 +3321,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="61"/>
+      <c r="N5" s="60"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="60"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3309,12 +3342,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="61"/>
+      <c r="X5" s="60"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="60"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3332,12 +3365,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4065,10 +4098,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="60"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4177,26 +4210,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="64" t="s">
+      <c r="U17" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4230,17 +4263,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="63" t="s">
+      <c r="U18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4255,10 +4288,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4267,17 +4300,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="62" t="s">
+      <c r="U19" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4309,28 +4342,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="K21" s="65" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="K21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4340,12 +4373,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="61"/>
+      <c r="X21" s="60"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="60"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4354,28 +4387,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="K22" s="67" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="K22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4403,28 +4436,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="K23" s="66" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="K23" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4542,12 +4575,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4563,12 +4596,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="61"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5246,10 +5279,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="60"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5361,24 +5394,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="60"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5413,17 +5446,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="67" t="s">
+      <c r="K37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5451,37 +5484,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="U38" s="65" t="s">
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="U38" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5516,17 +5549,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="67" t="s">
+      <c r="U39" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5538,42 +5571,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="61"/>
+      <c r="N40" s="60"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="60"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="66" t="s">
+      <c r="U40" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5628,17 +5661,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5673,12 +5706,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="61"/>
+      <c r="X42" s="60"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="60"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5687,17 +5720,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5838,12 +5871,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="61"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6007,10 +6040,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="60"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6119,17 +6152,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="65" t="s">
+      <c r="K49" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6182,17 +6215,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="67" t="s">
+      <c r="K50" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6245,17 +6278,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="66" t="s">
+      <c r="K51" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6365,10 +6398,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6385,12 +6418,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="61"/>
+      <c r="N53" s="60"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="60"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6400,10 +6433,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="60"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6437,17 +6470,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6473,30 +6506,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="65" t="s">
+      <c r="U55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="65"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6522,30 +6555,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="67" t="s">
+      <c r="U56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="67"/>
-      <c r="AC56" s="67"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="62"/>
+      <c r="AC56" s="62"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6571,17 +6604,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="66" t="s">
+      <c r="U57" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="66"/>
-      <c r="W57" s="66"/>
-      <c r="X57" s="66"/>
-      <c r="Y57" s="66"/>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="66"/>
-      <c r="AB57" s="66"/>
-      <c r="AC57" s="66"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6674,12 +6707,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="61"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="60"/>
-      <c r="G59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="60"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6720,12 +6753,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="61"/>
+      <c r="X59" s="60"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="60"/>
-      <c r="AA59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="60"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6839,10 +6872,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="60"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6954,17 +6987,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7017,17 +7050,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="67" t="s">
+      <c r="K64" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7080,17 +7113,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="66" t="s">
+      <c r="K65" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="66"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7121,10 +7154,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="60"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7195,12 +7228,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="61"/>
+      <c r="N67" s="60"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="60"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7234,17 +7267,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7297,17 +7330,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7336,10 +7369,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="61"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="61"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="60"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7349,17 +7382,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7439,17 +7472,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="64" t="s">
+      <c r="U71" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="64"/>
-      <c r="W71" s="64"/>
-      <c r="X71" s="64"/>
-      <c r="Y71" s="64"/>
-      <c r="Z71" s="64"/>
-      <c r="AA71" s="64"/>
-      <c r="AB71" s="64"/>
-      <c r="AC71" s="64"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="66"/>
+      <c r="Z71" s="66"/>
+      <c r="AA71" s="66"/>
+      <c r="AB71" s="66"/>
+      <c r="AC71" s="66"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7461,12 +7494,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="61"/>
+      <c r="D72" s="60"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="60"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7498,17 +7531,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="63" t="s">
+      <c r="U72" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="63"/>
-      <c r="W72" s="63"/>
-      <c r="X72" s="63"/>
-      <c r="Y72" s="63"/>
-      <c r="Z72" s="63"/>
-      <c r="AA72" s="63"/>
-      <c r="AB72" s="63"/>
-      <c r="AC72" s="63"/>
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="65"/>
+      <c r="AB72" s="65"/>
+      <c r="AC72" s="65"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7561,17 +7594,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="62" t="s">
+      <c r="U73" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="62"/>
-      <c r="W73" s="62"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="62"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="62"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+      <c r="Z73" s="64"/>
+      <c r="AA73" s="64"/>
+      <c r="AB73" s="64"/>
+      <c r="AC73" s="64"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7712,12 +7745,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="61"/>
+      <c r="X75" s="60"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="60"/>
-      <c r="AA75" s="61"/>
+      <c r="Z75" s="61"/>
+      <c r="AA75" s="60"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7754,10 +7787,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="60"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="60"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8107,10 +8140,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8175,10 +8208,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="60"/>
-      <c r="W85" s="60"/>
-      <c r="X85" s="60"/>
-      <c r="Y85" s="61"/>
+      <c r="V85" s="61"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61"/>
+      <c r="Y85" s="60"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8187,77 +8220,11 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8274,11 +8241,77 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8299,14 +8332,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8316,8 +8349,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8327,8 +8360,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8338,8 +8371,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8349,8 +8382,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8360,8 +8393,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8371,8 +8404,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8382,8 +8415,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8393,8 +8426,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8404,10 +8437,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="70">
+      <c r="E11" s="75">
         <v>24100</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8417,10 +8450,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="70">
+      <c r="E12" s="75">
         <v>31812</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8430,10 +8463,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="70">
+      <c r="E13" s="75">
         <v>15183</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="75"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8443,10 +8476,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="70">
+      <c r="E14" s="75">
         <v>42416</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="75"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8456,10 +8489,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="70">
+      <c r="E15" s="75">
         <v>37114</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8469,8 +8502,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8480,30 +8513,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="78">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="70">
+      <c r="D18" s="79"/>
+      <c r="E18" s="75">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8568,163 +8601,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="46"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="75"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="75"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8732,11 +8765,38 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B44:C44"/>
@@ -8753,38 +8813,11 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD502B9-259B-40EF-9B8C-42A5889329E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A145ABF-03A2-4DE9-A005-421A4AB369E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,12 +840,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,6 +858,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,9 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,67 +945,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -969,7 +963,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -987,14 +987,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,11 +1005,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,7 +1291,7 @@
   <dimension ref="B1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>35189</v>
+        <v>14519</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -1373,20 +1373,17 @@
       <c r="B4">
         <v>500</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4">
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
-        <v>500</v>
-      </c>
-      <c r="F4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="2">
         <f>H3-D13</f>
-        <v>33799</v>
+        <v>13299</v>
       </c>
       <c r="J4">
         <v>500</v>
@@ -1413,12 +1410,9 @@
       <c r="B5">
         <v>200</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>200</v>
@@ -1446,11 +1440,11 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -1477,9 +1471,12 @@
       <c r="B7">
         <v>50</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J7">
         <v>50</v>
@@ -1507,11 +1504,11 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="J8">
         <v>20</v>
@@ -1636,42 +1633,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="25"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
-        <v>1390</v>
-      </c>
-      <c r="J13" s="27" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="25"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
         <v>56580</v>
       </c>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="27"/>
+      <c r="P13" s="25"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
         <v>48920</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1694,10 +1691,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1712,7 +1709,7 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18">
         <v>1000</v>
       </c>
@@ -1728,11 +1725,11 @@
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>26000</v>
+        <v>65000</v>
       </c>
       <c r="L18">
         <v>1000</v>
@@ -1756,7 +1753,7 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
+      <c r="B19" s="29"/>
       <c r="C19">
         <v>500</v>
       </c>
@@ -1772,11 +1769,11 @@
         <v>500</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>22500</v>
+        <v>83000</v>
       </c>
       <c r="L19">
         <v>500</v>
@@ -1800,7 +1797,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
+      <c r="B20" s="29"/>
       <c r="C20">
         <v>200</v>
       </c>
@@ -1816,11 +1813,11 @@
         <v>200</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>3200</v>
+        <v>7600</v>
       </c>
       <c r="L20">
         <v>200</v>
@@ -1844,7 +1841,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
+      <c r="B21" s="29"/>
       <c r="C21">
         <v>100</v>
       </c>
@@ -1860,11 +1857,11 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>10000</v>
+        <v>23500</v>
       </c>
       <c r="L21">
         <v>100</v>
@@ -1888,7 +1885,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
+      <c r="B22" s="29"/>
       <c r="C22">
         <v>50</v>
       </c>
@@ -1904,11 +1901,11 @@
         <v>50</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>1950</v>
+        <v>14300</v>
       </c>
       <c r="L22">
         <v>50</v>
@@ -1932,7 +1929,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
+      <c r="B23" s="29"/>
       <c r="C23">
         <v>20</v>
       </c>
@@ -1948,11 +1945,11 @@
         <v>20</v>
       </c>
       <c r="H23">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>2880</v>
+        <v>2000</v>
       </c>
       <c r="L23">
         <v>20</v>
@@ -1976,7 +1973,7 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
+      <c r="B24" s="29"/>
       <c r="C24">
         <v>10</v>
       </c>
@@ -1992,11 +1989,11 @@
         <v>10</v>
       </c>
       <c r="H24">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>420</v>
+        <v>900</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -2020,7 +2017,7 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="29"/>
       <c r="C25">
         <v>5</v>
       </c>
@@ -2055,7 +2052,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
+      <c r="B26" s="29"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2090,7 +2087,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
+      <c r="B27" s="29"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2125,35 +2122,35 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
         <v>198540</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>66950</v>
-      </c>
-      <c r="L28" s="27" t="s">
+        <v>196300</v>
+      </c>
+      <c r="L28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="27"/>
+      <c r="M28" s="25"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
         <v>46630</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="Q28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="27"/>
+      <c r="R28" s="25"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
         <v>46410</v>
@@ -2214,12 +2211,12 @@
         <f>M33*L33</f>
         <v>22000</v>
       </c>
-      <c r="P33" s="24" t="s">
+      <c r="P33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="25">
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31">
         <v>192500</v>
       </c>
     </row>
@@ -2244,10 +2241,10 @@
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
         <v>12500</v>
       </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="25"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="31"/>
     </row>
     <row r="35" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G35">
@@ -2405,30 +2402,30 @@
       </c>
     </row>
     <row r="43" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="26"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
         <v>321500</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="26"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
         <v>45520</v>
       </c>
-      <c r="P43" s="26" t="s">
+      <c r="P43" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26">
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24">
         <v>1144410</v>
       </c>
-      <c r="S43" s="26"/>
+      <c r="S43" s="24"/>
     </row>
     <row r="46" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2609,6 +2606,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2625,17 +2633,6 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2659,45 +2656,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="H4" s="43" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="H4" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2709,15 +2706,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="52"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2730,7 +2727,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="52"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2743,7 +2740,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="52"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2756,7 +2753,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="52"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2769,7 +2766,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="52"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="5" t="s">
         <v>130</v>
       </c>
@@ -2782,7 +2779,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="52"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="5" t="s">
         <v>128</v>
       </c>
@@ -2795,7 +2792,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="52"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2808,7 +2805,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="52"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2821,7 +2818,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="52"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2834,7 +2831,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="52"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2845,7 +2842,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2858,7 +2855,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="52"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2869,210 +2866,202 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="52"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="52"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="52"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47">
+      <c r="E21" s="44"/>
+      <c r="F21" s="44">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="53"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="44">
         <v>4</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="46">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="50"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="44">
         <v>6</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="44">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="50"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56">
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44">
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="51">
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="51"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3089,12 +3078,20 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3124,111 +3121,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="U1" s="66" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="U1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="K2" s="62" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="K2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="U2" s="65" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="U2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="K3" s="67" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="K3" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="U3" s="64" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="U3" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3321,12 +3318,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="60"/>
+      <c r="N5" s="61"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3342,12 +3339,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="60"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="61"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3365,12 +3362,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4098,10 +4095,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="61"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4210,26 +4207,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="66" t="s">
+      <c r="U17" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4263,17 +4260,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="65" t="s">
+      <c r="U18" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4288,10 +4285,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4300,17 +4297,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4342,28 +4339,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="K21" s="63" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="K21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4373,12 +4370,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="60"/>
+      <c r="X21" s="61"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4387,28 +4384,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="K22" s="62" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="K22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4436,28 +4433,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="K23" s="67" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="K23" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4575,12 +4572,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4596,12 +4593,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="60"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5279,10 +5276,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5394,24 +5391,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="63" t="s">
+      <c r="K36" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="61"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5446,17 +5443,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5484,37 +5481,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="U38" s="63" t="s">
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="U38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5549,17 +5546,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="62" t="s">
+      <c r="U39" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5571,42 +5568,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="60"/>
+      <c r="N40" s="61"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="61"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="67" t="s">
+      <c r="U40" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5661,17 +5658,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5706,12 +5703,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="60"/>
+      <c r="X42" s="61"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="61"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5720,17 +5717,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5871,12 +5868,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="60"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6040,10 +6037,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="61"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6152,17 +6149,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="63" t="s">
+      <c r="K49" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="63"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6215,17 +6212,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="62" t="s">
+      <c r="K50" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6278,17 +6275,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="67" t="s">
+      <c r="K51" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6398,10 +6395,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6418,12 +6415,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="60"/>
+      <c r="N53" s="61"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="61"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6433,10 +6430,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="61"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6470,17 +6467,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6506,30 +6503,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="63" t="s">
+      <c r="U55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
+      <c r="AB55" s="65"/>
+      <c r="AC55" s="65"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6555,30 +6552,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="62" t="s">
+      <c r="U56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="62"/>
-      <c r="AB56" s="62"/>
-      <c r="AC56" s="62"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6604,17 +6601,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="67" t="s">
+      <c r="U57" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
+      <c r="V57" s="66"/>
+      <c r="W57" s="66"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="66"/>
+      <c r="Z57" s="66"/>
+      <c r="AA57" s="66"/>
+      <c r="AB57" s="66"/>
+      <c r="AC57" s="66"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6707,12 +6704,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="60"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="61"/>
-      <c r="G59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6753,12 +6750,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="60"/>
+      <c r="X59" s="61"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="60"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="61"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6872,10 +6869,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="61"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6987,17 +6984,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="63" t="s">
+      <c r="K63" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7050,17 +7047,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="62" t="s">
+      <c r="K64" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7113,17 +7110,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="67" t="s">
+      <c r="K65" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7154,10 +7151,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7228,12 +7225,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="60"/>
+      <c r="N67" s="61"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="60"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="61"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7267,17 +7264,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7330,17 +7327,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7369,10 +7366,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="60"/>
+      <c r="Y69" s="61"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7382,17 +7379,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7472,17 +7469,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="66" t="s">
+      <c r="U71" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="66"/>
-      <c r="AB71" s="66"/>
-      <c r="AC71" s="66"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+      <c r="Z71" s="64"/>
+      <c r="AA71" s="64"/>
+      <c r="AB71" s="64"/>
+      <c r="AC71" s="64"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7494,12 +7491,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="60"/>
+      <c r="D72" s="61"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="61"/>
-      <c r="G72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7531,17 +7528,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="65" t="s">
+      <c r="U72" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="65"/>
-      <c r="W72" s="65"/>
-      <c r="X72" s="65"/>
-      <c r="Y72" s="65"/>
-      <c r="Z72" s="65"/>
-      <c r="AA72" s="65"/>
-      <c r="AB72" s="65"/>
-      <c r="AC72" s="65"/>
+      <c r="V72" s="63"/>
+      <c r="W72" s="63"/>
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="63"/>
+      <c r="AA72" s="63"/>
+      <c r="AB72" s="63"/>
+      <c r="AC72" s="63"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7594,17 +7591,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="64" t="s">
+      <c r="U73" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="64"/>
-      <c r="W73" s="64"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="64"/>
-      <c r="Z73" s="64"/>
-      <c r="AA73" s="64"/>
-      <c r="AB73" s="64"/>
-      <c r="AC73" s="64"/>
+      <c r="V73" s="62"/>
+      <c r="W73" s="62"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="62"/>
+      <c r="Z73" s="62"/>
+      <c r="AA73" s="62"/>
+      <c r="AB73" s="62"/>
+      <c r="AC73" s="62"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7745,12 +7742,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="60"/>
+      <c r="X75" s="61"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="61"/>
-      <c r="AA75" s="60"/>
+      <c r="Z75" s="60"/>
+      <c r="AA75" s="61"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7787,10 +7784,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="61"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8140,10 +8137,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="61"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8208,10 +8205,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="61"/>
-      <c r="Y85" s="60"/>
+      <c r="V85" s="60"/>
+      <c r="W85" s="60"/>
+      <c r="X85" s="60"/>
+      <c r="Y85" s="61"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8220,11 +8217,77 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8241,77 +8304,11 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8332,14 +8329,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8349,8 +8346,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8360,8 +8357,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8371,8 +8368,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8382,8 +8379,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8393,8 +8390,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8404,8 +8401,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8415,8 +8412,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8426,8 +8423,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8437,10 +8434,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="75">
+      <c r="E11" s="70">
         <v>24100</v>
       </c>
-      <c r="F11" s="75"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8450,10 +8447,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="75">
+      <c r="E12" s="70">
         <v>31812</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8463,10 +8460,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="75">
+      <c r="E13" s="70">
         <v>15183</v>
       </c>
-      <c r="F13" s="75"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8476,10 +8473,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="75">
+      <c r="E14" s="70">
         <v>42416</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8489,10 +8486,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="75">
+      <c r="E15" s="70">
         <v>37114</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8502,8 +8499,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8513,30 +8510,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="73">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="75">
+      <c r="D18" s="74"/>
+      <c r="E18" s="70">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8601,163 +8598,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="36"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="77"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="36"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="73"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="73"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8765,6 +8762,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C5:D5"/>
@@ -8781,43 +8815,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A145ABF-03A2-4DE9-A005-421A4AB369E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C39371-ED8E-4A66-81DE-0ED2CE62302D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,83 +1346,80 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>14519</v>
+        <v>35583</v>
       </c>
       <c r="J3">
         <v>1000</v>
       </c>
-      <c r="K3">
-        <v>28</v>
-      </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>15000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>500</v>
       </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
       <c r="D4">
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="2">
-        <f>H3-D13</f>
-        <v>13299</v>
+        <f>D13-H3</f>
+        <v>-28093</v>
       </c>
       <c r="J4">
         <v>500</v>
       </c>
-      <c r="K4">
-        <v>24</v>
-      </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
       <c r="P4">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>26500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>200</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J5">
         <v>200</v>
       </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>200</v>
@@ -1449,22 +1446,19 @@
       <c r="J6">
         <v>100</v>
       </c>
-      <c r="K6">
-        <v>45</v>
-      </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>5300</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1472,31 +1466,28 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="J7">
         <v>50</v>
-      </c>
-      <c r="K7">
-        <v>208</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
       <c r="P7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1504,31 +1495,28 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="J8">
         <v>20</v>
       </c>
-      <c r="K8">
-        <v>43</v>
-      </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -1545,22 +1533,16 @@
       <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
-      <c r="P9">
-        <v>5</v>
-      </c>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -1581,9 +1563,12 @@
       <c r="O10">
         <v>5</v>
       </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -1639,7 +1624,7 @@
       <c r="C13" s="25"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
-        <v>1220</v>
+        <v>7490</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>1</v>
@@ -1647,7 +1632,7 @@
       <c r="K13" s="25"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>56580</v>
+        <v>0</v>
       </c>
       <c r="O13" s="25" t="s">
         <v>1</v>
@@ -1655,7 +1640,7 @@
       <c r="P13" s="25"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>48920</v>
+        <v>37985</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -1715,41 +1700,38 @@
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>66000</v>
+        <v>65000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
-      <c r="H18">
-        <v>65</v>
-      </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>65000</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>8000</v>
+        <v>35000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
@@ -1759,41 +1741,38 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>83500</v>
+        <v>89500</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
-      <c r="H19">
-        <v>166</v>
-      </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>83000</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>24500</v>
+        <v>49000</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>20500</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
@@ -1803,41 +1782,38 @@
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>7600</v>
+        <v>8600</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
-      <c r="H20">
-        <v>38</v>
-      </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
       <c r="R20">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>1600</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
@@ -1847,41 +1823,38 @@
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>236</v>
+        <v>719</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>23600</v>
+        <v>71900</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
-      <c r="H21">
-        <v>235</v>
-      </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>23500</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>70</v>
+        <v>361</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>36100</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>6800</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
@@ -1891,41 +1864,38 @@
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>14350</v>
+        <v>10550</v>
       </c>
       <c r="G22">
         <v>50</v>
-      </c>
-      <c r="H22">
-        <v>286</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>14300</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>5300</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>1600</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
@@ -1935,41 +1905,32 @@
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>2520</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
-      <c r="M23">
-        <v>51</v>
-      </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
-      <c r="R23">
-        <v>26</v>
-      </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
@@ -1979,41 +1940,32 @@
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
-      <c r="H24">
-        <v>90</v>
-      </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
-      <c r="M24">
-        <v>51</v>
-      </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
-      <c r="R24">
-        <v>39</v>
-      </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
@@ -2023,11 +1975,11 @@
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2129,7 +2081,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>198540</v>
+        <v>245585</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>1</v>
@@ -2137,7 +2089,7 @@
       <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>196300</v>
+        <v>0</v>
       </c>
       <c r="L28" s="25" t="s">
         <v>1</v>
@@ -2145,7 +2097,7 @@
       <c r="M28" s="25"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>46630</v>
+        <v>129800</v>
       </c>
       <c r="Q28" s="25" t="s">
         <v>1</v>
@@ -2153,7 +2105,7 @@
       <c r="R28" s="25"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>46410</v>
+        <v>77800</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C39371-ED8E-4A66-81DE-0ED2CE62302D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF4DAA4-1F90-4F48-B6EA-00DF2AAAB3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,6 +840,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,63 +864,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,6 +875,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,13 +897,67 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -963,13 +969,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -987,17 +987,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,8 +1002,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>35583</v>
+        <v>22337</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -1358,12 +1358,9 @@
       <c r="O3">
         <v>1000</v>
       </c>
-      <c r="P3">
-        <v>12</v>
-      </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1371,19 +1368,19 @@
         <v>500</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
-        <v>6000</v>
-      </c>
-      <c r="F4" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="2">
         <f>D13-H3</f>
-        <v>-28093</v>
+        <v>-19907</v>
       </c>
       <c r="J4">
         <v>500</v>
@@ -1395,12 +1392,9 @@
       <c r="O4">
         <v>500</v>
       </c>
-      <c r="P4">
-        <v>25</v>
-      </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>12500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1417,19 +1411,22 @@
       <c r="J5">
         <v>200</v>
       </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1437,28 +1434,31 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
+      <c r="K6">
+        <v>28</v>
+      </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>11800</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1466,11 +1466,11 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J7">
         <v>50</v>
@@ -1495,28 +1495,28 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="J8">
         <v>20</v>
       </c>
+      <c r="K8">
+        <v>59</v>
+      </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -1524,18 +1524,21 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
+      <c r="K9">
+        <v>148</v>
+      </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1563,12 +1566,9 @@
       <c r="O10">
         <v>5</v>
       </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -1618,42 +1618,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="27"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
-        <v>7490</v>
-      </c>
-      <c r="J13" s="25" t="s">
+        <v>2430</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="27"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="25" t="s">
+        <v>7060</v>
+      </c>
+      <c r="O13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="27"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>37985</v>
+        <v>8050</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1676,10 +1676,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1694,116 +1694,113 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>65000</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
-      <c r="M18">
-        <v>35</v>
-      </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
-      <c r="R18">
-        <v>18</v>
-      </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>18000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>89500</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
+      <c r="H19">
+        <v>46</v>
+      </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
-      <c r="M19">
-        <v>98</v>
-      </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
-      <c r="R19">
-        <v>56</v>
-      </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>28000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>8600</v>
+        <v>9200</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
+      <c r="H20">
+        <v>11</v>
+      </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>4400</v>
+        <v>3000</v>
       </c>
       <c r="Q20">
         <v>200</v>
@@ -1817,113 +1814,125 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>719</v>
+        <v>157</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>71900</v>
+        <v>15700</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
+      <c r="H21">
+        <v>19</v>
+      </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>361</v>
+        <v>63</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>36100</v>
+        <v>6300</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>24000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>10550</v>
+        <v>2150</v>
       </c>
       <c r="G22">
         <v>50</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>5300</v>
+        <v>1800</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>1640</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
+      <c r="H23">
+        <v>13</v>
+      </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
+      <c r="M23">
+        <v>23</v>
+      </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="Q23">
         <v>20</v>
@@ -1934,52 +1943,61 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
+      <c r="H24">
+        <v>13</v>
+      </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
+      <c r="M24">
+        <v>11</v>
+      </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
+      <c r="R24">
+        <v>11</v>
+      </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="31"/>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -1998,13 +2016,16 @@
       <c r="Q25">
         <v>5</v>
       </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
       <c r="S25">
         <f t="shared" ref="S25:S27" si="9">R25*Q25</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2039,7 +2060,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2074,38 +2095,38 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>245585</v>
-      </c>
-      <c r="G28" s="25" t="s">
+        <v>30400</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="27"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="25" t="s">
+        <v>47690</v>
+      </c>
+      <c r="L28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="25"/>
+      <c r="M28" s="27"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>129800</v>
-      </c>
-      <c r="Q28" s="25" t="s">
+        <v>11670</v>
+      </c>
+      <c r="Q28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="25"/>
+      <c r="R28" s="27"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>77800</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2163,12 +2184,12 @@
         <f>M33*L33</f>
         <v>22000</v>
       </c>
-      <c r="P33" s="30" t="s">
+      <c r="P33" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31">
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="25">
         <v>192500</v>
       </c>
     </row>
@@ -2193,10 +2214,10 @@
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
         <v>12500</v>
       </c>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="25"/>
     </row>
     <row r="35" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G35">
@@ -2354,30 +2375,30 @@
       </c>
     </row>
     <row r="43" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="24"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
         <v>321500</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="24"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
         <v>45520</v>
       </c>
-      <c r="P43" s="24" t="s">
+      <c r="P43" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24">
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26">
         <v>1144410</v>
       </c>
-      <c r="S43" s="24"/>
+      <c r="S43" s="26"/>
     </row>
     <row r="46" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2558,17 +2579,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2585,6 +2595,17 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2608,45 +2629,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="51"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="H4" s="36" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="H4" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2658,15 +2679,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="34"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2679,7 +2700,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2692,7 +2713,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2705,7 +2726,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2718,7 +2739,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="5" t="s">
         <v>130</v>
       </c>
@@ -2731,7 +2752,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="34"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5" t="s">
         <v>128</v>
       </c>
@@ -2744,7 +2765,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2757,7 +2778,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2770,7 +2791,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2783,7 +2804,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2794,7 +2815,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="34"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2807,7 +2828,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="34"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2818,202 +2839,210 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="34"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="47">
         <v>4</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="36">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="43"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="47">
         <v>6</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="47">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39">
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="51">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3030,20 +3059,12 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3073,111 +3094,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="U1" s="64" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="U1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="K2" s="67" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="K2" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="U2" s="63" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="U2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="K3" s="66" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="K3" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="U3" s="62" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="U3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3270,12 +3291,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="61"/>
+      <c r="N5" s="60"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="60"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3291,12 +3312,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="61"/>
+      <c r="X5" s="60"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="60"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3314,12 +3335,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4047,10 +4068,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="60"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4159,26 +4180,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="64" t="s">
+      <c r="U17" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4212,17 +4233,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="63" t="s">
+      <c r="U18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4237,10 +4258,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4249,17 +4270,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="62" t="s">
+      <c r="U19" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4291,28 +4312,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="K21" s="65" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="K21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4322,12 +4343,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="61"/>
+      <c r="X21" s="60"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="60"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4336,28 +4357,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="K22" s="67" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="K22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4385,28 +4406,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="K23" s="66" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="K23" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4524,12 +4545,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4545,12 +4566,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="61"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5228,10 +5249,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="60"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5343,24 +5364,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="60"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5395,17 +5416,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="67" t="s">
+      <c r="K37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5433,37 +5454,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="U38" s="65" t="s">
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="U38" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5498,17 +5519,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="67" t="s">
+      <c r="U39" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5520,42 +5541,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="61"/>
+      <c r="N40" s="60"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="60"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="66" t="s">
+      <c r="U40" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5610,17 +5631,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5655,12 +5676,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="61"/>
+      <c r="X42" s="60"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="60"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5669,17 +5690,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5820,12 +5841,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="61"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -5989,10 +6010,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="60"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6101,17 +6122,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="65" t="s">
+      <c r="K49" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6164,17 +6185,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="67" t="s">
+      <c r="K50" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6227,17 +6248,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="66" t="s">
+      <c r="K51" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6347,10 +6368,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6367,12 +6388,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="61"/>
+      <c r="N53" s="60"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="60"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6382,10 +6403,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="60"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6419,17 +6440,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6455,30 +6476,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="65" t="s">
+      <c r="U55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="65"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6504,30 +6525,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="67" t="s">
+      <c r="U56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="67"/>
-      <c r="AC56" s="67"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="62"/>
+      <c r="AC56" s="62"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6553,17 +6574,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="66" t="s">
+      <c r="U57" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="66"/>
-      <c r="W57" s="66"/>
-      <c r="X57" s="66"/>
-      <c r="Y57" s="66"/>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="66"/>
-      <c r="AB57" s="66"/>
-      <c r="AC57" s="66"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6656,12 +6677,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="61"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="60"/>
-      <c r="G59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="60"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6702,12 +6723,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="61"/>
+      <c r="X59" s="60"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="60"/>
-      <c r="AA59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="60"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6821,10 +6842,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="60"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6936,17 +6957,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -6999,17 +7020,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="67" t="s">
+      <c r="K64" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7062,17 +7083,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="66" t="s">
+      <c r="K65" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="66"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7103,10 +7124,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="60"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7177,12 +7198,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="61"/>
+      <c r="N67" s="60"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="60"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7216,17 +7237,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7279,17 +7300,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7318,10 +7339,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="61"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="61"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="60"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7331,17 +7352,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7421,17 +7442,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="64" t="s">
+      <c r="U71" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="64"/>
-      <c r="W71" s="64"/>
-      <c r="X71" s="64"/>
-      <c r="Y71" s="64"/>
-      <c r="Z71" s="64"/>
-      <c r="AA71" s="64"/>
-      <c r="AB71" s="64"/>
-      <c r="AC71" s="64"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="66"/>
+      <c r="Z71" s="66"/>
+      <c r="AA71" s="66"/>
+      <c r="AB71" s="66"/>
+      <c r="AC71" s="66"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7443,12 +7464,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="61"/>
+      <c r="D72" s="60"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="60"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7480,17 +7501,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="63" t="s">
+      <c r="U72" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="63"/>
-      <c r="W72" s="63"/>
-      <c r="X72" s="63"/>
-      <c r="Y72" s="63"/>
-      <c r="Z72" s="63"/>
-      <c r="AA72" s="63"/>
-      <c r="AB72" s="63"/>
-      <c r="AC72" s="63"/>
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="65"/>
+      <c r="AB72" s="65"/>
+      <c r="AC72" s="65"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7543,17 +7564,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="62" t="s">
+      <c r="U73" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="62"/>
-      <c r="W73" s="62"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="62"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="62"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+      <c r="Z73" s="64"/>
+      <c r="AA73" s="64"/>
+      <c r="AB73" s="64"/>
+      <c r="AC73" s="64"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7694,12 +7715,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="61"/>
+      <c r="X75" s="60"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="60"/>
-      <c r="AA75" s="61"/>
+      <c r="Z75" s="61"/>
+      <c r="AA75" s="60"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7736,10 +7757,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="60"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="60"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8089,10 +8110,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8157,10 +8178,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="60"/>
-      <c r="W85" s="60"/>
-      <c r="X85" s="60"/>
-      <c r="Y85" s="61"/>
+      <c r="V85" s="61"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61"/>
+      <c r="Y85" s="60"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8169,77 +8190,11 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8256,11 +8211,77 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8281,14 +8302,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8298,8 +8319,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8309,8 +8330,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8320,8 +8341,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8331,8 +8352,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8342,8 +8363,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8353,8 +8374,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8364,8 +8385,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8375,8 +8396,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8386,10 +8407,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="70">
+      <c r="E11" s="75">
         <v>24100</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8399,10 +8420,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="70">
+      <c r="E12" s="75">
         <v>31812</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8412,10 +8433,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="70">
+      <c r="E13" s="75">
         <v>15183</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="75"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8425,10 +8446,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="70">
+      <c r="E14" s="75">
         <v>42416</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="75"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8438,10 +8459,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="70">
+      <c r="E15" s="75">
         <v>37114</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8451,8 +8472,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8462,30 +8483,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="78">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="70">
+      <c r="D18" s="79"/>
+      <c r="E18" s="75">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8550,163 +8571,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="46"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="75"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="75"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8714,11 +8735,38 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B44:C44"/>
@@ -8735,38 +8783,11 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF4DAA4-1F90-4F48-B6EA-00DF2AAAB3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512A6437-93CC-4E06-9044-21FFBBD7447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5115" yWindow="3195" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,30 +1337,39 @@
       <c r="B3">
         <v>1000</v>
       </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
       <c r="D3">
         <f>C3*B3</f>
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>22337</v>
+        <v>94305</v>
       </c>
       <c r="J3">
         <v>1000</v>
       </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1368,11 +1377,11 @@
         <v>500</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
-        <v>500</v>
+        <v>57500</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>3</v>
@@ -1380,21 +1389,27 @@
       <c r="G4" s="28"/>
       <c r="H4" s="2">
         <f>D13-H3</f>
-        <v>-19907</v>
+        <v>23355</v>
       </c>
       <c r="J4">
         <v>500</v>
       </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
+      <c r="P4">
+        <v>40</v>
+      </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1402,31 +1417,31 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>11000</v>
       </c>
       <c r="J5">
         <v>200</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1434,31 +1449,31 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>10000</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1466,28 +1481,31 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="J7">
         <v>50</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>950</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1495,28 +1513,28 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>2620</v>
       </c>
       <c r="J8">
         <v>20</v>
       </c>
-      <c r="K8">
-        <v>59</v>
-      </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -1524,21 +1542,18 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>540</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9">
-        <v>148</v>
-      </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>1480</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1624,7 +1639,7 @@
       <c r="C13" s="27"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
-        <v>2430</v>
+        <v>117660</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>1</v>
@@ -1632,7 +1647,7 @@
       <c r="K13" s="27"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>7060</v>
+        <v>22850</v>
       </c>
       <c r="O13" s="27" t="s">
         <v>1</v>
@@ -1640,7 +1655,7 @@
       <c r="P13" s="27"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>8050</v>
+        <v>49690</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -1700,35 +1715,41 @@
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
+      <c r="R18">
+        <v>14</v>
+      </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>0</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
@@ -1738,35 +1759,41 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>0</v>
+        <v>54500</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>23000</v>
+        <v>55000</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
+      <c r="M19">
+        <v>32</v>
+      </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
+      <c r="R19">
+        <v>30</v>
+      </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
@@ -1776,41 +1803,41 @@
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>9200</v>
+        <v>6400</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>2200</v>
+        <v>6000</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
       <c r="R20">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>2600</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
@@ -1820,41 +1847,38 @@
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>157</v>
+        <v>358</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>15700</v>
+        <v>35800</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
-      <c r="H21">
-        <v>19</v>
-      </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>6300</v>
+        <v>7800</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>600</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
@@ -1864,41 +1888,38 @@
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>2150</v>
+        <v>7700</v>
       </c>
       <c r="G22">
         <v>50</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
@@ -1908,38 +1929,38 @@
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>1640</v>
+        <v>660</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
-      <c r="H23">
-        <v>13</v>
-      </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
+      <c r="R23">
+        <v>13</v>
+      </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
@@ -1949,41 +1970,38 @@
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>1700</v>
+        <v>270</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
-      <c r="H24">
-        <v>13</v>
-      </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
       <c r="R24">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
@@ -1993,11 +2011,11 @@
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2016,12 +2034,9 @@
       <c r="Q25">
         <v>5</v>
       </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
       <c r="S25">
         <f t="shared" ref="S25:S27" si="9">R25*Q25</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
@@ -2102,7 +2117,7 @@
       <c r="D28" s="29"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>30400</v>
+        <v>148330</v>
       </c>
       <c r="G28" s="27" t="s">
         <v>1</v>
@@ -2110,7 +2125,7 @@
       <c r="H28" s="27"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>47690</v>
+        <v>69000</v>
       </c>
       <c r="L28" s="27" t="s">
         <v>1</v>
@@ -2118,7 +2133,7 @@
       <c r="M28" s="27"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>11670</v>
+        <v>29760</v>
       </c>
       <c r="Q28" s="27" t="s">
         <v>1</v>
@@ -2126,7 +2141,7 @@
       <c r="R28" s="27"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>3620</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2163,26 +2178,23 @@
       <c r="R32" s="23"/>
       <c r="S32" s="23"/>
     </row>
-    <row r="33" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>1000</v>
       </c>
-      <c r="H33">
-        <v>135</v>
-      </c>
       <c r="I33">
         <f>H33*G33</f>
-        <v>135000</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>1000</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <f>M33*L33</f>
-        <v>22000</v>
+        <v>42000</v>
       </c>
       <c r="P33" s="24" t="s">
         <v>32</v>
@@ -2193,140 +2205,137 @@
         <v>192500</v>
       </c>
     </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>1000*23+500*52+1000*8+500*51</f>
+        <v>82500</v>
+      </c>
       <c r="G34">
         <v>500</v>
       </c>
-      <c r="H34">
-        <v>267</v>
-      </c>
       <c r="I34">
         <f t="shared" ref="I34:I42" si="10">H34*G34</f>
-        <v>133500</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>500</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="N34">
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
-        <v>12500</v>
+        <v>39000</v>
       </c>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
       <c r="R34" s="24"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f>94500+24500</f>
+        <v>119000</v>
+      </c>
       <c r="G35">
         <v>200</v>
       </c>
-      <c r="H35">
-        <v>24</v>
-      </c>
       <c r="I35">
         <f t="shared" si="10"/>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>200</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <f t="shared" si="11"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="36" spans="4:24" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f>C35-C34</f>
+        <v>36500</v>
+      </c>
       <c r="G36">
         <v>100</v>
       </c>
-      <c r="H36">
-        <v>300</v>
-      </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>100</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="N36">
         <f t="shared" si="11"/>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="37" spans="4:24" x14ac:dyDescent="0.25">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>50</v>
-      </c>
-      <c r="H37">
-        <v>319</v>
       </c>
       <c r="I37">
         <f t="shared" si="10"/>
-        <v>15950</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>50</v>
       </c>
       <c r="M37">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="N37">
         <f t="shared" si="11"/>
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="38" spans="4:24" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>20</v>
       </c>
-      <c r="H38">
-        <v>82</v>
-      </c>
       <c r="I38">
         <f t="shared" si="10"/>
-        <v>1640</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>20</v>
       </c>
       <c r="M38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="4:24" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>10</v>
       </c>
-      <c r="H39">
-        <v>61</v>
-      </c>
       <c r="I39">
         <f t="shared" si="10"/>
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>10</v>
       </c>
+      <c r="M39">
+        <v>7</v>
+      </c>
       <c r="N39">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>5</v>
       </c>
@@ -2337,12 +2346,15 @@
       <c r="L40">
         <v>5</v>
       </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
       <c r="N40">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:24" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>2</v>
       </c>
@@ -2358,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>1</v>
       </c>
@@ -2374,14 +2386,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G43" s="26" t="s">
         <v>1</v>
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
-        <v>321500</v>
+        <v>0</v>
       </c>
       <c r="L43" s="26" t="s">
         <v>1</v>
@@ -2389,7 +2401,7 @@
       <c r="M43" s="26"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
-        <v>45520</v>
+        <v>96000</v>
       </c>
       <c r="P43" s="26" t="s">
         <v>33</v>
@@ -2400,7 +2412,7 @@
       </c>
       <c r="S43" s="26"/>
     </row>
-    <row r="46" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>38</v>
       </c>
@@ -2457,7 +2469,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="47" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>39</v>
       </c>
@@ -2493,7 +2505,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="48" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>41</v>
       </c>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512A6437-93CC-4E06-9044-21FFBBD7447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C91AB9-441C-4501-9DA6-A6FE5A745198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5115" yWindow="3195" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -840,12 +840,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,6 +858,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,9 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,67 +945,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -969,7 +963,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -987,14 +987,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,11 +1005,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,7 +1291,7 @@
   <dimension ref="B1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,21 +1355,21 @@
         <v>1000</v>
       </c>
       <c r="K3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1383,10 +1383,10 @@
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
         <v>57500</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="2">
         <f>D13-H3</f>
         <v>23355</v>
@@ -1395,21 +1395,21 @@
         <v>500</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
       <c r="P4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>20000</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1427,21 +1427,21 @@
         <v>200</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1459,21 +1459,21 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>17500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1491,21 +1491,18 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="O7">
         <v>50</v>
-      </c>
-      <c r="P7">
-        <v>19</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1522,19 +1519,19 @@
       <c r="J8">
         <v>20</v>
       </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -1551,9 +1548,12 @@
       <c r="J9">
         <v>10</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1633,42 +1633,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="25"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
         <v>117660</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="25"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>22850</v>
-      </c>
-      <c r="O13" s="27" t="s">
+        <v>29570</v>
+      </c>
+      <c r="O13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="27"/>
+      <c r="P13" s="25"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>49690</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1691,10 +1691,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1709,61 +1709,61 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>43000</v>
+        <v>31000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>14000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
+      <c r="B19" s="29"/>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>54500</v>
+        <v>49000</v>
       </c>
       <c r="G19">
         <v>500</v>
@@ -1779,233 +1779,236 @@
         <v>500</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>15000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
+      <c r="B20" s="29"/>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>6400</v>
+        <v>9000</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>6000</v>
+        <v>9400</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
       <c r="R20">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>1400</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
+      <c r="B21" s="29"/>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>358</v>
+        <v>160</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>35800</v>
+        <v>16000</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
+      <c r="H21">
+        <v>119</v>
+      </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11900</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>7800</v>
+        <v>3200</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>9800</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
+      <c r="B22" s="29"/>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>7700</v>
+        <v>950</v>
       </c>
       <c r="G22">
         <v>50</v>
+      </c>
+      <c r="H22">
+        <v>35</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>5400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
+      <c r="B23" s="29"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>660</v>
+        <v>140</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
+      <c r="H23">
+        <v>17</v>
+      </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
-      <c r="M23">
-        <v>18</v>
-      </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
       <c r="R23">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>260</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
+      <c r="B24" s="29"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
-      <c r="M24">
-        <v>10</v>
-      </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
-      <c r="R24">
-        <v>17</v>
-      </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="29"/>
       <c r="C25">
         <v>5</v>
       </c>
@@ -2040,7 +2043,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
+      <c r="B26" s="29"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2075,7 +2078,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
+      <c r="B27" s="29"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2110,38 +2113,38 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>148330</v>
-      </c>
-      <c r="G28" s="27" t="s">
+        <v>106100</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>69000</v>
-      </c>
-      <c r="L28" s="27" t="s">
+        <v>87400</v>
+      </c>
+      <c r="L28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="27"/>
+      <c r="M28" s="25"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>29760</v>
-      </c>
-      <c r="Q28" s="27" t="s">
+        <v>25550</v>
+      </c>
+      <c r="Q28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="27"/>
+      <c r="R28" s="25"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>46030</v>
+        <v>21080</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2196,12 +2199,12 @@
         <f>M33*L33</f>
         <v>42000</v>
       </c>
-      <c r="P33" s="24" t="s">
+      <c r="P33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="25">
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31">
         <v>192500</v>
       </c>
     </row>
@@ -2227,10 +2230,10 @@
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
         <v>39000</v>
       </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="25"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="31"/>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C35">
@@ -2387,30 +2390,30 @@
       </c>
     </row>
     <row r="43" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="26"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="26"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
         <v>96000</v>
       </c>
-      <c r="P43" s="26" t="s">
+      <c r="P43" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26">
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24">
         <v>1144410</v>
       </c>
-      <c r="S43" s="26"/>
+      <c r="S43" s="24"/>
     </row>
     <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2591,6 +2594,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2607,17 +2621,6 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2641,45 +2644,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="H4" s="43" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="H4" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2691,15 +2694,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="52"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2712,7 +2715,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="52"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2725,7 +2728,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="52"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2738,7 +2741,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="52"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2751,7 +2754,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="52"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="5" t="s">
         <v>130</v>
       </c>
@@ -2764,7 +2767,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="52"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="5" t="s">
         <v>128</v>
       </c>
@@ -2777,7 +2780,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="52"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2790,7 +2793,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="52"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2803,7 +2806,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="52"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2816,7 +2819,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="52"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2827,7 +2830,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2840,7 +2843,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="52"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2851,210 +2854,202 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="52"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="52"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="52"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47">
+      <c r="E21" s="44"/>
+      <c r="F21" s="44">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="53"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="44">
         <v>4</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="46">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="50"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="44">
         <v>6</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="44">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="50"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56">
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44">
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="51">
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="51"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3071,12 +3066,20 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3106,111 +3109,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="U1" s="66" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="U1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="K2" s="62" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="K2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="U2" s="65" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="U2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="K3" s="67" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="K3" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="U3" s="64" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="U3" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3303,12 +3306,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="60"/>
+      <c r="N5" s="61"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3324,12 +3327,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="60"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="61"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3347,12 +3350,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4080,10 +4083,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="61"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4192,26 +4195,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="66" t="s">
+      <c r="U17" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4245,17 +4248,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="65" t="s">
+      <c r="U18" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4270,10 +4273,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4282,17 +4285,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4324,28 +4327,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="K21" s="63" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="K21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4355,12 +4358,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="60"/>
+      <c r="X21" s="61"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4369,28 +4372,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="K22" s="62" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="K22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4418,28 +4421,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="K23" s="67" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="K23" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4557,12 +4560,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4578,12 +4581,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="60"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5261,10 +5264,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5376,24 +5379,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="63" t="s">
+      <c r="K36" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="61"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5428,17 +5431,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5466,37 +5469,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="U38" s="63" t="s">
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="U38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5531,17 +5534,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="62" t="s">
+      <c r="U39" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5553,42 +5556,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="60"/>
+      <c r="N40" s="61"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="61"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="67" t="s">
+      <c r="U40" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5643,17 +5646,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5688,12 +5691,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="60"/>
+      <c r="X42" s="61"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="61"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5702,17 +5705,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5853,12 +5856,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="60"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6022,10 +6025,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="61"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6134,17 +6137,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="63" t="s">
+      <c r="K49" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="63"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6197,17 +6200,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="62" t="s">
+      <c r="K50" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6260,17 +6263,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="67" t="s">
+      <c r="K51" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6380,10 +6383,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6400,12 +6403,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="60"/>
+      <c r="N53" s="61"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="61"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6415,10 +6418,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="61"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6452,17 +6455,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6488,30 +6491,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="63" t="s">
+      <c r="U55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
+      <c r="AB55" s="65"/>
+      <c r="AC55" s="65"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6537,30 +6540,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="62" t="s">
+      <c r="U56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="62"/>
-      <c r="AB56" s="62"/>
-      <c r="AC56" s="62"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6586,17 +6589,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="67" t="s">
+      <c r="U57" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
+      <c r="V57" s="66"/>
+      <c r="W57" s="66"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="66"/>
+      <c r="Z57" s="66"/>
+      <c r="AA57" s="66"/>
+      <c r="AB57" s="66"/>
+      <c r="AC57" s="66"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6689,12 +6692,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="60"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="61"/>
-      <c r="G59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6735,12 +6738,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="60"/>
+      <c r="X59" s="61"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="60"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="61"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6854,10 +6857,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="61"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6969,17 +6972,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="63" t="s">
+      <c r="K63" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7032,17 +7035,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="62" t="s">
+      <c r="K64" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7095,17 +7098,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="67" t="s">
+      <c r="K65" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7136,10 +7139,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7210,12 +7213,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="60"/>
+      <c r="N67" s="61"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="60"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="61"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7249,17 +7252,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7312,17 +7315,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7351,10 +7354,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="60"/>
+      <c r="Y69" s="61"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7364,17 +7367,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7454,17 +7457,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="66" t="s">
+      <c r="U71" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="66"/>
-      <c r="AB71" s="66"/>
-      <c r="AC71" s="66"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+      <c r="Z71" s="64"/>
+      <c r="AA71" s="64"/>
+      <c r="AB71" s="64"/>
+      <c r="AC71" s="64"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7476,12 +7479,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="60"/>
+      <c r="D72" s="61"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="61"/>
-      <c r="G72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7513,17 +7516,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="65" t="s">
+      <c r="U72" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="65"/>
-      <c r="W72" s="65"/>
-      <c r="X72" s="65"/>
-      <c r="Y72" s="65"/>
-      <c r="Z72" s="65"/>
-      <c r="AA72" s="65"/>
-      <c r="AB72" s="65"/>
-      <c r="AC72" s="65"/>
+      <c r="V72" s="63"/>
+      <c r="W72" s="63"/>
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="63"/>
+      <c r="AA72" s="63"/>
+      <c r="AB72" s="63"/>
+      <c r="AC72" s="63"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7576,17 +7579,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="64" t="s">
+      <c r="U73" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="64"/>
-      <c r="W73" s="64"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="64"/>
-      <c r="Z73" s="64"/>
-      <c r="AA73" s="64"/>
-      <c r="AB73" s="64"/>
-      <c r="AC73" s="64"/>
+      <c r="V73" s="62"/>
+      <c r="W73" s="62"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="62"/>
+      <c r="Z73" s="62"/>
+      <c r="AA73" s="62"/>
+      <c r="AB73" s="62"/>
+      <c r="AC73" s="62"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7727,12 +7730,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="60"/>
+      <c r="X75" s="61"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="61"/>
-      <c r="AA75" s="60"/>
+      <c r="Z75" s="60"/>
+      <c r="AA75" s="61"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7769,10 +7772,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="61"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8122,10 +8125,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="61"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8190,10 +8193,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="61"/>
-      <c r="Y85" s="60"/>
+      <c r="V85" s="60"/>
+      <c r="W85" s="60"/>
+      <c r="X85" s="60"/>
+      <c r="Y85" s="61"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8202,11 +8205,77 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8223,77 +8292,11 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8314,14 +8317,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8331,8 +8334,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8342,8 +8345,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8353,8 +8356,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8364,8 +8367,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8375,8 +8378,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8386,8 +8389,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8397,8 +8400,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8408,8 +8411,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8419,10 +8422,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="75">
+      <c r="E11" s="70">
         <v>24100</v>
       </c>
-      <c r="F11" s="75"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8432,10 +8435,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="75">
+      <c r="E12" s="70">
         <v>31812</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8445,10 +8448,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="75">
+      <c r="E13" s="70">
         <v>15183</v>
       </c>
-      <c r="F13" s="75"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8458,10 +8461,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="75">
+      <c r="E14" s="70">
         <v>42416</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8471,10 +8474,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="75">
+      <c r="E15" s="70">
         <v>37114</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8484,8 +8487,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8495,30 +8498,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="73">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="75">
+      <c r="D18" s="74"/>
+      <c r="E18" s="70">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8583,163 +8586,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="36"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="77"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="36"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="73"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="73"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8747,6 +8750,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C5:D5"/>
@@ -8763,43 +8803,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C91AB9-441C-4501-9DA6-A6FE5A745198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA5AA86-7223-4299-9111-738BDE172378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1291,7 +1291,7 @@
   <dimension ref="B1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,21 +1355,21 @@
         <v>1000</v>
       </c>
       <c r="K3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1395,21 +1395,21 @@
         <v>500</v>
       </c>
       <c r="K4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
       <c r="P4">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>20500</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1427,21 +1427,21 @@
         <v>200</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1459,21 +1459,21 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1491,11 +1491,11 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O7">
         <v>50</v>
@@ -1519,19 +1519,19 @@
       <c r="J8">
         <v>20</v>
       </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
+      <c r="P8">
+        <v>24</v>
+      </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -1548,12 +1548,9 @@
       <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1647,7 +1644,7 @@
       <c r="K13" s="25"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>29570</v>
+        <v>26500</v>
       </c>
       <c r="O13" s="25" t="s">
         <v>1</v>
@@ -1655,7 +1652,7 @@
       <c r="P13" s="25"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>29900</v>
+        <v>24180</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -1715,41 +1712,41 @@
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
@@ -1759,41 +1756,41 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>49000</v>
+        <v>40000</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>55000</v>
+        <v>2500</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>5500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
@@ -1803,41 +1800,38 @@
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>9000</v>
+        <v>5600</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
-      <c r="H20">
-        <v>47</v>
-      </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
       <c r="R20">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
@@ -1847,41 +1841,41 @@
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>16000</v>
+        <v>14800</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>11900</v>
+        <v>400</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>9000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
@@ -1891,21 +1885,21 @@
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>950</v>
+        <v>3600</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="L22">
         <v>50</v>
@@ -1921,11 +1915,11 @@
         <v>50</v>
       </c>
       <c r="R22">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
@@ -1935,38 +1929,41 @@
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>140</v>
+        <v>1220</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
+      <c r="M23">
+        <v>9</v>
+      </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
       <c r="R23">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
@@ -1976,11 +1973,11 @@
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -1995,16 +1992,22 @@
       <c r="L24">
         <v>10</v>
       </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
+      <c r="R24">
+        <v>34</v>
+      </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
@@ -2014,25 +2017,31 @@
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25">
         <v>5</v>
       </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
       <c r="I25">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L25">
         <v>5</v>
       </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
       <c r="N25">
         <f t="shared" ref="N25:N27" si="8">M25*L25</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -2120,7 +2129,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>106100</v>
+        <v>90575</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>1</v>
@@ -2128,7 +2137,7 @@
       <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>87400</v>
+        <v>4435</v>
       </c>
       <c r="L28" s="25" t="s">
         <v>1</v>
@@ -2136,7 +2145,7 @@
       <c r="M28" s="25"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>25550</v>
+        <v>21145</v>
       </c>
       <c r="Q28" s="25" t="s">
         <v>1</v>
@@ -2144,7 +2153,7 @@
       <c r="R28" s="25"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>21080</v>
+        <v>18750</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA5AA86-7223-4299-9111-738BDE172378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92871EC-14A3-4709-956D-D4B5C8DE5F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3885" yWindow="3195" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -840,6 +840,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,63 +864,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,6 +875,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,13 +897,67 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -963,13 +969,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -987,17 +987,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,8 +1002,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,7 +1291,7 @@
   <dimension ref="B1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,12 +1364,9 @@
       <c r="O3">
         <v>1000</v>
       </c>
-      <c r="P3">
-        <v>6</v>
-      </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1383,10 +1380,10 @@
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
         <v>57500</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="2">
         <f>D13-H3</f>
         <v>23355</v>
@@ -1395,21 +1392,18 @@
         <v>500</v>
       </c>
       <c r="K4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
-      <c r="P4">
-        <v>27</v>
-      </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>13500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1436,12 +1430,9 @@
       <c r="O5">
         <v>200</v>
       </c>
-      <c r="P5">
-        <v>8</v>
-      </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1468,12 +1459,9 @@
       <c r="O6">
         <v>100</v>
       </c>
-      <c r="P6">
-        <v>26</v>
-      </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>2600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1491,11 +1479,11 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O7">
         <v>50</v>
@@ -1519,19 +1507,19 @@
       <c r="J8">
         <v>20</v>
       </c>
+      <c r="K8">
+        <v>23</v>
+      </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
-      <c r="P8">
-        <v>24</v>
-      </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -1548,9 +1536,12 @@
       <c r="J9">
         <v>10</v>
       </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1630,42 +1621,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="27"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
         <v>117660</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="27"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>26500</v>
-      </c>
-      <c r="O13" s="25" t="s">
+        <v>27920</v>
+      </c>
+      <c r="O13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="27"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>24180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1688,10 +1679,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1706,342 +1697,339 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>1000</v>
+        <v>51000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>1000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>40000</v>
+        <v>51500</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>2500</v>
+        <v>51500</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>24500</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>5600</v>
+        <v>6600</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
+      <c r="H20">
+        <v>33</v>
+      </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
       <c r="R20">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>1600</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>14800</v>
+        <v>10400</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>3500</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>350</v>
+        <v>1850</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>3050</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>1220</v>
+        <v>1320</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>360</v>
+        <v>1320</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
       <c r="R23">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>560</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>580</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
       <c r="R24">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>340</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="31"/>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>5</v>
       </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
       <c r="I25">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>5</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
       <c r="N25">
         <f t="shared" ref="N25:N27" si="8">M25*L25</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -2052,7 +2040,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2087,7 +2075,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2122,38 +2110,38 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>90575</v>
-      </c>
-      <c r="G28" s="25" t="s">
+        <v>116900</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="27"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>4435</v>
-      </c>
-      <c r="L28" s="25" t="s">
+        <v>124500</v>
+      </c>
+      <c r="L28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="25"/>
+      <c r="M28" s="27"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>21145</v>
-      </c>
-      <c r="Q28" s="25" t="s">
+        <v>52410</v>
+      </c>
+      <c r="Q28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="25"/>
+      <c r="R28" s="27"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>18750</v>
+        <v>36570</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2208,12 +2196,12 @@
         <f>M33*L33</f>
         <v>42000</v>
       </c>
-      <c r="P33" s="30" t="s">
+      <c r="P33" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31">
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="25">
         <v>192500</v>
       </c>
     </row>
@@ -2239,10 +2227,10 @@
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
         <v>39000</v>
       </c>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="25"/>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C35">
@@ -2399,30 +2387,30 @@
       </c>
     </row>
     <row r="43" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="24"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="24"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
         <v>96000</v>
       </c>
-      <c r="P43" s="24" t="s">
+      <c r="P43" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24">
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26">
         <v>1144410</v>
       </c>
-      <c r="S43" s="24"/>
+      <c r="S43" s="26"/>
     </row>
     <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2603,17 +2591,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2630,6 +2607,17 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2653,45 +2641,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="51"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="H4" s="36" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="H4" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2703,15 +2691,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="34"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2724,7 +2712,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2737,7 +2725,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2750,7 +2738,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2763,7 +2751,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="5" t="s">
         <v>130</v>
       </c>
@@ -2776,7 +2764,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="34"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5" t="s">
         <v>128</v>
       </c>
@@ -2789,7 +2777,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2802,7 +2790,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2815,7 +2803,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2828,7 +2816,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2839,7 +2827,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="34"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2852,7 +2840,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="34"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2863,202 +2851,210 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="34"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="47">
         <v>4</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="36">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="43"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="47">
         <v>6</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="47">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39">
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="51">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3075,20 +3071,12 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3118,111 +3106,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="U1" s="64" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="U1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="K2" s="67" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="K2" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="U2" s="63" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="U2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="K3" s="66" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="K3" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="U3" s="62" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="U3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3315,12 +3303,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="61"/>
+      <c r="N5" s="60"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="60"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3336,12 +3324,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="61"/>
+      <c r="X5" s="60"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="60"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3359,12 +3347,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4092,10 +4080,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="60"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4204,26 +4192,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="64" t="s">
+      <c r="U17" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4257,17 +4245,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="63" t="s">
+      <c r="U18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4282,10 +4270,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4294,17 +4282,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="62" t="s">
+      <c r="U19" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4336,28 +4324,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="K21" s="65" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="K21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4367,12 +4355,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="61"/>
+      <c r="X21" s="60"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="60"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4381,28 +4369,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="K22" s="67" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="K22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4430,28 +4418,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="K23" s="66" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="K23" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4569,12 +4557,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4590,12 +4578,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="61"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5273,10 +5261,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="60"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5388,24 +5376,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="60"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5440,17 +5428,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="67" t="s">
+      <c r="K37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5478,37 +5466,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="U38" s="65" t="s">
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="U38" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5543,17 +5531,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="67" t="s">
+      <c r="U39" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5565,42 +5553,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="61"/>
+      <c r="N40" s="60"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="60"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="66" t="s">
+      <c r="U40" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5655,17 +5643,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5700,12 +5688,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="61"/>
+      <c r="X42" s="60"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="60"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5714,17 +5702,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5865,12 +5853,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="61"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6034,10 +6022,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="60"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6146,17 +6134,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="65" t="s">
+      <c r="K49" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6209,17 +6197,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="67" t="s">
+      <c r="K50" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6272,17 +6260,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="66" t="s">
+      <c r="K51" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6392,10 +6380,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6412,12 +6400,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="61"/>
+      <c r="N53" s="60"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="60"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6427,10 +6415,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="60"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6464,17 +6452,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6500,30 +6488,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="65" t="s">
+      <c r="U55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="65"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6549,30 +6537,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="67" t="s">
+      <c r="U56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="67"/>
-      <c r="AC56" s="67"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="62"/>
+      <c r="AC56" s="62"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6598,17 +6586,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="66" t="s">
+      <c r="U57" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="66"/>
-      <c r="W57" s="66"/>
-      <c r="X57" s="66"/>
-      <c r="Y57" s="66"/>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="66"/>
-      <c r="AB57" s="66"/>
-      <c r="AC57" s="66"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6701,12 +6689,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="61"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="60"/>
-      <c r="G59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="60"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6747,12 +6735,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="61"/>
+      <c r="X59" s="60"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="60"/>
-      <c r="AA59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="60"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6866,10 +6854,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="60"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6981,17 +6969,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7044,17 +7032,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="67" t="s">
+      <c r="K64" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7107,17 +7095,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="66" t="s">
+      <c r="K65" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="66"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7148,10 +7136,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="60"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7222,12 +7210,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="61"/>
+      <c r="N67" s="60"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="60"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7261,17 +7249,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7324,17 +7312,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7363,10 +7351,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="61"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="61"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="60"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7376,17 +7364,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7466,17 +7454,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="64" t="s">
+      <c r="U71" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="64"/>
-      <c r="W71" s="64"/>
-      <c r="X71" s="64"/>
-      <c r="Y71" s="64"/>
-      <c r="Z71" s="64"/>
-      <c r="AA71" s="64"/>
-      <c r="AB71" s="64"/>
-      <c r="AC71" s="64"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="66"/>
+      <c r="Z71" s="66"/>
+      <c r="AA71" s="66"/>
+      <c r="AB71" s="66"/>
+      <c r="AC71" s="66"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7488,12 +7476,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="61"/>
+      <c r="D72" s="60"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="60"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7525,17 +7513,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="63" t="s">
+      <c r="U72" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="63"/>
-      <c r="W72" s="63"/>
-      <c r="X72" s="63"/>
-      <c r="Y72" s="63"/>
-      <c r="Z72" s="63"/>
-      <c r="AA72" s="63"/>
-      <c r="AB72" s="63"/>
-      <c r="AC72" s="63"/>
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="65"/>
+      <c r="AB72" s="65"/>
+      <c r="AC72" s="65"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7588,17 +7576,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="62" t="s">
+      <c r="U73" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="62"/>
-      <c r="W73" s="62"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="62"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="62"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+      <c r="Z73" s="64"/>
+      <c r="AA73" s="64"/>
+      <c r="AB73" s="64"/>
+      <c r="AC73" s="64"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7739,12 +7727,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="61"/>
+      <c r="X75" s="60"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="60"/>
-      <c r="AA75" s="61"/>
+      <c r="Z75" s="61"/>
+      <c r="AA75" s="60"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7781,10 +7769,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="60"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="60"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8134,10 +8122,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8202,10 +8190,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="60"/>
-      <c r="W85" s="60"/>
-      <c r="X85" s="60"/>
-      <c r="Y85" s="61"/>
+      <c r="V85" s="61"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61"/>
+      <c r="Y85" s="60"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8214,77 +8202,11 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8301,11 +8223,77 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8326,14 +8314,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8343,8 +8331,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8354,8 +8342,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8365,8 +8353,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8376,8 +8364,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8387,8 +8375,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8398,8 +8386,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8409,8 +8397,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8420,8 +8408,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8431,10 +8419,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="70">
+      <c r="E11" s="75">
         <v>24100</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8444,10 +8432,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="70">
+      <c r="E12" s="75">
         <v>31812</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8457,10 +8445,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="70">
+      <c r="E13" s="75">
         <v>15183</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="75"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8470,10 +8458,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="70">
+      <c r="E14" s="75">
         <v>42416</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="75"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8483,10 +8471,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="70">
+      <c r="E15" s="75">
         <v>37114</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8496,8 +8484,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8507,30 +8495,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="78">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="70">
+      <c r="D18" s="79"/>
+      <c r="E18" s="75">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8595,163 +8583,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="46"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="75"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="75"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8759,11 +8747,38 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B44:C44"/>
@@ -8780,38 +8795,11 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92871EC-14A3-4709-956D-D4B5C8DE5F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EF86C5-EDAD-471F-BBAC-557314286B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3885" yWindow="3195" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -840,12 +840,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,6 +858,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,9 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,67 +945,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -969,7 +963,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -987,14 +987,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,11 +1005,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,7 +1291,7 @@
   <dimension ref="B1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,18 +1355,21 @@
         <v>1000</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
+      <c r="P3">
+        <v>9</v>
+      </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1380,10 +1383,10 @@
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
         <v>57500</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="2">
         <f>D13-H3</f>
         <v>23355</v>
@@ -1392,18 +1395,21 @@
         <v>500</v>
       </c>
       <c r="K4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
+      <c r="P4">
+        <v>30</v>
+      </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1421,18 +1427,21 @@
         <v>200</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1450,18 +1459,21 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
+      <c r="P6">
+        <v>21</v>
+      </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1479,18 +1491,21 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="O7">
         <v>50</v>
+      </c>
+      <c r="P7">
+        <v>35</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1508,11 +1523,11 @@
         <v>20</v>
       </c>
       <c r="K8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -1537,11 +1552,11 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1621,42 +1636,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="25"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
         <v>117660</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="25"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>27920</v>
-      </c>
-      <c r="O13" s="27" t="s">
+        <v>41300</v>
+      </c>
+      <c r="O13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="27"/>
+      <c r="P13" s="25"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>0</v>
+        <v>29450</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1679,10 +1694,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1697,315 +1712,312 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>51000</v>
+        <v>59000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>19000</v>
+        <v>3000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>12000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
+      <c r="B19" s="29"/>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>51500</v>
+        <v>60000</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>51500</v>
+        <v>66500</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>24500</v>
+        <v>14500</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>14500</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
+      <c r="B20" s="29"/>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>6600</v>
+        <v>6000</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
       <c r="R20">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
+      <c r="B21" s="29"/>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>10400</v>
+        <v>9100</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>2100</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
+      <c r="B22" s="29"/>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>1850</v>
+        <v>600</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>1550</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
+      <c r="B23" s="29"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>880</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
       <c r="R23">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>460</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
+      <c r="B24" s="29"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
-      <c r="H24">
-        <v>58</v>
-      </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
       <c r="M24">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="29"/>
       <c r="C25">
         <v>5</v>
       </c>
@@ -2040,7 +2052,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
+      <c r="B26" s="29"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2075,7 +2087,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
+      <c r="B27" s="29"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2110,38 +2122,38 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>116900</v>
-      </c>
-      <c r="G28" s="27" t="s">
+        <v>130490</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>124500</v>
-      </c>
-      <c r="L28" s="27" t="s">
+        <v>143900</v>
+      </c>
+      <c r="L28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="27"/>
+      <c r="M28" s="25"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>52410</v>
-      </c>
-      <c r="Q28" s="27" t="s">
+        <v>24110</v>
+      </c>
+      <c r="Q28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="27"/>
+      <c r="R28" s="25"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>36570</v>
+        <v>35630</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2189,19 +2201,16 @@
       <c r="L33">
         <v>1000</v>
       </c>
-      <c r="M33">
-        <v>42</v>
-      </c>
       <c r="N33">
         <f>M33*L33</f>
-        <v>42000</v>
-      </c>
-      <c r="P33" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="25">
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31">
         <v>192500</v>
       </c>
     </row>
@@ -2220,17 +2229,14 @@
       <c r="L34">
         <v>500</v>
       </c>
-      <c r="M34">
-        <v>78</v>
-      </c>
       <c r="N34">
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
-        <v>39000</v>
-      </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="31"/>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C35">
@@ -2247,12 +2253,9 @@
       <c r="L35">
         <v>200</v>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
       <c r="N35">
         <f t="shared" si="11"/>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:24" x14ac:dyDescent="0.25">
@@ -2270,12 +2273,9 @@
       <c r="L36">
         <v>100</v>
       </c>
-      <c r="M36">
-        <v>142</v>
-      </c>
       <c r="N36">
         <f t="shared" si="11"/>
-        <v>14200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:24" x14ac:dyDescent="0.25">
@@ -2289,12 +2289,9 @@
       <c r="L37">
         <v>50</v>
       </c>
-      <c r="M37">
-        <v>10</v>
-      </c>
       <c r="N37">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:24" x14ac:dyDescent="0.25">
@@ -2308,12 +2305,9 @@
       <c r="L38">
         <v>20</v>
       </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
       <c r="N38">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:24" x14ac:dyDescent="0.25">
@@ -2327,12 +2321,9 @@
       <c r="L39">
         <v>10</v>
       </c>
-      <c r="M39">
-        <v>7</v>
-      </c>
       <c r="N39">
         <f t="shared" si="11"/>
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:24" x14ac:dyDescent="0.25">
@@ -2346,12 +2337,9 @@
       <c r="L40">
         <v>5</v>
       </c>
-      <c r="M40">
-        <v>2</v>
-      </c>
       <c r="N40">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:24" x14ac:dyDescent="0.25">
@@ -2387,30 +2375,30 @@
       </c>
     </row>
     <row r="43" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="26"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="26"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
-        <v>96000</v>
-      </c>
-      <c r="P43" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26">
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24">
         <v>1144410</v>
       </c>
-      <c r="S43" s="26"/>
+      <c r="S43" s="24"/>
     </row>
     <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2591,6 +2579,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2607,17 +2606,6 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2641,45 +2629,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="H4" s="43" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="H4" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2691,15 +2679,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="52"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2712,7 +2700,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="52"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2725,7 +2713,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="52"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2738,7 +2726,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="52"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2751,7 +2739,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="52"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="5" t="s">
         <v>130</v>
       </c>
@@ -2764,7 +2752,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="52"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="5" t="s">
         <v>128</v>
       </c>
@@ -2777,7 +2765,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="52"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2790,7 +2778,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="52"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2803,7 +2791,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="52"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2816,7 +2804,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="52"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2827,7 +2815,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2840,7 +2828,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="52"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2851,210 +2839,202 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="52"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="52"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="52"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47">
+      <c r="E21" s="44"/>
+      <c r="F21" s="44">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="53"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="44">
         <v>4</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="46">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="50"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="44">
         <v>6</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="44">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="50"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56">
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44">
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="51">
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="51"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3071,12 +3051,20 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3106,111 +3094,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="U1" s="66" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="U1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="K2" s="62" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="K2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="U2" s="65" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="U2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="K3" s="67" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="K3" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="U3" s="64" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="U3" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3303,12 +3291,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="60"/>
+      <c r="N5" s="61"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3324,12 +3312,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="60"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="61"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3347,12 +3335,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4080,10 +4068,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="61"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4192,26 +4180,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="66" t="s">
+      <c r="U17" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4245,17 +4233,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="65" t="s">
+      <c r="U18" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4270,10 +4258,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4282,17 +4270,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4324,28 +4312,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="K21" s="63" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="K21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4355,12 +4343,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="60"/>
+      <c r="X21" s="61"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4369,28 +4357,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="K22" s="62" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="K22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4418,28 +4406,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="K23" s="67" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="K23" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4557,12 +4545,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4578,12 +4566,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="60"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5261,10 +5249,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5376,24 +5364,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="63" t="s">
+      <c r="K36" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="61"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5428,17 +5416,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5466,37 +5454,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="U38" s="63" t="s">
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="U38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5531,17 +5519,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="62" t="s">
+      <c r="U39" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5553,42 +5541,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="60"/>
+      <c r="N40" s="61"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="61"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="67" t="s">
+      <c r="U40" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5643,17 +5631,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5688,12 +5676,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="60"/>
+      <c r="X42" s="61"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="61"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5702,17 +5690,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5853,12 +5841,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="60"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6022,10 +6010,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="61"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6134,17 +6122,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="63" t="s">
+      <c r="K49" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="63"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6197,17 +6185,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="62" t="s">
+      <c r="K50" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6260,17 +6248,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="67" t="s">
+      <c r="K51" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6380,10 +6368,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6400,12 +6388,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="60"/>
+      <c r="N53" s="61"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="61"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6415,10 +6403,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="61"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6452,17 +6440,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6488,30 +6476,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="63" t="s">
+      <c r="U55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
+      <c r="AB55" s="65"/>
+      <c r="AC55" s="65"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6537,30 +6525,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="62" t="s">
+      <c r="U56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="62"/>
-      <c r="AB56" s="62"/>
-      <c r="AC56" s="62"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6586,17 +6574,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="67" t="s">
+      <c r="U57" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
+      <c r="V57" s="66"/>
+      <c r="W57" s="66"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="66"/>
+      <c r="Z57" s="66"/>
+      <c r="AA57" s="66"/>
+      <c r="AB57" s="66"/>
+      <c r="AC57" s="66"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6689,12 +6677,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="60"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="61"/>
-      <c r="G59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6735,12 +6723,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="60"/>
+      <c r="X59" s="61"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="60"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="61"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6854,10 +6842,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="61"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6969,17 +6957,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="63" t="s">
+      <c r="K63" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7032,17 +7020,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="62" t="s">
+      <c r="K64" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7095,17 +7083,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="67" t="s">
+      <c r="K65" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7136,10 +7124,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7210,12 +7198,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="60"/>
+      <c r="N67" s="61"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="60"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="61"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7249,17 +7237,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7312,17 +7300,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7351,10 +7339,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="60"/>
+      <c r="Y69" s="61"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7364,17 +7352,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7454,17 +7442,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="66" t="s">
+      <c r="U71" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="66"/>
-      <c r="AB71" s="66"/>
-      <c r="AC71" s="66"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+      <c r="Z71" s="64"/>
+      <c r="AA71" s="64"/>
+      <c r="AB71" s="64"/>
+      <c r="AC71" s="64"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7476,12 +7464,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="60"/>
+      <c r="D72" s="61"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="61"/>
-      <c r="G72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7513,17 +7501,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="65" t="s">
+      <c r="U72" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="65"/>
-      <c r="W72" s="65"/>
-      <c r="X72" s="65"/>
-      <c r="Y72" s="65"/>
-      <c r="Z72" s="65"/>
-      <c r="AA72" s="65"/>
-      <c r="AB72" s="65"/>
-      <c r="AC72" s="65"/>
+      <c r="V72" s="63"/>
+      <c r="W72" s="63"/>
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="63"/>
+      <c r="AA72" s="63"/>
+      <c r="AB72" s="63"/>
+      <c r="AC72" s="63"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7576,17 +7564,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="64" t="s">
+      <c r="U73" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="64"/>
-      <c r="W73" s="64"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="64"/>
-      <c r="Z73" s="64"/>
-      <c r="AA73" s="64"/>
-      <c r="AB73" s="64"/>
-      <c r="AC73" s="64"/>
+      <c r="V73" s="62"/>
+      <c r="W73" s="62"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="62"/>
+      <c r="Z73" s="62"/>
+      <c r="AA73" s="62"/>
+      <c r="AB73" s="62"/>
+      <c r="AC73" s="62"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7727,12 +7715,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="60"/>
+      <c r="X75" s="61"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="61"/>
-      <c r="AA75" s="60"/>
+      <c r="Z75" s="60"/>
+      <c r="AA75" s="61"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7769,10 +7757,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="61"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8122,10 +8110,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="61"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8190,10 +8178,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="61"/>
-      <c r="Y85" s="60"/>
+      <c r="V85" s="60"/>
+      <c r="W85" s="60"/>
+      <c r="X85" s="60"/>
+      <c r="Y85" s="61"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8202,11 +8190,77 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8223,77 +8277,11 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8314,14 +8302,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8331,8 +8319,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8342,8 +8330,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8353,8 +8341,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8364,8 +8352,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8375,8 +8363,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8386,8 +8374,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8397,8 +8385,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8408,8 +8396,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8419,10 +8407,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="75">
+      <c r="E11" s="70">
         <v>24100</v>
       </c>
-      <c r="F11" s="75"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8432,10 +8420,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="75">
+      <c r="E12" s="70">
         <v>31812</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8445,10 +8433,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="75">
+      <c r="E13" s="70">
         <v>15183</v>
       </c>
-      <c r="F13" s="75"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8458,10 +8446,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="75">
+      <c r="E14" s="70">
         <v>42416</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8471,10 +8459,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="75">
+      <c r="E15" s="70">
         <v>37114</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8484,8 +8472,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8495,30 +8483,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="73">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="75">
+      <c r="D18" s="74"/>
+      <c r="E18" s="70">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8583,163 +8571,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="36"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="77"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="36"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="73"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="73"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8747,6 +8735,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C5:D5"/>
@@ -8763,43 +8788,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EF86C5-EDAD-471F-BBAC-557314286B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C4156B-7163-4A7C-AFAC-4E430313FC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1290,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -1355,21 +1355,21 @@
         <v>1000</v>
       </c>
       <c r="K3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>9000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1395,21 +1395,21 @@
         <v>500</v>
       </c>
       <c r="K4">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
       <c r="P4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>15000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1427,21 +1427,21 @@
         <v>200</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1459,21 +1459,21 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>2100</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1491,21 +1491,21 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
       <c r="P7">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>1750</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1523,18 +1523,21 @@
         <v>20</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
+      <c r="P8">
+        <v>12</v>
+      </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -1552,18 +1555,21 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -1650,7 +1656,7 @@
       <c r="K13" s="25"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>41300</v>
+        <v>36710</v>
       </c>
       <c r="O13" s="25" t="s">
         <v>1</v>
@@ -1658,7 +1664,7 @@
       <c r="P13" s="25"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>29450</v>
+        <v>29300</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -1718,41 +1724,41 @@
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>59000</v>
+        <v>52000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>13000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
@@ -1762,41 +1768,41 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>60000</v>
+        <v>70500</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>66500</v>
+        <v>70000</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>18500</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
@@ -1806,21 +1812,21 @@
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>6200</v>
+        <v>7800</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>6000</v>
+        <v>7800</v>
       </c>
       <c r="L20">
         <v>200</v>
@@ -1836,11 +1842,11 @@
         <v>200</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
@@ -1850,41 +1856,41 @@
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>9100</v>
+        <v>21400</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>2500</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
@@ -1894,41 +1900,41 @@
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>3700</v>
+        <v>7950</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>3700</v>
+        <v>7800</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>650</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
@@ -1938,41 +1944,41 @@
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>880</v>
+        <v>620</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
       <c r="R23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
@@ -1982,11 +1988,11 @@
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>230</v>
+        <v>460</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -1999,21 +2005,21 @@
         <v>10</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
       <c r="R24">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
@@ -2129,7 +2135,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>130490</v>
+        <v>161430</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>1</v>
@@ -2137,7 +2143,7 @@
       <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>143900</v>
+        <v>158900</v>
       </c>
       <c r="L28" s="25" t="s">
         <v>1</v>
@@ -2145,7 +2151,7 @@
       <c r="M28" s="25"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>24110</v>
+        <v>41810</v>
       </c>
       <c r="Q28" s="25" t="s">
         <v>1</v>
@@ -2153,7 +2159,7 @@
       <c r="R28" s="25"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>35630</v>
+        <v>53610</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C4156B-7163-4A7C-AFAC-4E430313FC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA9E259-85E6-46A4-8741-1666F48D3577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,6 +840,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,63 +864,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,6 +875,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,13 +897,67 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -963,13 +969,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -987,17 +987,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,8 +1002,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,7 +1291,7 @@
   <dimension ref="B1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,21 +1355,21 @@
         <v>1000</v>
       </c>
       <c r="K3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>6000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1383,10 +1383,10 @@
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
         <v>57500</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="2">
         <f>D13-H3</f>
         <v>23355</v>
@@ -1395,21 +1395,21 @@
         <v>500</v>
       </c>
       <c r="K4">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
       <c r="P4">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>16000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1427,21 +1427,21 @@
         <v>200</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>2600</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1459,21 +1459,21 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>3900</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>4200</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1491,21 +1491,21 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1523,21 +1523,18 @@
         <v>20</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>1140</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
-      <c r="P8">
-        <v>12</v>
-      </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -1555,21 +1552,18 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
-      <c r="P9">
-        <v>11</v>
-      </c>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -1583,9 +1577,12 @@
       <c r="J10">
         <v>5</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O10">
         <v>5</v>
@@ -1642,42 +1639,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="27"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
         <v>117660</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="27"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>36710</v>
-      </c>
-      <c r="O13" s="25" t="s">
+        <v>34155</v>
+      </c>
+      <c r="O13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="27"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>29300</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1700,10 +1697,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1718,322 +1715,325 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>18000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>70500</v>
+        <v>46500</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>70000</v>
+        <v>46000</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>20500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>7800</v>
+        <v>8400</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>7800</v>
+        <v>8400</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
       <c r="R20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>21400</v>
+        <v>17000</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>20000</v>
+        <v>15700</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>7600</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>7950</v>
+        <v>3600</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>7800</v>
+        <v>3550</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>500</v>
+        <v>1050</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>6100</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>1320</v>
+        <v>2520</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>1300</v>
+        <v>2480</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>620</v>
+        <v>960</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
       <c r="R23">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>260</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>460</v>
+        <v>1270</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
+      <c r="H24">
+        <v>107</v>
+      </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
       <c r="R24">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>150</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="31"/>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2058,7 +2058,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2093,7 +2093,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2128,38 +2128,38 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>161430</v>
-      </c>
-      <c r="G28" s="25" t="s">
+        <v>139295</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="27"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>158900</v>
-      </c>
-      <c r="L28" s="25" t="s">
+        <v>137200</v>
+      </c>
+      <c r="L28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="25"/>
+      <c r="M28" s="27"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>41810</v>
-      </c>
-      <c r="Q28" s="25" t="s">
+        <v>33700</v>
+      </c>
+      <c r="Q28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="25"/>
+      <c r="R28" s="27"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>53610</v>
+        <v>27940</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2211,12 +2211,12 @@
         <f>M33*L33</f>
         <v>0</v>
       </c>
-      <c r="P33" s="30" t="s">
+      <c r="P33" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31">
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="25">
         <v>192500</v>
       </c>
     </row>
@@ -2239,10 +2239,10 @@
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
         <v>0</v>
       </c>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="25"/>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C35">
@@ -2381,30 +2381,30 @@
       </c>
     </row>
     <row r="43" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="24"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="24"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
         <v>0</v>
       </c>
-      <c r="P43" s="24" t="s">
+      <c r="P43" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24">
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26">
         <v>1144410</v>
       </c>
-      <c r="S43" s="24"/>
+      <c r="S43" s="26"/>
     </row>
     <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2585,17 +2585,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2612,6 +2601,17 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2635,45 +2635,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="51"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="H4" s="36" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="H4" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2685,15 +2685,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="34"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2706,7 +2706,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2719,7 +2719,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2732,7 +2732,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2745,7 +2745,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="5" t="s">
         <v>130</v>
       </c>
@@ -2758,7 +2758,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="34"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5" t="s">
         <v>128</v>
       </c>
@@ -2771,7 +2771,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2784,7 +2784,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2797,7 +2797,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2810,7 +2810,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2821,7 +2821,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="34"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="34"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2845,202 +2845,210 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="34"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="47">
         <v>4</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="36">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="43"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="47">
         <v>6</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="47">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39">
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="51">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3057,20 +3065,12 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3100,111 +3100,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="U1" s="64" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="U1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="K2" s="67" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="K2" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="U2" s="63" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="U2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="K3" s="66" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="K3" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="U3" s="62" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="U3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3297,12 +3297,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="61"/>
+      <c r="N5" s="60"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="60"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3318,12 +3318,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="61"/>
+      <c r="X5" s="60"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="60"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3341,12 +3341,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4074,10 +4074,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="60"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4186,26 +4186,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="64" t="s">
+      <c r="U17" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4239,17 +4239,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="63" t="s">
+      <c r="U18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4264,10 +4264,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4276,17 +4276,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="62" t="s">
+      <c r="U19" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4318,28 +4318,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="K21" s="65" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="K21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4349,12 +4349,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="61"/>
+      <c r="X21" s="60"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="60"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4363,28 +4363,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="K22" s="67" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="K22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4412,28 +4412,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="K23" s="66" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="K23" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4551,12 +4551,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4572,12 +4572,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="61"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5255,10 +5255,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="60"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5370,24 +5370,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="60"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5422,17 +5422,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="67" t="s">
+      <c r="K37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5460,37 +5460,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="U38" s="65" t="s">
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="U38" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5525,17 +5525,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="67" t="s">
+      <c r="U39" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5547,42 +5547,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="61"/>
+      <c r="N40" s="60"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="60"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="66" t="s">
+      <c r="U40" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5637,17 +5637,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5682,12 +5682,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="61"/>
+      <c r="X42" s="60"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="60"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5696,17 +5696,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5847,12 +5847,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="61"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6016,10 +6016,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="60"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6128,17 +6128,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="65" t="s">
+      <c r="K49" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6191,17 +6191,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="67" t="s">
+      <c r="K50" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6254,17 +6254,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="66" t="s">
+      <c r="K51" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6374,10 +6374,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6394,12 +6394,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="61"/>
+      <c r="N53" s="60"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="60"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6409,10 +6409,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="60"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6446,17 +6446,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6482,30 +6482,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="65" t="s">
+      <c r="U55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="65"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6531,30 +6531,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="67" t="s">
+      <c r="U56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="67"/>
-      <c r="AC56" s="67"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="62"/>
+      <c r="AC56" s="62"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6580,17 +6580,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="66" t="s">
+      <c r="U57" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="66"/>
-      <c r="W57" s="66"/>
-      <c r="X57" s="66"/>
-      <c r="Y57" s="66"/>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="66"/>
-      <c r="AB57" s="66"/>
-      <c r="AC57" s="66"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6683,12 +6683,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="61"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="60"/>
-      <c r="G59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="60"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6729,12 +6729,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="61"/>
+      <c r="X59" s="60"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="60"/>
-      <c r="AA59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="60"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6848,10 +6848,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="60"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6963,17 +6963,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7026,17 +7026,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="67" t="s">
+      <c r="K64" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7089,17 +7089,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="66" t="s">
+      <c r="K65" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="66"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7130,10 +7130,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="60"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7204,12 +7204,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="61"/>
+      <c r="N67" s="60"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="60"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7243,17 +7243,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7306,17 +7306,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7345,10 +7345,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="61"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="61"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="60"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7358,17 +7358,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7448,17 +7448,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="64" t="s">
+      <c r="U71" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="64"/>
-      <c r="W71" s="64"/>
-      <c r="X71" s="64"/>
-      <c r="Y71" s="64"/>
-      <c r="Z71" s="64"/>
-      <c r="AA71" s="64"/>
-      <c r="AB71" s="64"/>
-      <c r="AC71" s="64"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="66"/>
+      <c r="Z71" s="66"/>
+      <c r="AA71" s="66"/>
+      <c r="AB71" s="66"/>
+      <c r="AC71" s="66"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7470,12 +7470,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="61"/>
+      <c r="D72" s="60"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="60"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7507,17 +7507,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="63" t="s">
+      <c r="U72" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="63"/>
-      <c r="W72" s="63"/>
-      <c r="X72" s="63"/>
-      <c r="Y72" s="63"/>
-      <c r="Z72" s="63"/>
-      <c r="AA72" s="63"/>
-      <c r="AB72" s="63"/>
-      <c r="AC72" s="63"/>
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="65"/>
+      <c r="AB72" s="65"/>
+      <c r="AC72" s="65"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7570,17 +7570,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="62" t="s">
+      <c r="U73" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="62"/>
-      <c r="W73" s="62"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="62"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="62"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+      <c r="Z73" s="64"/>
+      <c r="AA73" s="64"/>
+      <c r="AB73" s="64"/>
+      <c r="AC73" s="64"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7721,12 +7721,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="61"/>
+      <c r="X75" s="60"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="60"/>
-      <c r="AA75" s="61"/>
+      <c r="Z75" s="61"/>
+      <c r="AA75" s="60"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7763,10 +7763,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="60"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="60"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8116,10 +8116,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8184,10 +8184,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="60"/>
-      <c r="W85" s="60"/>
-      <c r="X85" s="60"/>
-      <c r="Y85" s="61"/>
+      <c r="V85" s="61"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61"/>
+      <c r="Y85" s="60"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8196,77 +8196,11 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8283,11 +8217,77 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8308,14 +8308,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8325,8 +8325,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8336,8 +8336,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8347,8 +8347,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8358,8 +8358,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8369,8 +8369,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8380,8 +8380,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8391,8 +8391,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8402,8 +8402,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8413,10 +8413,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="70">
+      <c r="E11" s="75">
         <v>24100</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8426,10 +8426,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="70">
+      <c r="E12" s="75">
         <v>31812</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8439,10 +8439,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="70">
+      <c r="E13" s="75">
         <v>15183</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="75"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8452,10 +8452,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="70">
+      <c r="E14" s="75">
         <v>42416</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="75"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8465,10 +8465,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="70">
+      <c r="E15" s="75">
         <v>37114</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8478,8 +8478,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8489,30 +8489,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="78">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="70">
+      <c r="D18" s="79"/>
+      <c r="E18" s="75">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8577,163 +8577,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="46"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="75"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="75"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8741,11 +8741,38 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B44:C44"/>
@@ -8762,38 +8789,11 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA9E259-85E6-46A4-8741-1666F48D3577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FB1E7A-DD10-4E0E-AD63-4731B96231D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,12 +840,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,6 +858,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,9 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,67 +945,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -969,7 +963,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -987,14 +987,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,11 +1005,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -1355,21 +1355,21 @@
         <v>1000</v>
       </c>
       <c r="K3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>27000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1383,10 +1383,10 @@
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
         <v>57500</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="2">
         <f>D13-H3</f>
         <v>23355</v>
@@ -1395,21 +1395,21 @@
         <v>500</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
       <c r="P4">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>10500</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1427,21 +1427,21 @@
         <v>200</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1459,21 +1459,21 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>3900</v>
+        <v>1700</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1491,21 +1491,21 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
       <c r="P7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1523,18 +1523,21 @@
         <v>20</v>
       </c>
       <c r="K8">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>1140</v>
+        <v>80</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -1552,11 +1555,11 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1577,12 +1580,9 @@
       <c r="J10">
         <v>5</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>5</v>
@@ -1639,42 +1639,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="25"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
         <v>117660</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="25"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>34155</v>
-      </c>
-      <c r="O13" s="27" t="s">
+        <v>36600</v>
+      </c>
+      <c r="O13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="27"/>
+      <c r="P13" s="25"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>43500</v>
+        <v>39750</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1697,10 +1697,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1715,325 +1715,325 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>60000</v>
+        <v>47000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>60000</v>
+        <v>51000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>11000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
+      <c r="B19" s="29"/>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>46500</v>
+        <v>72000</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>46000</v>
+        <v>82000</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>8000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
+      <c r="B20" s="29"/>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>8400</v>
+        <v>6400</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
       <c r="H20">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>8400</v>
+        <v>6400</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
       <c r="R20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>1800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
+      <c r="B21" s="29"/>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>17000</v>
+        <v>14700</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>15700</v>
+        <v>14000</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>5700</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>5100</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
+      <c r="B22" s="29"/>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>3550</v>
+        <v>2100</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>1100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
+      <c r="B23" s="29"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>2520</v>
+        <v>2160</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>2480</v>
+        <v>2000</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
       <c r="M23">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>960</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
       <c r="R23">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>420</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
+      <c r="B24" s="29"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>1270</v>
+        <v>530</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
       <c r="H24">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>1070</v>
+        <v>500</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
       <c r="R24">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>520</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="29"/>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2058,7 +2058,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
+      <c r="B26" s="29"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2093,7 +2093,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
+      <c r="B27" s="29"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2128,38 +2128,38 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>139295</v>
-      </c>
-      <c r="G28" s="27" t="s">
+        <v>144990</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>137200</v>
-      </c>
-      <c r="L28" s="27" t="s">
+        <v>158000</v>
+      </c>
+      <c r="L28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="27"/>
+      <c r="M28" s="25"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>33700</v>
-      </c>
-      <c r="Q28" s="27" t="s">
+        <v>23880</v>
+      </c>
+      <c r="Q28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="27"/>
+      <c r="R28" s="25"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>27940</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2207,16 +2207,19 @@
       <c r="L33">
         <v>1000</v>
       </c>
+      <c r="M33">
+        <v>7</v>
+      </c>
       <c r="N33">
         <f>M33*L33</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="24" t="s">
+        <v>7000</v>
+      </c>
+      <c r="P33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="25">
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31">
         <v>192500</v>
       </c>
     </row>
@@ -2235,14 +2238,17 @@
       <c r="L34">
         <v>500</v>
       </c>
+      <c r="M34">
+        <v>36</v>
+      </c>
       <c r="N34">
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="25"/>
+        <v>18000</v>
+      </c>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="31"/>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C35">
@@ -2259,9 +2265,12 @@
       <c r="L35">
         <v>200</v>
       </c>
+      <c r="M35">
+        <v>11</v>
+      </c>
       <c r="N35">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="36" spans="3:24" x14ac:dyDescent="0.25">
@@ -2279,9 +2288,12 @@
       <c r="L36">
         <v>100</v>
       </c>
+      <c r="M36">
+        <v>40</v>
+      </c>
       <c r="N36">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="37" spans="3:24" x14ac:dyDescent="0.25">
@@ -2295,9 +2307,12 @@
       <c r="L37">
         <v>50</v>
       </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
       <c r="N37">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="3:24" x14ac:dyDescent="0.25">
@@ -2327,9 +2342,12 @@
       <c r="L39">
         <v>10</v>
       </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
       <c r="N39">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="3:24" x14ac:dyDescent="0.25">
@@ -2359,9 +2377,12 @@
       <c r="L41">
         <v>2</v>
       </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
       <c r="N41">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="3:24" x14ac:dyDescent="0.25">
@@ -2381,30 +2402,30 @@
       </c>
     </row>
     <row r="43" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="26"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="26"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
-        <v>0</v>
-      </c>
-      <c r="P43" s="26" t="s">
+        <v>31322</v>
+      </c>
+      <c r="P43" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26">
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24">
         <v>1144410</v>
       </c>
-      <c r="S43" s="26"/>
+      <c r="S43" s="24"/>
     </row>
     <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2585,6 +2606,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2601,17 +2633,6 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2635,45 +2656,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="H4" s="43" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="H4" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2685,15 +2706,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="52"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2706,7 +2727,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="52"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2719,7 +2740,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="52"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2732,7 +2753,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="52"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2745,7 +2766,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="52"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="5" t="s">
         <v>130</v>
       </c>
@@ -2758,7 +2779,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="52"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="5" t="s">
         <v>128</v>
       </c>
@@ -2771,7 +2792,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="52"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2784,7 +2805,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="52"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2797,7 +2818,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="52"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2810,7 +2831,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="52"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2821,7 +2842,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2834,7 +2855,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="52"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2845,210 +2866,202 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="52"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="52"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="52"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47">
+      <c r="E21" s="44"/>
+      <c r="F21" s="44">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="53"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="44">
         <v>4</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="46">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="50"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="44">
         <v>6</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="44">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="50"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56">
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44">
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="51">
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="51"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3065,12 +3078,20 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3100,111 +3121,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="U1" s="66" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="U1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="K2" s="62" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="K2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="U2" s="65" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="U2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="K3" s="67" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="K3" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="U3" s="64" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="U3" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3297,12 +3318,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="60"/>
+      <c r="N5" s="61"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3318,12 +3339,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="60"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="61"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3341,12 +3362,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4074,10 +4095,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="61"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4186,26 +4207,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="66" t="s">
+      <c r="U17" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4239,17 +4260,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="65" t="s">
+      <c r="U18" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4264,10 +4285,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4276,17 +4297,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4318,28 +4339,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="K21" s="63" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="K21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4349,12 +4370,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="60"/>
+      <c r="X21" s="61"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4363,28 +4384,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="K22" s="62" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="K22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4412,28 +4433,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="K23" s="67" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="K23" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4551,12 +4572,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4572,12 +4593,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="60"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5255,10 +5276,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5370,24 +5391,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="63" t="s">
+      <c r="K36" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="61"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5422,17 +5443,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5460,37 +5481,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="U38" s="63" t="s">
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="U38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5525,17 +5546,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="62" t="s">
+      <c r="U39" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5547,42 +5568,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="60"/>
+      <c r="N40" s="61"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="61"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="67" t="s">
+      <c r="U40" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5637,17 +5658,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5682,12 +5703,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="60"/>
+      <c r="X42" s="61"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="61"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5696,17 +5717,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5847,12 +5868,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="60"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6016,10 +6037,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="61"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6128,17 +6149,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="63" t="s">
+      <c r="K49" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="63"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6191,17 +6212,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="62" t="s">
+      <c r="K50" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6254,17 +6275,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="67" t="s">
+      <c r="K51" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6374,10 +6395,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6394,12 +6415,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="60"/>
+      <c r="N53" s="61"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="61"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6409,10 +6430,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="61"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6446,17 +6467,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6482,30 +6503,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="63" t="s">
+      <c r="U55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
+      <c r="AB55" s="65"/>
+      <c r="AC55" s="65"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6531,30 +6552,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="62" t="s">
+      <c r="U56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="62"/>
-      <c r="AB56" s="62"/>
-      <c r="AC56" s="62"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6580,17 +6601,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="67" t="s">
+      <c r="U57" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
+      <c r="V57" s="66"/>
+      <c r="W57" s="66"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="66"/>
+      <c r="Z57" s="66"/>
+      <c r="AA57" s="66"/>
+      <c r="AB57" s="66"/>
+      <c r="AC57" s="66"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6683,12 +6704,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="60"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="61"/>
-      <c r="G59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6729,12 +6750,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="60"/>
+      <c r="X59" s="61"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="60"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="61"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6848,10 +6869,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="61"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6963,17 +6984,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="63" t="s">
+      <c r="K63" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7026,17 +7047,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="62" t="s">
+      <c r="K64" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7089,17 +7110,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="67" t="s">
+      <c r="K65" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7130,10 +7151,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7204,12 +7225,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="60"/>
+      <c r="N67" s="61"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="60"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="61"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7243,17 +7264,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7306,17 +7327,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7345,10 +7366,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="60"/>
+      <c r="Y69" s="61"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7358,17 +7379,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7448,17 +7469,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="66" t="s">
+      <c r="U71" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="66"/>
-      <c r="AB71" s="66"/>
-      <c r="AC71" s="66"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+      <c r="Z71" s="64"/>
+      <c r="AA71" s="64"/>
+      <c r="AB71" s="64"/>
+      <c r="AC71" s="64"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7470,12 +7491,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="60"/>
+      <c r="D72" s="61"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="61"/>
-      <c r="G72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7507,17 +7528,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="65" t="s">
+      <c r="U72" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="65"/>
-      <c r="W72" s="65"/>
-      <c r="X72" s="65"/>
-      <c r="Y72" s="65"/>
-      <c r="Z72" s="65"/>
-      <c r="AA72" s="65"/>
-      <c r="AB72" s="65"/>
-      <c r="AC72" s="65"/>
+      <c r="V72" s="63"/>
+      <c r="W72" s="63"/>
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="63"/>
+      <c r="AA72" s="63"/>
+      <c r="AB72" s="63"/>
+      <c r="AC72" s="63"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7570,17 +7591,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="64" t="s">
+      <c r="U73" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="64"/>
-      <c r="W73" s="64"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="64"/>
-      <c r="Z73" s="64"/>
-      <c r="AA73" s="64"/>
-      <c r="AB73" s="64"/>
-      <c r="AC73" s="64"/>
+      <c r="V73" s="62"/>
+      <c r="W73" s="62"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="62"/>
+      <c r="Z73" s="62"/>
+      <c r="AA73" s="62"/>
+      <c r="AB73" s="62"/>
+      <c r="AC73" s="62"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7721,12 +7742,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="60"/>
+      <c r="X75" s="61"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="61"/>
-      <c r="AA75" s="60"/>
+      <c r="Z75" s="60"/>
+      <c r="AA75" s="61"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7763,10 +7784,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="61"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8116,10 +8137,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="61"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8184,10 +8205,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="61"/>
-      <c r="Y85" s="60"/>
+      <c r="V85" s="60"/>
+      <c r="W85" s="60"/>
+      <c r="X85" s="60"/>
+      <c r="Y85" s="61"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8196,11 +8217,77 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8217,77 +8304,11 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8308,14 +8329,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8325,8 +8346,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8336,8 +8357,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8347,8 +8368,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8358,8 +8379,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8369,8 +8390,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8380,8 +8401,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8391,8 +8412,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8402,8 +8423,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8413,10 +8434,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="75">
+      <c r="E11" s="70">
         <v>24100</v>
       </c>
-      <c r="F11" s="75"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8426,10 +8447,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="75">
+      <c r="E12" s="70">
         <v>31812</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8439,10 +8460,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="75">
+      <c r="E13" s="70">
         <v>15183</v>
       </c>
-      <c r="F13" s="75"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8452,10 +8473,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="75">
+      <c r="E14" s="70">
         <v>42416</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8465,10 +8486,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="75">
+      <c r="E15" s="70">
         <v>37114</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8478,8 +8499,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8489,30 +8510,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="73">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="75">
+      <c r="D18" s="74"/>
+      <c r="E18" s="70">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8577,163 +8598,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="36"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="77"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="36"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="73"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="73"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8741,6 +8762,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C5:D5"/>
@@ -8757,43 +8815,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FB1E7A-DD10-4E0E-AD63-4731B96231D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC70C6BB-04CD-46F9-BDCD-C81166EA16EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="345" yWindow="345" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1291,7 +1291,7 @@
   <dimension ref="B1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,21 +1355,21 @@
         <v>1000</v>
       </c>
       <c r="K3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>15000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1395,21 +1395,21 @@
         <v>500</v>
       </c>
       <c r="K4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
       <c r="P4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>21500</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1427,21 +1427,21 @@
         <v>200</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1459,21 +1459,21 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>1700</v>
+        <v>2900</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1491,21 +1491,21 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1523,21 +1523,18 @@
         <v>20</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
-      <c r="P8">
-        <v>30</v>
-      </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -1555,11 +1552,11 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1653,7 +1650,7 @@
       <c r="K13" s="25"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>36600</v>
+        <v>34510</v>
       </c>
       <c r="O13" s="25" t="s">
         <v>1</v>
@@ -1661,7 +1658,7 @@
       <c r="P13" s="25"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>39750</v>
+        <v>38250</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -1721,41 +1718,41 @@
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>47000</v>
+        <v>56000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>51000</v>
+        <v>44000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>10000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
@@ -1765,41 +1762,41 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>72000</v>
+        <v>65500</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>82000</v>
+        <v>72000</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>25000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
@@ -1809,41 +1806,41 @@
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
       <c r="H20">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>6400</v>
+        <v>7800</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
       <c r="R20">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
@@ -1853,41 +1850,41 @@
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>14700</v>
+        <v>11800</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>14000</v>
+        <v>12600</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>5700</v>
+        <v>3200</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>5800</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
@@ -1897,41 +1894,41 @@
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>2200</v>
+        <v>4950</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>650</v>
+        <v>2000</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>400</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
@@ -1941,11 +1938,11 @@
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>2160</v>
+        <v>3080</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -1961,21 +1958,21 @@
         <v>20</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
       <c r="R23">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>1280</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
@@ -1985,41 +1982,38 @@
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>530</v>
+        <v>370</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
-      <c r="H24">
-        <v>50</v>
-      </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
       <c r="M24">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
       <c r="R24">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>280</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
@@ -2064,11 +2058,11 @@
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2080,9 +2074,12 @@
       <c r="L26">
         <v>2</v>
       </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
       <c r="N26">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -2135,7 +2132,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>144990</v>
+        <v>148302</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>1</v>
@@ -2143,7 +2140,7 @@
       <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>158000</v>
+        <v>140000</v>
       </c>
       <c r="L28" s="25" t="s">
         <v>1</v>
@@ -2151,7 +2148,7 @@
       <c r="M28" s="25"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>23880</v>
+        <v>29202</v>
       </c>
       <c r="Q28" s="25" t="s">
         <v>1</v>
@@ -2159,7 +2156,7 @@
       <c r="R28" s="25"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>44760</v>
+        <v>46340</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC70C6BB-04CD-46F9-BDCD-C81166EA16EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766D0AFA-BE9B-42C2-A17A-BB64EF0CC991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="345" yWindow="345" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -840,6 +840,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,63 +864,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,6 +875,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,13 +897,67 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -963,13 +969,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -987,17 +987,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,8 +1002,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,7 +1291,7 @@
   <dimension ref="B1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,38 +1338,36 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>290</v>
       </c>
       <c r="D3">
         <f>C3*B3</f>
-        <v>31000</v>
+        <v>290000</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>94305</v>
-      </c>
+      <c r="H3" s="2"/>
       <c r="J3">
         <v>1000</v>
       </c>
       <c r="K3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>19000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1377,39 +1375,39 @@
         <v>500</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>415</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
-        <v>57500</v>
-      </c>
-      <c r="F4" s="26" t="s">
+        <v>207500</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="2">
         <f>D13-H3</f>
-        <v>23355</v>
+        <v>518100</v>
       </c>
       <c r="J4">
         <v>500</v>
       </c>
       <c r="K4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
       <c r="P4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>15500</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1417,31 +1415,31 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>8600</v>
       </c>
       <c r="J5">
         <v>200</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1449,31 +1447,31 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>2900</v>
+        <v>1000</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>2600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1481,11 +1479,11 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="J7">
         <v>50</v>
@@ -1500,12 +1498,9 @@
       <c r="O7">
         <v>50</v>
       </c>
-      <c r="P7">
-        <v>11</v>
-      </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1513,21 +1508,18 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2620</v>
+        <v>800</v>
       </c>
       <c r="J8">
         <v>20</v>
       </c>
-      <c r="K8">
-        <v>100</v>
-      </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -1542,21 +1534,18 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1636,42 +1625,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="27"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
-        <v>117660</v>
-      </c>
-      <c r="J13" s="25" t="s">
+        <v>518100</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="27"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>34510</v>
-      </c>
-      <c r="O13" s="25" t="s">
+        <v>17250</v>
+      </c>
+      <c r="O13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="27"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>38250</v>
+        <v>52300</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1694,10 +1683,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1712,281 +1701,281 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>56000</v>
+        <v>80000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>44000</v>
+        <v>75000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>16000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>65500</v>
+        <v>37500</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>72000</v>
+        <v>37500</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>21000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>6600</v>
+        <v>4400</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>7800</v>
+        <v>3400</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
       <c r="R20">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>3400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>11800</v>
+        <v>7000</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>12600</v>
+        <v>7000</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>3100</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>4950</v>
+        <v>1300</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1050</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>2250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>3080</v>
+        <v>360</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>720</v>
+        <v>120</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
       <c r="R23">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>370</v>
+        <v>90</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -1999,25 +1988,22 @@
         <v>10</v>
       </c>
       <c r="M24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
-      <c r="R24">
-        <v>23</v>
-      </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="31"/>
       <c r="C25">
         <v>5</v>
       </c>
@@ -2052,17 +2038,17 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2074,12 +2060,9 @@
       <c r="L26">
         <v>2</v>
       </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
       <c r="N26">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -2090,7 +2073,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2125,38 +2108,38 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>148302</v>
-      </c>
-      <c r="G28" s="25" t="s">
+        <v>130650</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="27"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>140000</v>
-      </c>
-      <c r="L28" s="25" t="s">
+        <v>124500</v>
+      </c>
+      <c r="L28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="25"/>
+      <c r="M28" s="27"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>29202</v>
-      </c>
-      <c r="Q28" s="25" t="s">
+        <v>17260</v>
+      </c>
+      <c r="Q28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="25"/>
+      <c r="R28" s="27"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>46340</v>
+        <v>43840</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2193,13 +2176,16 @@
       <c r="R32" s="23"/>
       <c r="S32" s="23"/>
     </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>1000</v>
       </c>
+      <c r="H33">
+        <v>85</v>
+      </c>
       <c r="I33">
         <f>H33*G33</f>
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="L33">
         <v>1000</v>
@@ -2211,26 +2197,25 @@
         <f>M33*L33</f>
         <v>7000</v>
       </c>
-      <c r="P33" s="30" t="s">
+      <c r="P33" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31">
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="25">
         <v>192500</v>
       </c>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <f>1000*23+500*52+1000*8+500*51</f>
-        <v>82500</v>
-      </c>
+    <row r="34" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>500</v>
       </c>
+      <c r="H34">
+        <v>188</v>
+      </c>
       <c r="I34">
         <f t="shared" ref="I34:I42" si="10">H34*G34</f>
-        <v>0</v>
+        <v>94000</v>
       </c>
       <c r="L34">
         <v>500</v>
@@ -2242,22 +2227,21 @@
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
         <v>18000</v>
       </c>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
-    </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <f>94500+24500</f>
-        <v>119000</v>
-      </c>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="25"/>
+    </row>
+    <row r="35" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>200</v>
       </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
       <c r="I35">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="L35">
         <v>200</v>
@@ -2270,17 +2254,16 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <f>C35-C34</f>
-        <v>36500</v>
-      </c>
+    <row r="36" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>100</v>
       </c>
+      <c r="H36">
+        <v>60</v>
+      </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="L36">
         <v>100</v>
@@ -2293,7 +2276,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>50</v>
       </c>
@@ -2312,7 +2295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>20</v>
       </c>
@@ -2328,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>10</v>
       </c>
@@ -2347,7 +2330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>5</v>
       </c>
@@ -2363,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>2</v>
       </c>
@@ -2382,7 +2365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>1</v>
       </c>
@@ -2398,33 +2381,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="24" t="s">
+    <row r="43" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="G43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="24"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="24" t="s">
+        <v>191000</v>
+      </c>
+      <c r="L43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="24"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
         <v>31322</v>
       </c>
-      <c r="P43" s="24" t="s">
+      <c r="P43" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24">
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26">
         <v>1144410</v>
       </c>
-      <c r="S43" s="24"/>
-    </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="S43" s="26"/>
+    </row>
+    <row r="46" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>38</v>
       </c>
@@ -2481,7 +2464,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>39</v>
       </c>
@@ -2517,7 +2500,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>41</v>
       </c>
@@ -2603,17 +2586,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2630,6 +2602,17 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2640,7 +2623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEBD9BD-ED05-4AC7-BCB0-DD9460887CC0}">
   <dimension ref="C2:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
@@ -2653,45 +2636,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="51"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="H4" s="36" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="H4" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2703,15 +2686,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="34"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2724,7 +2707,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2737,7 +2720,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2750,7 +2733,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2763,7 +2746,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="5" t="s">
         <v>130</v>
       </c>
@@ -2776,7 +2759,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="34"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5" t="s">
         <v>128</v>
       </c>
@@ -2789,7 +2772,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2802,7 +2785,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2815,7 +2798,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2828,7 +2811,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2839,7 +2822,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="34"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2852,7 +2835,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="34"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2863,202 +2846,210 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="34"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="47">
         <v>4</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="36">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="43"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="47">
         <v>6</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="47">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39">
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="51">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3075,20 +3066,12 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3099,7 +3082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBB8454-1984-4FD6-A560-30EF2FD7ABE0}">
   <dimension ref="A1:AC85"/>
   <sheetViews>
-    <sheetView topLeftCell="J82" workbookViewId="0">
+    <sheetView topLeftCell="J67" workbookViewId="0">
       <selection activeCell="Z85" sqref="Z85"/>
     </sheetView>
   </sheetViews>
@@ -3118,111 +3101,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="U1" s="64" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="U1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="K2" s="67" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="K2" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="U2" s="63" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="U2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="K3" s="66" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="K3" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="U3" s="62" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="U3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3315,12 +3298,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="61"/>
+      <c r="N5" s="60"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="60"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3336,12 +3319,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="61"/>
+      <c r="X5" s="60"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="60"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3359,12 +3342,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4092,10 +4075,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="60"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4204,26 +4187,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="64" t="s">
+      <c r="U17" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4257,17 +4240,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="63" t="s">
+      <c r="U18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4282,10 +4265,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4294,17 +4277,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="62" t="s">
+      <c r="U19" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4336,28 +4319,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="K21" s="65" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="K21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4367,12 +4350,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="61"/>
+      <c r="X21" s="60"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="60"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4381,28 +4364,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="K22" s="67" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="K22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4430,28 +4413,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="K23" s="66" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="K23" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4569,12 +4552,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4590,12 +4573,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="61"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5273,10 +5256,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="60"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5388,24 +5371,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="60"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5440,17 +5423,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="67" t="s">
+      <c r="K37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5478,37 +5461,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="U38" s="65" t="s">
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="U38" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5543,17 +5526,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="67" t="s">
+      <c r="U39" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5565,42 +5548,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="61"/>
+      <c r="N40" s="60"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="60"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="66" t="s">
+      <c r="U40" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5655,17 +5638,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5700,12 +5683,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="61"/>
+      <c r="X42" s="60"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="60"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5714,17 +5697,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5865,12 +5848,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="61"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6034,10 +6017,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="60"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6146,17 +6129,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="65" t="s">
+      <c r="K49" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6209,17 +6192,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="67" t="s">
+      <c r="K50" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6272,17 +6255,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="66" t="s">
+      <c r="K51" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6392,10 +6375,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6412,12 +6395,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="61"/>
+      <c r="N53" s="60"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="60"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6427,10 +6410,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="60"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6464,17 +6447,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6500,30 +6483,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="65" t="s">
+      <c r="U55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="65"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6549,30 +6532,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="67" t="s">
+      <c r="U56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="67"/>
-      <c r="AC56" s="67"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="62"/>
+      <c r="AC56" s="62"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6598,17 +6581,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="66" t="s">
+      <c r="U57" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="66"/>
-      <c r="W57" s="66"/>
-      <c r="X57" s="66"/>
-      <c r="Y57" s="66"/>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="66"/>
-      <c r="AB57" s="66"/>
-      <c r="AC57" s="66"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6701,12 +6684,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="61"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="60"/>
-      <c r="G59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="60"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6747,12 +6730,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="61"/>
+      <c r="X59" s="60"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="60"/>
-      <c r="AA59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="60"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6866,10 +6849,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="60"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6981,17 +6964,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7044,17 +7027,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="67" t="s">
+      <c r="K64" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7107,17 +7090,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="66" t="s">
+      <c r="K65" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="66"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7148,10 +7131,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="60"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7222,12 +7205,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="61"/>
+      <c r="N67" s="60"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="60"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7261,17 +7244,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7324,17 +7307,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7363,10 +7346,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="61"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="61"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="60"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7376,17 +7359,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7466,17 +7449,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="64" t="s">
+      <c r="U71" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="64"/>
-      <c r="W71" s="64"/>
-      <c r="X71" s="64"/>
-      <c r="Y71" s="64"/>
-      <c r="Z71" s="64"/>
-      <c r="AA71" s="64"/>
-      <c r="AB71" s="64"/>
-      <c r="AC71" s="64"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="66"/>
+      <c r="Z71" s="66"/>
+      <c r="AA71" s="66"/>
+      <c r="AB71" s="66"/>
+      <c r="AC71" s="66"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7488,12 +7471,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="61"/>
+      <c r="D72" s="60"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="60"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7525,17 +7508,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="63" t="s">
+      <c r="U72" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="63"/>
-      <c r="W72" s="63"/>
-      <c r="X72" s="63"/>
-      <c r="Y72" s="63"/>
-      <c r="Z72" s="63"/>
-      <c r="AA72" s="63"/>
-      <c r="AB72" s="63"/>
-      <c r="AC72" s="63"/>
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="65"/>
+      <c r="AB72" s="65"/>
+      <c r="AC72" s="65"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7588,17 +7571,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="62" t="s">
+      <c r="U73" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="62"/>
-      <c r="W73" s="62"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="62"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="62"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+      <c r="Z73" s="64"/>
+      <c r="AA73" s="64"/>
+      <c r="AB73" s="64"/>
+      <c r="AC73" s="64"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7739,12 +7722,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="61"/>
+      <c r="X75" s="60"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="60"/>
-      <c r="AA75" s="61"/>
+      <c r="Z75" s="61"/>
+      <c r="AA75" s="60"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7781,10 +7764,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="60"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="60"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8134,10 +8117,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8202,10 +8185,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="60"/>
-      <c r="W85" s="60"/>
-      <c r="X85" s="60"/>
-      <c r="Y85" s="61"/>
+      <c r="V85" s="61"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61"/>
+      <c r="Y85" s="60"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8214,77 +8197,11 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8301,11 +8218,77 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8326,14 +8309,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8343,8 +8326,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8354,8 +8337,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8365,8 +8348,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8376,8 +8359,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8387,8 +8370,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8398,8 +8381,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8409,8 +8392,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8420,8 +8403,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8431,10 +8414,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="70">
+      <c r="E11" s="75">
         <v>24100</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8444,10 +8427,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="70">
+      <c r="E12" s="75">
         <v>31812</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8457,10 +8440,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="70">
+      <c r="E13" s="75">
         <v>15183</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="75"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8470,10 +8453,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="70">
+      <c r="E14" s="75">
         <v>42416</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="75"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8483,10 +8466,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="70">
+      <c r="E15" s="75">
         <v>37114</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8496,8 +8479,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8507,30 +8490,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="78">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="70">
+      <c r="D18" s="79"/>
+      <c r="E18" s="75">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8595,163 +8578,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="46"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="75"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="75"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8759,11 +8742,38 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B44:C44"/>
@@ -8780,38 +8790,11 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766D0AFA-BE9B-42C2-A17A-BB64EF0CC991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A936DF93-CF2A-499B-B32C-00C7F2212A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,12 +840,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,6 +858,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,9 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,67 +945,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -969,7 +963,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -987,14 +987,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,11 +1005,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,11 +1363,11 @@
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>36000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1381,10 +1381,10 @@
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
         <v>207500</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="2">
         <f>D13-H3</f>
         <v>518100</v>
@@ -1393,21 +1393,21 @@
         <v>500</v>
       </c>
       <c r="K4">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">K4*J4</f>
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
       <c r="P4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>14000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1425,21 +1425,21 @@
         <v>200</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>5600</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1457,21 +1457,21 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1489,18 +1489,21 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="O7">
         <v>50</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1625,42 +1628,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="25"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
         <v>518100</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="25"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>17250</v>
-      </c>
-      <c r="O13" s="27" t="s">
+        <v>32000</v>
+      </c>
+      <c r="O13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="27"/>
+      <c r="P13" s="25"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>52300</v>
+        <v>27300</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1683,10 +1686,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1701,17 +1704,17 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="G18">
         <v>1000</v>
@@ -1727,35 +1730,35 @@
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>30000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
+      <c r="B19" s="29"/>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>37500</v>
+        <v>42500</v>
       </c>
       <c r="G19">
         <v>500</v>
@@ -1771,35 +1774,35 @@
         <v>500</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>10500</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
+      <c r="B20" s="29"/>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>4400</v>
+        <v>16000</v>
       </c>
       <c r="G20">
         <v>200</v>
@@ -1815,35 +1818,35 @@
         <v>200</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
       <c r="R20">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>1200</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
+      <c r="B21" s="29"/>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="G21">
         <v>100</v>
@@ -1859,35 +1862,35 @@
         <v>100</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>2700</v>
+        <v>5000</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>1800</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
+      <c r="B22" s="29"/>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G22">
         <v>50</v>
@@ -1903,35 +1906,35 @@
         <v>50</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>1050</v>
+        <v>100</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
+      <c r="B23" s="29"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -1946,36 +1949,30 @@
       <c r="L23">
         <v>20</v>
       </c>
-      <c r="M23">
-        <v>6</v>
-      </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
-      <c r="R23">
-        <v>12</v>
-      </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
+      <c r="B24" s="29"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -1987,12 +1984,9 @@
       <c r="L24">
         <v>10</v>
       </c>
-      <c r="M24">
-        <v>9</v>
-      </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>10</v>
@@ -2003,7 +1997,7 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="29"/>
       <c r="C25">
         <v>5</v>
       </c>
@@ -2038,7 +2032,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
+      <c r="B26" s="29"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2073,7 +2067,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
+      <c r="B27" s="29"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2108,38 +2102,38 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>130650</v>
-      </c>
-      <c r="G28" s="27" t="s">
+        <v>119000</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
         <v>124500</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="L28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="27"/>
+      <c r="M28" s="25"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>17260</v>
-      </c>
-      <c r="Q28" s="27" t="s">
+        <v>22600</v>
+      </c>
+      <c r="Q28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="27"/>
+      <c r="R28" s="25"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>43840</v>
+        <v>37100</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2197,12 +2191,12 @@
         <f>M33*L33</f>
         <v>7000</v>
       </c>
-      <c r="P33" s="24" t="s">
+      <c r="P33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="25">
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31">
         <v>192500</v>
       </c>
     </row>
@@ -2227,10 +2221,10 @@
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
         <v>18000</v>
       </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="25"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="31"/>
     </row>
     <row r="35" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G35">
@@ -2382,30 +2376,30 @@
       </c>
     </row>
     <row r="43" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="26"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
         <v>191000</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="26"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
         <v>31322</v>
       </c>
-      <c r="P43" s="26" t="s">
+      <c r="P43" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26">
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24">
         <v>1144410</v>
       </c>
-      <c r="S43" s="26"/>
+      <c r="S43" s="24"/>
     </row>
     <row r="46" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2586,6 +2580,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2602,17 +2607,6 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2636,45 +2630,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="H4" s="43" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="H4" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2686,15 +2680,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="52"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2707,7 +2701,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="52"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2720,7 +2714,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="52"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2733,7 +2727,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="52"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2746,7 +2740,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="52"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="5" t="s">
         <v>130</v>
       </c>
@@ -2759,7 +2753,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="52"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="5" t="s">
         <v>128</v>
       </c>
@@ -2772,7 +2766,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="52"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2785,7 +2779,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="52"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2798,7 +2792,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="52"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2811,7 +2805,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="52"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2822,7 +2816,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2835,7 +2829,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="52"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2846,210 +2840,202 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="52"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="52"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="52"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47">
+      <c r="E21" s="44"/>
+      <c r="F21" s="44">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="53"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="44">
         <v>4</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="46">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="50"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="44">
         <v>6</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="44">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="50"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56">
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44">
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="51">
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="51"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3066,12 +3052,20 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3101,111 +3095,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="U1" s="66" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="U1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="K2" s="62" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="K2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="U2" s="65" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="U2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="K3" s="67" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="K3" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="U3" s="64" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="U3" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3298,12 +3292,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="60"/>
+      <c r="N5" s="61"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3319,12 +3313,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="60"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="61"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3342,12 +3336,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4075,10 +4069,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="61"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4187,26 +4181,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="66" t="s">
+      <c r="U17" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4240,17 +4234,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="65" t="s">
+      <c r="U18" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4265,10 +4259,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4277,17 +4271,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4319,28 +4313,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="K21" s="63" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="K21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4350,12 +4344,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="60"/>
+      <c r="X21" s="61"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4364,28 +4358,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="K22" s="62" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="K22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4413,28 +4407,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="K23" s="67" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="K23" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4552,12 +4546,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4573,12 +4567,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="60"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5256,10 +5250,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5371,24 +5365,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="63" t="s">
+      <c r="K36" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="61"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5423,17 +5417,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5461,37 +5455,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="U38" s="63" t="s">
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="U38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5526,17 +5520,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="62" t="s">
+      <c r="U39" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5548,42 +5542,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="60"/>
+      <c r="N40" s="61"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="61"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="67" t="s">
+      <c r="U40" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5638,17 +5632,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5683,12 +5677,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="60"/>
+      <c r="X42" s="61"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="61"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5697,17 +5691,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5848,12 +5842,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="60"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6017,10 +6011,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="61"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6129,17 +6123,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="63" t="s">
+      <c r="K49" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="63"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6192,17 +6186,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="62" t="s">
+      <c r="K50" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6255,17 +6249,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="67" t="s">
+      <c r="K51" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6375,10 +6369,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6395,12 +6389,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="60"/>
+      <c r="N53" s="61"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="61"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6410,10 +6404,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="61"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6447,17 +6441,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6483,30 +6477,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="63" t="s">
+      <c r="U55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
+      <c r="AB55" s="65"/>
+      <c r="AC55" s="65"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6532,30 +6526,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="62" t="s">
+      <c r="U56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="62"/>
-      <c r="AB56" s="62"/>
-      <c r="AC56" s="62"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6581,17 +6575,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="67" t="s">
+      <c r="U57" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
+      <c r="V57" s="66"/>
+      <c r="W57" s="66"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="66"/>
+      <c r="Z57" s="66"/>
+      <c r="AA57" s="66"/>
+      <c r="AB57" s="66"/>
+      <c r="AC57" s="66"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6684,12 +6678,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="60"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="61"/>
-      <c r="G59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6730,12 +6724,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="60"/>
+      <c r="X59" s="61"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="60"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="61"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6849,10 +6843,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="61"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6964,17 +6958,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="63" t="s">
+      <c r="K63" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7027,17 +7021,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="62" t="s">
+      <c r="K64" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7090,17 +7084,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="67" t="s">
+      <c r="K65" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7131,10 +7125,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7205,12 +7199,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="60"/>
+      <c r="N67" s="61"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="60"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="61"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7244,17 +7238,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7307,17 +7301,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7346,10 +7340,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="60"/>
+      <c r="Y69" s="61"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7359,17 +7353,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7449,17 +7443,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="66" t="s">
+      <c r="U71" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="66"/>
-      <c r="AB71" s="66"/>
-      <c r="AC71" s="66"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+      <c r="Z71" s="64"/>
+      <c r="AA71" s="64"/>
+      <c r="AB71" s="64"/>
+      <c r="AC71" s="64"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7471,12 +7465,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="60"/>
+      <c r="D72" s="61"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="61"/>
-      <c r="G72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7508,17 +7502,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="65" t="s">
+      <c r="U72" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="65"/>
-      <c r="W72" s="65"/>
-      <c r="X72" s="65"/>
-      <c r="Y72" s="65"/>
-      <c r="Z72" s="65"/>
-      <c r="AA72" s="65"/>
-      <c r="AB72" s="65"/>
-      <c r="AC72" s="65"/>
+      <c r="V72" s="63"/>
+      <c r="W72" s="63"/>
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="63"/>
+      <c r="AA72" s="63"/>
+      <c r="AB72" s="63"/>
+      <c r="AC72" s="63"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7571,17 +7565,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="64" t="s">
+      <c r="U73" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="64"/>
-      <c r="W73" s="64"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="64"/>
-      <c r="Z73" s="64"/>
-      <c r="AA73" s="64"/>
-      <c r="AB73" s="64"/>
-      <c r="AC73" s="64"/>
+      <c r="V73" s="62"/>
+      <c r="W73" s="62"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="62"/>
+      <c r="Z73" s="62"/>
+      <c r="AA73" s="62"/>
+      <c r="AB73" s="62"/>
+      <c r="AC73" s="62"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7722,12 +7716,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="60"/>
+      <c r="X75" s="61"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="61"/>
-      <c r="AA75" s="60"/>
+      <c r="Z75" s="60"/>
+      <c r="AA75" s="61"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7764,10 +7758,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="61"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8117,10 +8111,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="61"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8185,10 +8179,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="61"/>
-      <c r="Y85" s="60"/>
+      <c r="V85" s="60"/>
+      <c r="W85" s="60"/>
+      <c r="X85" s="60"/>
+      <c r="Y85" s="61"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8197,11 +8191,77 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8218,77 +8278,11 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8309,14 +8303,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8326,8 +8320,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8337,8 +8331,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8348,8 +8342,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8359,8 +8353,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8370,8 +8364,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8381,8 +8375,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8392,8 +8386,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8403,8 +8397,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8414,10 +8408,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="75">
+      <c r="E11" s="70">
         <v>24100</v>
       </c>
-      <c r="F11" s="75"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8427,10 +8421,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="75">
+      <c r="E12" s="70">
         <v>31812</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8440,10 +8434,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="75">
+      <c r="E13" s="70">
         <v>15183</v>
       </c>
-      <c r="F13" s="75"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8453,10 +8447,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="75">
+      <c r="E14" s="70">
         <v>42416</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8466,10 +8460,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="75">
+      <c r="E15" s="70">
         <v>37114</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8479,8 +8473,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8490,30 +8484,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="73">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="75">
+      <c r="D18" s="74"/>
+      <c r="E18" s="70">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8578,163 +8572,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="36"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="77"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="36"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="73"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="73"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8742,6 +8736,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C5:D5"/>
@@ -8758,43 +8789,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A936DF93-CF2A-499B-B32C-00C7F2212A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1623ED-0EB5-4AF7-BB22-3D2CE70C1E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,6 +840,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,63 +864,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,6 +875,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,13 +897,67 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -963,13 +969,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -987,17 +987,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,8 +1002,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,21 +1353,21 @@
         <v>1000</v>
       </c>
       <c r="K3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>9000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1381,10 +1381,10 @@
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
         <v>207500</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="2">
         <f>D13-H3</f>
         <v>518100</v>
@@ -1403,11 +1403,11 @@
         <v>500</v>
       </c>
       <c r="P4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>10000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1425,21 +1425,21 @@
         <v>200</v>
       </c>
       <c r="K5">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>5600</v>
+        <v>800</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>2600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1457,21 +1457,21 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>5600</v>
+        <v>2100</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>5400</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1489,21 +1489,18 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="O7">
         <v>50</v>
-      </c>
-      <c r="P7">
-        <v>6</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -1520,9 +1517,12 @@
       <c r="J8">
         <v>20</v>
       </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -1546,9 +1546,12 @@
       <c r="J9">
         <v>10</v>
       </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1628,42 +1631,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="27"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
         <v>518100</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="27"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>32000</v>
-      </c>
-      <c r="O13" s="25" t="s">
+        <v>30060</v>
+      </c>
+      <c r="O13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="27"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>27300</v>
+        <v>19300</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1686,10 +1689,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1704,247 +1707,247 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>75000</v>
+        <v>77000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
       <c r="R18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>12000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>42500</v>
+        <v>42000</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>37500</v>
+        <v>82500</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>13500</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>16000</v>
+        <v>6200</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>3400</v>
+        <v>6800</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
       <c r="R20">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>3800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>23000</v>
+        <v>10700</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>7000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>1300</v>
+        <v>5400</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>300</v>
+        <v>2960</v>
       </c>
       <c r="L23">
         <v>20</v>
@@ -1956,30 +1959,36 @@
       <c r="Q23">
         <v>20</v>
       </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
+      <c r="H24">
+        <v>55</v>
+      </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -1997,7 +2006,7 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="31"/>
       <c r="C25">
         <v>5</v>
       </c>
@@ -2032,7 +2041,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2067,7 +2076,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2102,38 +2111,38 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>119000</v>
-      </c>
-      <c r="G28" s="25" t="s">
+        <v>101550</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="27"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>124500</v>
-      </c>
-      <c r="L28" s="25" t="s">
+        <v>195210</v>
+      </c>
+      <c r="L28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="25"/>
+      <c r="M28" s="27"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>22600</v>
-      </c>
-      <c r="Q28" s="25" t="s">
+        <v>20550</v>
+      </c>
+      <c r="Q28" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="25"/>
+      <c r="R28" s="27"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>37100</v>
+        <v>31640</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2174,29 +2183,26 @@
       <c r="G33">
         <v>1000</v>
       </c>
-      <c r="H33">
-        <v>85</v>
-      </c>
       <c r="I33">
         <f>H33*G33</f>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>1000</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="N33">
         <f>M33*L33</f>
-        <v>7000</v>
-      </c>
-      <c r="P33" s="30" t="s">
+        <v>77000</v>
+      </c>
+      <c r="P33" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31">
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="25">
         <v>192500</v>
       </c>
     </row>
@@ -2205,47 +2211,44 @@
         <v>500</v>
       </c>
       <c r="H34">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:I42" si="10">H34*G34</f>
-        <v>94000</v>
+        <v>30000</v>
       </c>
       <c r="L34">
         <v>500</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="N34">
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
-        <v>18000</v>
-      </c>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
+        <v>52500</v>
+      </c>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="25"/>
     </row>
     <row r="35" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>200</v>
       </c>
       <c r="H35">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I35">
         <f t="shared" si="10"/>
-        <v>6000</v>
+        <v>6800</v>
       </c>
       <c r="L35">
         <v>200</v>
       </c>
-      <c r="M35">
-        <v>11</v>
-      </c>
       <c r="N35">
         <f t="shared" si="11"/>
-        <v>2200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="4:24" x14ac:dyDescent="0.25">
@@ -2253,21 +2256,21 @@
         <v>100</v>
       </c>
       <c r="H36">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L36">
         <v>100</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N36">
         <f t="shared" si="11"/>
-        <v>4000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="37" spans="4:24" x14ac:dyDescent="0.25">
@@ -2282,20 +2285,23 @@
         <v>50</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="N37">
         <f t="shared" si="11"/>
-        <v>100</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="38" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>20</v>
       </c>
+      <c r="H38">
+        <v>148</v>
+      </c>
       <c r="I38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2960</v>
       </c>
       <c r="L38">
         <v>20</v>
@@ -2309,19 +2315,19 @@
       <c r="G39">
         <v>10</v>
       </c>
+      <c r="H39">
+        <v>24</v>
+      </c>
       <c r="I39">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="L39">
         <v>10</v>
       </c>
-      <c r="M39">
-        <v>2</v>
-      </c>
       <c r="N39">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="4:24" x14ac:dyDescent="0.25">
@@ -2351,12 +2357,9 @@
       <c r="L41">
         <v>2</v>
       </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
       <c r="N41">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="4:24" x14ac:dyDescent="0.25">
@@ -2376,30 +2379,30 @@
       </c>
     </row>
     <row r="43" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="24"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
-        <v>191000</v>
-      </c>
-      <c r="L43" s="24" t="s">
+        <v>50000</v>
+      </c>
+      <c r="L43" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="24"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
-        <v>31322</v>
-      </c>
-      <c r="P43" s="24" t="s">
+        <v>144000</v>
+      </c>
+      <c r="P43" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24">
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26">
         <v>1144410</v>
       </c>
-      <c r="S43" s="24"/>
+      <c r="S43" s="26"/>
     </row>
     <row r="46" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2580,17 +2583,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2607,6 +2599,17 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2630,45 +2633,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="51"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="H4" s="36" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="H4" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2680,15 +2683,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="34"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2701,7 +2704,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2714,7 +2717,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2727,7 +2730,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2740,7 +2743,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="5" t="s">
         <v>130</v>
       </c>
@@ -2753,7 +2756,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="34"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5" t="s">
         <v>128</v>
       </c>
@@ -2766,7 +2769,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2779,7 +2782,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2792,7 +2795,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2805,7 +2808,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2816,7 +2819,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="34"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2829,7 +2832,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="34"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2840,202 +2843,210 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="34"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="47">
         <v>4</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="36">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="43"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="47">
         <v>6</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="47">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39">
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="51">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3052,20 +3063,12 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3095,111 +3098,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="U1" s="64" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="U1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="K2" s="67" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="K2" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="U2" s="63" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="U2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="K3" s="66" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="K3" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="U3" s="62" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="U3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3292,12 +3295,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="61"/>
+      <c r="N5" s="60"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="60"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3313,12 +3316,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="61"/>
+      <c r="X5" s="60"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="60"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3336,12 +3339,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4069,10 +4072,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="60"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4181,26 +4184,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="64" t="s">
+      <c r="U17" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4234,17 +4237,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="63" t="s">
+      <c r="U18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4259,10 +4262,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4271,17 +4274,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="62" t="s">
+      <c r="U19" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4313,28 +4316,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="K21" s="65" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="K21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4344,12 +4347,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="61"/>
+      <c r="X21" s="60"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="60"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4358,28 +4361,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="K22" s="67" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="K22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4407,28 +4410,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="K23" s="66" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="K23" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4546,12 +4549,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4567,12 +4570,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="61"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5250,10 +5253,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="60"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5365,24 +5368,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="60"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5417,17 +5420,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="67" t="s">
+      <c r="K37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5455,37 +5458,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="U38" s="65" t="s">
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="U38" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5520,17 +5523,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="67" t="s">
+      <c r="U39" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5542,42 +5545,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="61"/>
+      <c r="N40" s="60"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="60"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="66" t="s">
+      <c r="U40" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5632,17 +5635,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5677,12 +5680,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="61"/>
+      <c r="X42" s="60"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="60"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5691,17 +5694,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5842,12 +5845,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="61"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6011,10 +6014,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="60"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6123,17 +6126,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="65" t="s">
+      <c r="K49" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6186,17 +6189,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="67" t="s">
+      <c r="K50" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6249,17 +6252,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="66" t="s">
+      <c r="K51" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6369,10 +6372,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6389,12 +6392,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="61"/>
+      <c r="N53" s="60"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="60"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6404,10 +6407,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="60"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6441,17 +6444,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6477,30 +6480,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="65" t="s">
+      <c r="U55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="65"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6526,30 +6529,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="67" t="s">
+      <c r="U56" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="67"/>
-      <c r="AC56" s="67"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="62"/>
+      <c r="AC56" s="62"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6575,17 +6578,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="66" t="s">
+      <c r="U57" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="66"/>
-      <c r="W57" s="66"/>
-      <c r="X57" s="66"/>
-      <c r="Y57" s="66"/>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="66"/>
-      <c r="AB57" s="66"/>
-      <c r="AC57" s="66"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6678,12 +6681,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="61"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="60"/>
-      <c r="G59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="60"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6724,12 +6727,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="61"/>
+      <c r="X59" s="60"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="60"/>
-      <c r="AA59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="60"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6843,10 +6846,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="60"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6958,17 +6961,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7021,17 +7024,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="67" t="s">
+      <c r="K64" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7084,17 +7087,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="66" t="s">
+      <c r="K65" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="66"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7125,10 +7128,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="60"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7199,12 +7202,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="61"/>
+      <c r="N67" s="60"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="60"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7238,17 +7241,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7301,17 +7304,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7340,10 +7343,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="61"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="61"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="60"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7353,17 +7356,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7443,17 +7446,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="64" t="s">
+      <c r="U71" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="64"/>
-      <c r="W71" s="64"/>
-      <c r="X71" s="64"/>
-      <c r="Y71" s="64"/>
-      <c r="Z71" s="64"/>
-      <c r="AA71" s="64"/>
-      <c r="AB71" s="64"/>
-      <c r="AC71" s="64"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="66"/>
+      <c r="Z71" s="66"/>
+      <c r="AA71" s="66"/>
+      <c r="AB71" s="66"/>
+      <c r="AC71" s="66"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7465,12 +7468,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="61"/>
+      <c r="D72" s="60"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="60"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7502,17 +7505,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="63" t="s">
+      <c r="U72" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="63"/>
-      <c r="W72" s="63"/>
-      <c r="X72" s="63"/>
-      <c r="Y72" s="63"/>
-      <c r="Z72" s="63"/>
-      <c r="AA72" s="63"/>
-      <c r="AB72" s="63"/>
-      <c r="AC72" s="63"/>
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="65"/>
+      <c r="AB72" s="65"/>
+      <c r="AC72" s="65"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7565,17 +7568,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="62" t="s">
+      <c r="U73" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="62"/>
-      <c r="W73" s="62"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="62"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="62"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+      <c r="Z73" s="64"/>
+      <c r="AA73" s="64"/>
+      <c r="AB73" s="64"/>
+      <c r="AC73" s="64"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
@@ -7716,12 +7719,12 @@
       <c r="W75" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X75" s="61"/>
+      <c r="X75" s="60"/>
       <c r="Y75" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z75" s="60"/>
-      <c r="AA75" s="61"/>
+      <c r="Z75" s="61"/>
+      <c r="AA75" s="60"/>
       <c r="AB75" s="14">
         <v>335891</v>
       </c>
@@ -7758,10 +7761,10 @@
       <c r="K76" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="60"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="60"/>
       <c r="P76" s="12">
         <v>25910</v>
       </c>
@@ -8111,10 +8114,10 @@
       <c r="A83" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="12">
         <v>65303</v>
       </c>
@@ -8179,10 +8182,10 @@
       <c r="U85" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="60"/>
-      <c r="W85" s="60"/>
-      <c r="X85" s="60"/>
-      <c r="Y85" s="61"/>
+      <c r="V85" s="61"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61"/>
+      <c r="Y85" s="60"/>
       <c r="Z85" s="12">
         <v>69962</v>
       </c>
@@ -8191,77 +8194,11 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="U85:Y85"/>
-    <mergeCell ref="U73:AC73"/>
-    <mergeCell ref="U72:AC72"/>
-    <mergeCell ref="U71:AC71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="K65:S65"/>
-    <mergeCell ref="K64:S64"/>
-    <mergeCell ref="K63:S63"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U57:AC57"/>
-    <mergeCell ref="U56:AC56"/>
-    <mergeCell ref="U55:AC55"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K49:S49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K50:S50"/>
-    <mergeCell ref="U40:AC40"/>
-    <mergeCell ref="U39:AC39"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="U19:AC19"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U1:AC1"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K2:S2"/>
@@ -8278,11 +8215,77 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="U19:AC19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="U40:AC40"/>
+    <mergeCell ref="U39:AC39"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U57:AC57"/>
+    <mergeCell ref="U56:AC56"/>
+    <mergeCell ref="U55:AC55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="U73:AC73"/>
+    <mergeCell ref="U72:AC72"/>
+    <mergeCell ref="U71:AC71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="A83:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8303,14 +8306,14 @@
       <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
@@ -8320,8 +8323,8 @@
         <v>12273</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
@@ -8331,8 +8334,8 @@
         <v>31593</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
@@ -8342,8 +8345,8 @@
         <v>15486</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -8353,8 +8356,8 @@
         <v>35324</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
@@ -8364,8 +8367,8 @@
         <v>15755</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
@@ -8375,8 +8378,8 @@
         <v>7585</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
@@ -8386,8 +8389,8 @@
         <v>7255</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
@@ -8397,8 +8400,8 @@
         <v>37168</v>
       </c>
       <c r="D10" s="72"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
@@ -8408,10 +8411,10 @@
         <v>3946</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="70">
+      <c r="E11" s="75">
         <v>24100</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -8421,10 +8424,10 @@
         <v>6675</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="70">
+      <c r="E12" s="75">
         <v>31812</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -8434,10 +8437,10 @@
         <v>14646</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="70">
+      <c r="E13" s="75">
         <v>15183</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="75"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -8447,10 +8450,10 @@
         <v>4424</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="70">
+      <c r="E14" s="75">
         <v>42416</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="75"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -8460,10 +8463,10 @@
         <v>16909</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="70">
+      <c r="E15" s="75">
         <v>37114</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -8473,8 +8476,8 @@
         <v>29584</v>
       </c>
       <c r="D16" s="72"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
@@ -8484,30 +8487,30 @@
         <v>39962</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="78">
         <f>SUM(C3:C17)</f>
         <v>278585</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="70">
+      <c r="D18" s="79"/>
+      <c r="E18" s="75">
         <f>SUM(E11:F17)</f>
         <v>150625</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
@@ -8572,163 +8575,163 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="18">
         <f>SUM(D23:D26)</f>
         <v>840000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="18">
         <v>326162</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="18">
         <v>222736</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="18">
         <v>311843</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="18">
         <v>144747</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="18">
         <v>70000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="18">
         <f>SUM(D30:D34)</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="46"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="18">
         <v>116318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="18">
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="18">
         <f>SUM(D37:D38)</f>
         <v>516318</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="75"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="21">
         <f>D27</f>
         <v>840000</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="21">
         <f>D35</f>
         <v>1075488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="21">
         <f>D39</f>
         <v>516318</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="75"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="21">
         <f>D41-D42+D43</f>
         <v>280830</v>
@@ -8736,11 +8739,38 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B44:C44"/>
@@ -8757,38 +8787,11 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_Work/CASH DENO.xlsx
+++ b/Daily_Work/CASH DENO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1623ED-0EB5-4AF7-BB22-3D2CE70C1E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CE60ED-6C85-44DF-BB02-4EE682E50AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,12 +840,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,6 +858,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,9 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,67 +945,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -969,7 +963,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -987,14 +987,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,11 +1005,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,22 +1352,19 @@
       <c r="J3">
         <v>1000</v>
       </c>
-      <c r="K3">
-        <v>15</v>
-      </c>
       <c r="L3">
         <f>K3*J3</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>1000</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q3">
         <f>P3*O3</f>
-        <v>5000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1381,10 +1378,10 @@
         <f t="shared" ref="D4:D12" si="0">C4*B4</f>
         <v>207500</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="2">
         <f>D13-H3</f>
         <v>518100</v>
@@ -1403,11 +1400,11 @@
         <v>500</v>
       </c>
       <c r="P4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="2">P4*O4</f>
-        <v>9000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1425,21 +1422,21 @@
         <v>200</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>2400</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1457,21 +1454,21 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>2100</v>
+        <v>4100</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>2900</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1489,11 +1486,11 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="O7">
         <v>50</v>
@@ -1518,11 +1515,11 @@
         <v>20</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -1547,11 +1544,11 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1631,42 +1628,42 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="25"/>
       <c r="D13">
         <f>SUM(D3:D12)</f>
         <v>518100</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="25"/>
       <c r="L13">
         <f>SUM(L3:L12)</f>
-        <v>30060</v>
-      </c>
-      <c r="O13" s="27" t="s">
+        <v>19330</v>
+      </c>
+      <c r="O13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="27"/>
+      <c r="P13" s="25"/>
       <c r="Q13">
         <f>SUM(Q3:Q12)</f>
-        <v>19300</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1689,10 +1686,10 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -1707,295 +1704,289 @@
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="3">K3+P3+M18+R18</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <f>D18*C18</f>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="I18">
         <f>H18*G18</f>
-        <v>77000</v>
+        <v>11000</v>
       </c>
       <c r="L18">
         <v>1000</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N24" si="4">M18*L18</f>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="Q18">
         <v>1000</v>
       </c>
-      <c r="R18">
-        <v>17</v>
-      </c>
       <c r="S18">
         <f t="shared" ref="S18:S24" si="5">R18*Q18</f>
-        <v>17000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
+      <c r="B19" s="29"/>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="6">D19*C19</f>
-        <v>42000</v>
+        <v>38500</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:I27" si="7">H19*G19</f>
-        <v>82500</v>
+        <v>7500</v>
       </c>
       <c r="L19">
         <v>500</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="Q19">
         <v>500</v>
       </c>
       <c r="R19">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>11500</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
+      <c r="B20" s="29"/>
       <c r="C20">
         <v>200</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>6200</v>
+        <v>9000</v>
       </c>
       <c r="G20">
         <v>200</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>6800</v>
+        <v>200</v>
       </c>
       <c r="L20">
         <v>200</v>
       </c>
-      <c r="M20">
-        <v>12</v>
-      </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>200</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>600</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
+      <c r="B21" s="29"/>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>10700</v>
+        <v>25400</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>4700</v>
+        <v>12600</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
+      <c r="B22" s="29"/>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="G22">
         <v>50</v>
-      </c>
-      <c r="H22">
-        <v>108</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>450</v>
+        <v>1350</v>
       </c>
       <c r="Q22">
         <v>50</v>
       </c>
       <c r="R22">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
+      <c r="B23" s="29"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>2960</v>
+        <v>20</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
+      <c r="M23">
+        <v>40</v>
+      </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="Q23">
         <v>20</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
+      <c r="B24" s="29"/>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
-      <c r="H24">
-        <v>55</v>
-      </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>10</v>
       </c>
+      <c r="M24">
+        <v>17</v>
+      </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>10</v>
@@ -2006,7 +1997,7 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="29"/>
       <c r="C25">
         <v>5</v>
       </c>
@@ -2041,7 +2032,7 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
+      <c r="B26" s="29"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2076,7 +2067,7 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
+      <c r="B27" s="29"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -2111,38 +2102,38 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="1">
         <f>SUM(E18:E27)</f>
-        <v>101550</v>
-      </c>
-      <c r="G28" s="27" t="s">
+        <v>96750</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="25"/>
       <c r="I28">
         <f>SUM(I18:I27)</f>
-        <v>195210</v>
-      </c>
-      <c r="L28" s="27" t="s">
+        <v>18820</v>
+      </c>
+      <c r="L28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="27"/>
+      <c r="M28" s="25"/>
       <c r="N28">
         <f>SUM(N18:N27)</f>
-        <v>20550</v>
-      </c>
-      <c r="Q28" s="27" t="s">
+        <v>24420</v>
+      </c>
+      <c r="Q28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="27"/>
+      <c r="R28" s="25"/>
       <c r="S28">
         <f>SUM(S18:S27)</f>
-        <v>31640</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -2183,9 +2174,12 @@
       <c r="G33">
         <v>1000</v>
       </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
       <c r="I33">
         <f>H33*G33</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="L33">
         <v>1000</v>
@@ -2197,12 +2191,12 @@
         <f>M33*L33</f>
         <v>77000</v>
       </c>
-      <c r="P33" s="24" t="s">
+      <c r="P33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="25">
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31">
         <v>192500</v>
       </c>
     </row>
@@ -2211,11 +2205,11 @@
         <v>500</v>
       </c>
       <c r="H34">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:I42" si="10">H34*G34</f>
-        <v>30000</v>
+        <v>7500</v>
       </c>
       <c r="L34">
         <v>500</v>
@@ -2227,21 +2221,21 @@
         <f t="shared" ref="N34:N42" si="11">M34*L34</f>
         <v>52500</v>
       </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="25"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="31"/>
     </row>
     <row r="35" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>200</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I35">
         <f t="shared" si="10"/>
-        <v>6800</v>
+        <v>2600</v>
       </c>
       <c r="L35">
         <v>200</v>
@@ -2256,11 +2250,11 @@
         <v>100</v>
       </c>
       <c r="H36">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>10000</v>
+        <v>2800</v>
       </c>
       <c r="L36">
         <v>100</v>
@@ -2277,9 +2271,12 @@
       <c r="G37">
         <v>50</v>
       </c>
+      <c r="H37">
+        <v>13</v>
+      </c>
       <c r="I37">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="L37">
         <v>50</v>
@@ -2297,11 +2294,11 @@
         <v>20</v>
       </c>
       <c r="H38">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <f t="shared" si="10"/>
-        <v>2960</v>
+        <v>80</v>
       </c>
       <c r="L38">
         <v>20</v>
@@ -2316,11 +2313,11 @@
         <v>10</v>
       </c>
       <c r="H39">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <f t="shared" si="10"/>
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="L39">
         <v>10</v>
@@ -2334,9 +2331,12 @@
       <c r="G40">
         <v>5</v>
       </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
       <c r="I40">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L40">
         <v>5</v>
@@ -2379,30 +2379,30 @@
       </c>
     </row>
     <row r="43" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="26"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="4">
         <f>SUM(I33:I42)</f>
-        <v>50000</v>
-      </c>
-      <c r="L43" s="26" t="s">
+        <v>22645</v>
+      </c>
+      <c r="L43" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="26"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="4">
         <f>SUM(N33:N42)</f>
         <v>144000</v>
       </c>
-      <c r="P43" s="26" t="s">
+      <c r="P43" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26">
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24">
         <v>1144410</v>
       </c>
-      <c r="S43" s="26"/>
+      <c r="S43" s="24"/>
     </row>
     <row r="46" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
@@ -2583,6 +2583,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q16:T17"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="G31:J32"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G16:J17"/>
@@ -2599,17 +2610,6 @@
     <mergeCell ref="B16:B27"/>
     <mergeCell ref="L31:O32"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q16:T17"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2633,45 +2633,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="H4" s="43" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="H4" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2683,15 +2683,15 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="52"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2704,7 +2704,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="52"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2717,7 +2717,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="52"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2730,7 +2730,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="52"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2743,7 +2743,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="52"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="5" t="s">
         <v>130</v>
       </c>
@@ -2756,7 +2756,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="52"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="5" t="s">
         <v>128</v>
       </c>
@@ -2769,7 +2769,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="52"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
@@ -2782,7 +2782,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="52"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2795,7 +2795,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="52"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2808,7 +2808,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="52"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2819,7 +2819,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2832,7 +2832,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="52"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2843,210 +2843,202 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="52"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46">
         <v>335354</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="52"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="52"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47">
+      <c r="E21" s="44"/>
+      <c r="F21" s="44">
         <v>75771</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="53"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46">
         <f>E23*241</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="44">
         <v>4</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="46">
         <f>E25*241</f>
         <v>964</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="50"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="3:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="44">
         <v>6</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="44">
         <f>E27*341</f>
         <v>2046</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="50"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56">
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39">
         <f>SUM(F7:F28)</f>
         <v>1052452.2485</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32">
         <v>380000</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>21755</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44">
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32">
         <v>400000</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="51">
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33">
         <f>F29-F31-F33+F35+F37</f>
         <v>1094207.2485</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="51"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C6:C22"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C4:F5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C31:E32"/>
     <mergeCell ref="C35:E36"/>
@@ -3063,12 +3055,20 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C6:C22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3098,111 +3098,111 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="U1" s="66" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="U1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="K2" s="62" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="K2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="U2" s="65" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="U2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
     </row>
     <row r="3" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="K3" s="67" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="K3" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="U3" s="64" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="U3" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
@@ -3295,12 +3295,12 @@
       <c r="M5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="60"/>
+      <c r="N5" s="61"/>
       <c r="O5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
       <c r="R5" s="14">
         <v>128191</v>
       </c>
@@ -3316,12 +3316,12 @@
       <c r="W5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="60"/>
+      <c r="X5" s="61"/>
       <c r="Y5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="61"/>
       <c r="AB5" s="14">
         <v>169784</v>
       </c>
@@ -3339,12 +3339,12 @@
       <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="14">
         <v>115918</v>
       </c>
@@ -4072,10 +4072,10 @@
       <c r="U15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="61"/>
       <c r="Z15" s="12">
         <v>20486</v>
       </c>
@@ -4184,26 +4184,26 @@
       <c r="S17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="66" t="s">
+      <c r="U17" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
     </row>
     <row r="18" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="12">
         <v>14943</v>
       </c>
@@ -4237,17 +4237,17 @@
       <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="65" t="s">
+      <c r="U18" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
     </row>
     <row r="19" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -4262,10 +4262,10 @@
       <c r="K19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="12">
         <v>44428</v>
       </c>
@@ -4274,17 +4274,17 @@
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="16"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
     </row>
     <row r="20" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="11" t="s">
@@ -4316,28 +4316,28 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="K21" s="63" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="K21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
       <c r="U21" s="12" t="s">
         <v>54</v>
       </c>
@@ -4347,12 +4347,12 @@
       <c r="W21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="60"/>
+      <c r="X21" s="61"/>
       <c r="Y21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
       <c r="AB21" s="14">
         <v>209839</v>
       </c>
@@ -4361,28 +4361,28 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="K22" s="62" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="K22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
       <c r="U22" s="12">
         <v>7249</v>
       </c>
@@ -4410,28 +4410,28 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="K23" s="67" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="K23" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
       <c r="U23" s="12">
         <v>7303</v>
       </c>
@@ -4549,12 +4549,12 @@
       <c r="C25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="14">
         <v>190270</v>
       </c>
@@ -4570,12 +4570,12 @@
       <c r="M25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="60"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="14">
         <v>225594</v>
       </c>
@@ -5253,10 +5253,10 @@
       <c r="K34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="12">
         <v>7240</v>
       </c>
@@ -5368,24 +5368,24 @@
       <c r="I36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="63" t="s">
+      <c r="K36" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
       <c r="U36" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="61"/>
       <c r="Z36" s="12">
         <v>26048</v>
       </c>
@@ -5420,17 +5420,17 @@
       <c r="I37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
     </row>
     <row r="38" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -5458,37 +5458,37 @@
       <c r="I38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="U38" s="63" t="s">
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="U38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
     </row>
     <row r="39" spans="1:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="12">
         <v>38154</v>
       </c>
@@ -5523,17 +5523,17 @@
       <c r="S39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U39" s="62" t="s">
+      <c r="U39" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
     </row>
     <row r="40" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="12" t="s">
@@ -5545,42 +5545,42 @@
       <c r="M40" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="60"/>
+      <c r="N40" s="61"/>
       <c r="O40" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="61"/>
       <c r="R40" s="14">
         <v>227424</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="67" t="s">
+      <c r="U40" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
     </row>
     <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
       <c r="K41" s="12">
         <v>7940</v>
       </c>
@@ -5635,17 +5635,17 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
       <c r="K42" s="12">
         <v>8137</v>
       </c>
@@ -5680,12 +5680,12 @@
       <c r="W42" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X42" s="60"/>
+      <c r="X42" s="61"/>
       <c r="Y42" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="61"/>
       <c r="AB42" s="14">
         <v>244679</v>
       </c>
@@ -5694,17 +5694,17 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
       <c r="K43" s="12">
         <v>8164</v>
       </c>
@@ -5845,12 +5845,12 @@
       <c r="C45" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="60"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="14">
         <v>291847</v>
       </c>
@@ -6014,10 +6014,10 @@
       <c r="K47" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="61"/>
       <c r="P47" s="12">
         <v>17255</v>
       </c>
@@ -6126,17 +6126,17 @@
       <c r="I49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="63" t="s">
+      <c r="K49" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="63"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
       <c r="U49" s="12">
         <v>8899</v>
       </c>
@@ -6189,17 +6189,17 @@
       <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="62" t="s">
+      <c r="K50" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
       <c r="U50" s="12">
         <v>8980</v>
       </c>
@@ -6252,17 +6252,17 @@
       <c r="I51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="67" t="s">
+      <c r="K51" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
       <c r="U51" s="12">
         <v>9031</v>
       </c>
@@ -6372,10 +6372,10 @@
       <c r="A53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="12">
         <v>20453</v>
       </c>
@@ -6392,12 +6392,12 @@
       <c r="M53" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="60"/>
+      <c r="N53" s="61"/>
       <c r="O53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="61"/>
       <c r="R53" s="14">
         <v>295793</v>
       </c>
@@ -6407,10 +6407,10 @@
       <c r="U53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="61"/>
       <c r="Z53" s="12">
         <v>47168</v>
       </c>
@@ -6444,17 +6444,17 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
       <c r="K55" s="12">
         <v>9908</v>
       </c>
@@ -6480,30 +6480,30 @@
       <c r="S55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="63" t="s">
+      <c r="U55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
+      <c r="AB55" s="65"/>
+      <c r="AC55" s="65"/>
     </row>
     <row r="56" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
       <c r="K56" s="12">
         <v>9966</v>
       </c>
@@ -6529,30 +6529,30 @@
       <c r="S56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="62" t="s">
+      <c r="U56" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="62"/>
-      <c r="AB56" s="62"/>
-      <c r="AC56" s="62"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
     </row>
     <row r="57" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
       <c r="K57" s="12">
         <v>10060</v>
       </c>
@@ -6578,17 +6578,17 @@
       <c r="S57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="67" t="s">
+      <c r="U57" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
+      <c r="V57" s="66"/>
+      <c r="W57" s="66"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="66"/>
+      <c r="Z57" s="66"/>
+      <c r="AA57" s="66"/>
+      <c r="AB57" s="66"/>
+      <c r="AC57" s="66"/>
     </row>
     <row r="58" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
@@ -6681,12 +6681,12 @@
       <c r="C59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="60"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="61"/>
-      <c r="G59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="14">
         <v>287822</v>
       </c>
@@ -6727,12 +6727,12 @@
       <c r="W59" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="60"/>
+      <c r="X59" s="61"/>
       <c r="Y59" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="60"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="61"/>
       <c r="AB59" s="14">
         <v>312468</v>
       </c>
@@ -6846,10 +6846,10 @@
       <c r="K61" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="61"/>
       <c r="P61" s="12">
         <v>19150</v>
       </c>
@@ -6961,17 +6961,17 @@
       <c r="I63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="63" t="s">
+      <c r="K63" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
       <c r="U63" s="12">
         <v>10461</v>
       </c>
@@ -7024,17 +7024,17 @@
       <c r="I64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="62" t="s">
+      <c r="K64" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
       <c r="U64" s="12">
         <v>10585</v>
       </c>
@@ -7087,17 +7087,17 @@
       <c r="I65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="67" t="s">
+      <c r="K65" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
       <c r="U65" s="12">
         <v>10606</v>
       </c>
@@ -7128,10 +7128,10 @@
       <c r="A66" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="12">
         <v>9158</v>
       </c>
@@ -7202,12 +7202,12 @@
       <c r="M67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="60"/>
+      <c r="N67" s="61"/>
       <c r="O67" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="60"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="61"/>
       <c r="R67" s="14">
         <v>283398</v>
       </c>
@@ -7241,17 +7241,17 @@
       </c>
     </row>
     <row r="68" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
       <c r="K68" s="12">
         <v>11433</v>
       </c>
@@ -7304,17 +7304,17 @@
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
       <c r="K69" s="12">
         <v>11437</v>
       </c>
@@ -7343,10 +7343,10 @@
       <c r="U69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="60"/>
+      <c r="Y69" s="61"/>
       <c r="Z69" s="12">
         <v>25720</v>
       </c>
@@ -7356,17 +7356,17 @@
       <c r="AC69" s="17"/>
     </row>
     <row r="70" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
       <c r="K70" s="12">
         <v>11462</v>
       </c>
@@ -7446,17 +7446,17 @@
       <c r="S71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U71" s="66" t="s">
+      <c r="U71" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="66"/>
-      <c r="AB71" s="66"/>
-      <c r="AC71" s="66"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+      <c r="Z71" s="64"/>
+      <c r="AA71" s="64"/>
+      <c r="AB71" s="64"/>
+      <c r="AC71" s="64"/>
     </row>
     <row r="72" spans="1:29" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -7468,12 +7468,12 @@
       <c r="C72" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="60"/>
+      <c r="D72" s="61"/>
       <c r="E72" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="61"/>
-      <c r="G72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="14">
         <v>306307</v>
       </c>
@@ -7505,17 +7505,17 @@
       <c r="S72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="65" t="s">
+      <c r="U72" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V72" s="65"/>
-      <c r="W72" s="65"/>
-      <c r="X72" s="65"/>
-      <c r="Y72" s="65"/>
-      <c r="Z72" s="65"/>
-      <c r="AA72" s="65"/>
-      <c r="AB72" s="65"/>
-      <c r="AC72" s="65"/>
+      <c r="V72" s="63"/>
+      <c r="W72" s="63"/>
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="63"/>
+      <c r="AA72" s="63"/>
+      <c r="AB72" s="63"/>
+      <c r="AC72" s="63"/>
     </row>
     <row r="73" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
@@ -7568,17 +7568,17 @@
       <c r="S73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U73" s="64" t="s">
+      <c r="U73" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="V73" s="64"/>
-      <c r="W73" s="64"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="64"/>
-      <c r="Z73" s="64"/>
-      <c r="AA73" s="64"/>
-      <c r="AB73" s="64"/>
-      <c r="AC73" s="64"/>
+      <c r="V73" s="62"/>
+      <c r="W73" s="62"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="62"/>
+      <c r="Z73" s="62"/>
+      <c r="AA73" s="62"/>
+      <c r="AB73" s="62"/>
+      <c r="AC73" s="62"/>
     </row>
     <row r="74" spans="1:29" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
    